--- a/AAII_Financials/Quarterly/OXY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OXY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>OXY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,230 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6444000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6324000</v>
+      </c>
+      <c r="F8" s="3">
         <v>5743000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>8543000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>4142000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>4570000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>5215000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>4175000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3811000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3536000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3067000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3084000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2978000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2822000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2673000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2466000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2329000</v>
+      </c>
+      <c r="F9" s="3">
         <v>2228000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>3389000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1633000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1954000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1786000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1465000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1363000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1325000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1357000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1486000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1426000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1326000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1338000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3978000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3995000</v>
+      </c>
+      <c r="F10" s="3">
         <v>3515000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>5154000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2509000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>2616000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>3429000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>2710000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2448000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>2211000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1710000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1598000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1552000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1496000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1335000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +905,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>112000</v>
+      </c>
+      <c r="F12" s="3">
         <v>63000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>71000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>36000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>50000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>24000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>21000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>15000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>55000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>8000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>8000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>11000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>17000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,96 +1001,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1951000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1709000</v>
+      </c>
+      <c r="F14" s="3">
         <v>1249000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>50000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>305000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>214000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>12000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>30000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>521000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>11000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>13000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>526000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>221000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>2242000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2271000</v>
+      </c>
+      <c r="F15" s="3">
         <v>1706000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>2004000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>973000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>1086000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>1023000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>947000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>921000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>1076000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>995000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>989000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>942000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>1050000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>1046000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1122,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>7476000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>7717000</v>
+      </c>
+      <c r="F17" s="3">
         <v>6182000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>6687000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3208000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>3974000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3588000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2962000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2744000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3515000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2799000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2912000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2732000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3390000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2991000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-1032000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1393000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-439000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>1856000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>934000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>596000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>1627000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>1213000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1067000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>21000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>268000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>172000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>246000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-568000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-318000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,228 +1242,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>472000</v>
+      </c>
+      <c r="F20" s="3">
         <v>128000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>22000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-53000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>232000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>961000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-44000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>14000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>52000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>38000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>519000</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>4000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1217000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1350000</v>
+      </c>
+      <c r="F21" s="3">
         <v>1395000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>3882000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1854000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1914000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>3611000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>2116000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>2002000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1149000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1301000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1680000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1188000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>486000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>788000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>352000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>434000</v>
+      </c>
+      <c r="F22" s="3">
         <v>381000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>251000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>98000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>99000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>96000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>97000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>97000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>87000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>91000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>86000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>81000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>76000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>68000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-1377000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1355000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-692000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1627000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>783000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>729000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>2492000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1072000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>984000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-14000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>215000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>605000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>165000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-640000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-326000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-82000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>46000</v>
+      </c>
+      <c r="F24" s="3">
         <v>116000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>531000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>225000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>151000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>710000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>302000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>339000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-421000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>85000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>285000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>78000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-333000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-30000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1442,96 +1538,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-1295000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1401000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-808000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1096000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>558000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>578000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1782000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>770000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>645000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>407000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>130000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>320000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>87000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-307000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-296000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-2232000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1338000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-897000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1265000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>628000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>680000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1861000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>843000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>705000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>485000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>189000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>505000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>117000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-268000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1574,52 +1688,64 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-15000</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G29" s="3">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
+      <c r="I29" s="3">
+        <v>25000</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="3">
         <v>10000</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-4000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1788,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1838,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-472000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-128000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-22000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>53000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-232000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-961000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>44000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-14000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-52000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-38000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-519000</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-4000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-60000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2232000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1338000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-912000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1265000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>628000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>705000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1861000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>843000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>705000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>495000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>189000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>505000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>117000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-272000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1988,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2232000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1338000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-912000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1265000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>628000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>705000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1861000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>843000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>705000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>495000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>189000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>505000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>117000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-272000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2117,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2137,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2021000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3032000</v>
+      </c>
+      <c r="F41" s="3">
         <v>4840000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1751000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1752000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>3033000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2954000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1362000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1606000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1672000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1806000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2218000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1494000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2233000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3180000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,283 +2233,325 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2458000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>6373000</v>
+      </c>
+      <c r="F43" s="3">
         <v>5854000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>5273000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>5310000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>4893000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>6000000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>5521000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>5184000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>4145000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>3749000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>3913000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>4316000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>3989000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>3521000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1436000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1447000</v>
+      </c>
+      <c r="F44" s="3">
         <v>1601000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1582000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1484000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1260000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1009000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1347000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1057000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1246000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1007000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>920000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1005000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>866000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>927000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8194000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>7829000</v>
+      </c>
+      <c r="F45" s="3">
         <v>8649000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>819000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>724000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>746000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1149000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2760000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1047000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1207000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>483000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1024000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1423000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1340000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1083000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14109000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>18681000</v>
+      </c>
+      <c r="F46" s="3">
         <v>20944000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>9425000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>9270000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>9932000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>11112000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>10990000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>8894000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>8270000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>7045000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>8075000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>8238000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>8428000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>8711000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2452000</v>
+        <v>7248000</v>
       </c>
       <c r="E47" s="3">
+        <v>8778000</v>
+      </c>
+      <c r="F47" s="3">
+        <v>4814000</v>
+      </c>
+      <c r="G47" s="3">
         <v>2539000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>2518000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>2477000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>2686000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>2642000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>2568000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>2580000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>2331000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>2439000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>2219000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>2341000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>2487000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>80266000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>81854000</v>
+      </c>
+      <c r="F48" s="3">
         <v>91199000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>32796000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>32584000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>31437000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>31155000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>30432000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>31344000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>31174000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>32065000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>31466000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>32005000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>32337000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>30419000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>8461000</v>
+      <c r="D49" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>24</v>
+      <c r="F49" s="3">
+        <v>8461000</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>24</v>
@@ -2345,11 +2565,11 @@
       <c r="J49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2363,8 +2583,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2633,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,34 +2683,40 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2387000</v>
+        <v>20000</v>
       </c>
       <c r="E52" s="3">
+        <v>17000</v>
+      </c>
+      <c r="F52" s="3">
+        <v>25000</v>
+      </c>
+      <c r="G52" s="3">
         <v>10000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>8000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>8000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>4000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>3000</v>
-      </c>
-      <c r="J52" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K52" s="3">
-        <v>2000</v>
       </c>
       <c r="L52" s="3">
         <v>2000</v>
@@ -2487,16 +2725,22 @@
         <v>2000</v>
       </c>
       <c r="N52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P52" s="3">
         <v>3000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>3000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2783,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>101643000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>109330000</v>
+      </c>
+      <c r="F54" s="3">
         <v>125443000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>44770000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>44380000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>43854000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>44957000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>44067000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>42808000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>42026000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>41443000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>41982000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>42465000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>43109000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>41630000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2857,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,81 +2877,89 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3845000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7017000</v>
+      </c>
+      <c r="F57" s="3">
         <v>6789000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>5445000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>5261000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>4885000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>5443000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>5412000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>5059000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>4408000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3734000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3825000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>4071000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>3926000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>3392000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2464000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>51000</v>
+      </c>
+      <c r="F58" s="3">
         <v>31000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>126000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>127000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>116000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>116000</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="K58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3">
-        <v>500000</v>
-      </c>
       <c r="L58" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>500000</v>
@@ -2702,189 +2968,219 @@
         <v>500000</v>
       </c>
       <c r="O58" s="3">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="P58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+        <v>500000</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5654000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>7881000</v>
+      </c>
+      <c r="F59" s="3">
         <v>8877000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2309000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2149000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2411000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2813000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2666000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2011000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2492000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2128000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2066000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2281000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2436000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2296000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11963000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>14949000</v>
+      </c>
+      <c r="F60" s="3">
         <v>15697000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>7880000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>7537000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>7412000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>8372000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>8078000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>7070000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>7400000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>6362000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>6391000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>6852000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>6362000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>5688000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>36058000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>38537000</v>
+      </c>
+      <c r="F61" s="3">
         <v>47583000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>10163000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>10215000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>10201000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>10198000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>10312000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>10309000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>9328000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>9326000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>9324000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>9322000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>9819000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>8333000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>22327000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>21612000</v>
+      </c>
+      <c r="F62" s="3">
         <v>21158000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>5380000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>5392000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>4911000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>4894000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>4746000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>4707000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>4726000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>5086000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>5230000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>5212000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>5431000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>5313000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3223,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2971,8 +3273,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3323,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>70348000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>75098000</v>
+      </c>
+      <c r="F66" s="3">
         <v>89363000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>23423000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>23144000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>22524000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>23468000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>23136000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>22086000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>21454000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>20774000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>20945000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>21386000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>21612000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>19334000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3397,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3443,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3493,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3174,10 +3508,10 @@
         <v>9762000</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>9762000</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>9762000</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -3209,8 +3543,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3593,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>17229000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>20180000</v>
+      </c>
+      <c r="F72" s="3">
         <v>22227000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>23848000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>23795000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>23750000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>23635000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>22361000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>22107000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>21935000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>22032000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>22435000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>22513000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>22981000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>23836000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3693,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3743,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3793,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21533000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>24470000</v>
+      </c>
+      <c r="F76" s="3">
         <v>26318000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>21347000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>21236000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>21330000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>21489000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>20931000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>20722000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>20572000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>20669000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>21037000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>21079000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>21497000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>22296000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3893,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2232000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1338000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-912000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1265000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>628000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>705000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1861000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>843000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>705000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>495000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>189000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>505000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>117000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-272000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4022,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2242000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>2271000</v>
+      </c>
+      <c r="F83" s="3">
         <v>1706000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>2004000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>973000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>1086000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>1023000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>947000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>921000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>1076000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>995000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>989000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>942000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>1050000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>1046000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4118,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4168,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4218,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4268,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4318,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1339000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>2009000</v>
+      </c>
+      <c r="F89" s="3">
         <v>2405000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>2961000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>948000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>2500000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>2404000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>1756000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1009000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1421000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1070000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1853000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>652000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>915000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>650000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4392,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-2171000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-4108000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-76000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-69000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-202000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-484000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-65000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-177000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-4000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-683000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-358000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1482000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-2834000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-646000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4488,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4538,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1530000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1301000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-25023000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-2703000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1415000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1506000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>586000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1315000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-971000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-953000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-764000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-690000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-672000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-2766000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-642000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4612,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-913000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-858000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-588000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-1178000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-591000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-594000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-595000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-593000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-592000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-592000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-586000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-584000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-584000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-585000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-575000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4708,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4758,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4808,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1019000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-2499000</v>
+      </c>
+      <c r="F100" s="3">
         <v>26232000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1540000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-814000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-915000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-1398000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-685000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-104000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-602000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-583000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-586000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-572000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>904000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-579000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4908,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1210000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1791000</v>
+      </c>
+      <c r="F102" s="3">
         <v>3614000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1282000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1281000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>79000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1592000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-244000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-66000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-134000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-412000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>724000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-739000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-947000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-571000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OXY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OXY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,230 +665,243 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6444000</v>
+        <v>2961000</v>
       </c>
       <c r="E8" s="3">
+        <v>6647000</v>
+      </c>
+      <c r="F8" s="3">
         <v>6324000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5743000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8543000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4142000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4570000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5215000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4175000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3811000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3536000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3067000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3084000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2978000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2822000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2673000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2466000</v>
+        <v>1789000</v>
       </c>
       <c r="E9" s="3">
+        <v>3108000</v>
+      </c>
+      <c r="F9" s="3">
         <v>2329000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2228000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3389000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1633000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1954000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1786000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1465000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1363000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1325000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1357000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1486000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1426000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1326000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1338000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3978000</v>
+        <v>1172000</v>
       </c>
       <c r="E10" s="3">
+        <v>3539000</v>
+      </c>
+      <c r="F10" s="3">
         <v>3995000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3515000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5154000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2509000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2616000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3429000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2710000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2448000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2211000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1710000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1598000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1552000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1496000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1335000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -907,58 +920,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E12" s="3">
         <v>37000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>112000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>63000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>71000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>36000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>50000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>24000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>21000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>15000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>55000</v>
-      </c>
-      <c r="N12" s="3">
-        <v>8000</v>
       </c>
       <c r="O12" s="3">
         <v>8000</v>
       </c>
       <c r="P12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="Q12" s="3">
         <v>11000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>17000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1007,108 +1024,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>6619000</v>
+      </c>
+      <c r="E14" s="3">
         <v>1951000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1709000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1249000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>50000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>305000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>214000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>12000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>30000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>521000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>11000</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>13000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>526000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>221000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>2242000</v>
+        <v>2119000</v>
       </c>
       <c r="E15" s="3">
+        <v>2309000</v>
+      </c>
+      <c r="F15" s="3">
         <v>2271000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1706000</v>
       </c>
-      <c r="G15" s="3">
-        <v>2004000</v>
-      </c>
       <c r="H15" s="3">
+        <v>3035000</v>
+      </c>
+      <c r="I15" s="3">
         <v>973000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1086000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1023000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>947000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>921000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1076000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>995000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>989000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>942000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1050000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1046000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,108 +1150,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>7476000</v>
+        <v>10967000</v>
       </c>
       <c r="E17" s="3">
+        <v>7622000</v>
+      </c>
+      <c r="F17" s="3">
         <v>7717000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6182000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6687000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3208000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3974000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3588000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2962000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2744000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3515000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2799000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2912000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2732000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3390000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2991000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-1032000</v>
+        <v>-8006000</v>
       </c>
       <c r="E18" s="3">
+        <v>-975000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1393000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-439000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1856000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>934000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>596000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1627000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1213000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1067000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>21000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>268000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>172000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>246000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-568000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-318000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,258 +1277,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>7000</v>
+        <v>132000</v>
       </c>
       <c r="E20" s="3">
-        <v>472000</v>
+        <v>-711000</v>
       </c>
       <c r="F20" s="3">
-        <v>128000</v>
+        <v>837000</v>
       </c>
       <c r="G20" s="3">
-        <v>22000</v>
+        <v>199000</v>
       </c>
       <c r="H20" s="3">
-        <v>-53000</v>
+        <v>192000</v>
       </c>
       <c r="I20" s="3">
+        <v>20000</v>
+      </c>
+      <c r="J20" s="3">
         <v>232000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>961000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-44000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>14000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>52000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>38000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>519000</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>4000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1217000</v>
+        <v>-5688000</v>
       </c>
       <c r="E21" s="3">
-        <v>1350000</v>
+        <v>556000</v>
       </c>
       <c r="F21" s="3">
-        <v>1395000</v>
+        <v>1715000</v>
       </c>
       <c r="G21" s="3">
-        <v>3882000</v>
+        <v>1466000</v>
       </c>
       <c r="H21" s="3">
-        <v>1854000</v>
+        <v>4052000</v>
       </c>
       <c r="I21" s="3">
+        <v>1927000</v>
+      </c>
+      <c r="J21" s="3">
         <v>1914000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3611000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2116000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2002000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1149000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1301000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1680000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1188000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>486000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>788000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>310000</v>
+      </c>
+      <c r="E22" s="3">
         <v>352000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>434000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>381000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>251000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>98000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>99000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>96000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>97000</v>
       </c>
       <c r="L22" s="3">
         <v>97000</v>
       </c>
       <c r="M22" s="3">
+        <v>97000</v>
+      </c>
+      <c r="N22" s="3">
         <v>87000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>91000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>86000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>81000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>76000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>68000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-1377000</v>
+        <v>-8184000</v>
       </c>
       <c r="E23" s="3">
-        <v>-1355000</v>
+        <v>-2038000</v>
       </c>
       <c r="F23" s="3">
-        <v>-692000</v>
+        <v>-990000</v>
       </c>
       <c r="G23" s="3">
-        <v>1627000</v>
+        <v>-621000</v>
       </c>
       <c r="H23" s="3">
-        <v>783000</v>
+        <v>1797000</v>
       </c>
       <c r="I23" s="3">
+        <v>856000</v>
+      </c>
+      <c r="J23" s="3">
         <v>729000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2492000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1072000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>984000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-14000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>215000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>605000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>165000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-640000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-326000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-82000</v>
+        <v>-1468000</v>
       </c>
       <c r="E24" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="F24" s="3">
         <v>46000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>116000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>531000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>225000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>151000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>710000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>302000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>339000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-421000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>85000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>285000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>78000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-333000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-30000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,108 +1593,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-1295000</v>
+        <v>-6716000</v>
       </c>
       <c r="E26" s="3">
-        <v>-1401000</v>
+        <v>-2013000</v>
       </c>
       <c r="F26" s="3">
-        <v>-808000</v>
+        <v>-1036000</v>
       </c>
       <c r="G26" s="3">
-        <v>1096000</v>
+        <v>-737000</v>
       </c>
       <c r="H26" s="3">
-        <v>558000</v>
+        <v>1266000</v>
       </c>
       <c r="I26" s="3">
+        <v>631000</v>
+      </c>
+      <c r="J26" s="3">
         <v>578000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1782000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>770000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>645000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>407000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>130000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>320000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>87000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-307000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-296000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-6938000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2232000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1338000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-897000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1265000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>628000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>680000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1861000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>843000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>705000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>485000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>189000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>505000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>117000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-268000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1694,31 +1752,34 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>-1415000</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>-15000</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>25000</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>24</v>
@@ -1726,12 +1787,12 @@
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="3">
         <v>10000</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
@@ -1739,13 +1800,16 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-4000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,108 +1911,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7000</v>
+        <v>-132000</v>
       </c>
       <c r="E32" s="3">
-        <v>-472000</v>
+        <v>711000</v>
       </c>
       <c r="F32" s="3">
-        <v>-128000</v>
+        <v>-837000</v>
       </c>
       <c r="G32" s="3">
-        <v>-22000</v>
+        <v>-199000</v>
       </c>
       <c r="H32" s="3">
-        <v>53000</v>
+        <v>-192000</v>
       </c>
       <c r="I32" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="J32" s="3">
         <v>-232000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-961000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>44000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-14000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-52000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-38000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-519000</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-4000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-60000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8353000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2232000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1338000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-912000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1265000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>628000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>705000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1861000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>843000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>705000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>495000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>189000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>505000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>117000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-272000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,113 +2070,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8353000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2232000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1338000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-912000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1265000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>628000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>705000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1861000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>843000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>705000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>495000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>189000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>505000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>117000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-272000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,58 +2225,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1011000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2021000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3032000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4840000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1751000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1752000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3033000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2954000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1362000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1606000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1672000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1806000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2218000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1494000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2233000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3180000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2239,308 +2329,329 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2359000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2458000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6373000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5854000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5273000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5310000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4893000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6000000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5521000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5184000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4145000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3749000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3913000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4316000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3989000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3521000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1477000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1436000</v>
       </c>
-      <c r="E44" s="3">
-        <v>1447000</v>
-      </c>
       <c r="F44" s="3">
+        <v>1581000</v>
+      </c>
+      <c r="G44" s="3">
         <v>1601000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1582000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1484000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1260000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1009000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1347000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1057000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1246000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1007000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>920000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1005000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>866000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>927000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3590000</v>
+      </c>
+      <c r="E45" s="3">
         <v>8194000</v>
       </c>
-      <c r="E45" s="3">
-        <v>7829000</v>
-      </c>
       <c r="F45" s="3">
+        <v>7110000</v>
+      </c>
+      <c r="G45" s="3">
         <v>8649000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>819000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>724000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>746000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1149000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2760000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1047000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1207000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>483000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1024000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1423000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1340000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1083000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8437000</v>
+      </c>
+      <c r="E46" s="3">
         <v>14109000</v>
       </c>
-      <c r="E46" s="3">
-        <v>18681000</v>
-      </c>
       <c r="F46" s="3">
+        <v>16773000</v>
+      </c>
+      <c r="G46" s="3">
         <v>20944000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9425000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9270000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9932000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>11112000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10990000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8894000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8270000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7045000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8075000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8238000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8428000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8711000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7204000</v>
+      </c>
+      <c r="E47" s="3">
         <v>7248000</v>
       </c>
-      <c r="E47" s="3">
-        <v>8778000</v>
-      </c>
       <c r="F47" s="3">
+        <v>11305000</v>
+      </c>
+      <c r="G47" s="3">
         <v>4814000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2539000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2518000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2477000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2686000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2642000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2568000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2580000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2331000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2439000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2219000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2341000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2487000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>73733000</v>
+      </c>
+      <c r="E48" s="3">
         <v>80266000</v>
       </c>
-      <c r="E48" s="3">
-        <v>81854000</v>
-      </c>
       <c r="F48" s="3">
+        <v>83641000</v>
+      </c>
+      <c r="G48" s="3">
         <v>91199000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>32796000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>32584000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>31437000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>31155000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>30432000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>31344000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>31174000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>32065000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>31466000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>32005000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>32337000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>30419000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2550,11 +2661,11 @@
       <c r="E49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49" s="3">
         <v>8461000</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>24</v>
@@ -2571,8 +2682,8 @@
       <c r="L49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2589,8 +2700,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,37 +2806,40 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E52" s="3">
         <v>20000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>17000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>25000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>10000</v>
-      </c>
-      <c r="H52" s="3">
-        <v>8000</v>
       </c>
       <c r="I52" s="3">
         <v>8000</v>
       </c>
       <c r="J52" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K52" s="3">
         <v>4000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3000</v>
-      </c>
-      <c r="L52" s="3">
-        <v>2000</v>
       </c>
       <c r="M52" s="3">
         <v>2000</v>
@@ -2731,16 +2851,19 @@
         <v>2000</v>
       </c>
       <c r="P52" s="3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q52" s="3">
         <v>3000</v>
       </c>
       <c r="R52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="S52" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,58 +2912,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>89452000</v>
+      </c>
+      <c r="E54" s="3">
         <v>101643000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>109330000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>125443000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>44770000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>44380000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>43854000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>44957000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>44067000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>42808000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>42026000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>41443000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>41982000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>42465000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>43109000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>41630000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,90 +3009,94 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3034000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3845000</v>
       </c>
-      <c r="E57" s="3">
-        <v>7017000</v>
-      </c>
       <c r="F57" s="3">
+        <v>7050000</v>
+      </c>
+      <c r="G57" s="3">
         <v>6789000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5445000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5261000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4885000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5443000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5412000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5059000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4408000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3734000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3825000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4071000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3926000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3392000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2460000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2464000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>51000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>31000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>126000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>127000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>116000</v>
       </c>
       <c r="J58" s="3">
         <v>116000</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="K58" s="3">
+        <v>116000</v>
+      </c>
+      <c r="L58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>500000</v>
@@ -2974,213 +3108,228 @@
         <v>500000</v>
       </c>
       <c r="Q58" s="3">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4425000</v>
+      </c>
+      <c r="E59" s="3">
         <v>5654000</v>
       </c>
-      <c r="E59" s="3">
-        <v>7881000</v>
-      </c>
       <c r="F59" s="3">
+        <v>13046000</v>
+      </c>
+      <c r="G59" s="3">
         <v>8877000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2309000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2149000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2411000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2813000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2666000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2011000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2492000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2128000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2066000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2281000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2436000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2296000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9919000</v>
+      </c>
+      <c r="E60" s="3">
         <v>11963000</v>
       </c>
-      <c r="E60" s="3">
-        <v>14949000</v>
-      </c>
       <c r="F60" s="3">
+        <v>14845000</v>
+      </c>
+      <c r="G60" s="3">
         <v>15697000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7880000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7537000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7412000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8372000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8078000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7070000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7400000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6362000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6391000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6852000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6362000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5688000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>36034000</v>
+      </c>
+      <c r="E61" s="3">
         <v>36058000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>38537000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>47583000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>10163000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>10215000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>10201000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>10198000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10312000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10309000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9328000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9326000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9324000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9322000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9819000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8333000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20153000</v>
+      </c>
+      <c r="E62" s="3">
         <v>22327000</v>
       </c>
-      <c r="E62" s="3">
-        <v>21612000</v>
-      </c>
       <c r="F62" s="3">
+        <v>25530000</v>
+      </c>
+      <c r="G62" s="3">
         <v>21158000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5380000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5392000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4911000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4894000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4746000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4707000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4726000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5086000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5230000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5212000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5431000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5313000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3279,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,58 +3484,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>66106000</v>
+      </c>
+      <c r="E66" s="3">
         <v>70348000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>75098000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>89363000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>23423000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>23144000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>22524000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>23468000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23136000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>22086000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>21454000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>20774000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>20945000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>21386000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>21612000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>19334000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3514,7 +3682,7 @@
         <v>9762000</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>9762000</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -3549,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,58 +3770,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8105000</v>
+      </c>
+      <c r="E72" s="3">
         <v>17229000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>20180000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>22227000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>23848000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>23795000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>23750000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>23635000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>22361000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>22107000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>21935000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>22032000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>22435000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>22513000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>22981000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>23836000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,58 +3982,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13584000</v>
+      </c>
+      <c r="E76" s="3">
         <v>21533000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>24470000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>26318000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>21347000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>21236000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>21330000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>21489000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>20931000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>20722000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>20572000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>20669000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21037000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21079000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21497000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>22296000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,113 +4088,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8353000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2232000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1338000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-912000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1265000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>628000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>705000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1861000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>843000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>705000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>495000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>189000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>505000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>117000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-272000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,58 +4222,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2186000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2242000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2271000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1706000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2004000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>973000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1086000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1023000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>947000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>921000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1076000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>995000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>989000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>942000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1050000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1046000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,58 +4538,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>360000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1339000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2009000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2405000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2961000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>948000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2500000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2404000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1756000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1009000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1421000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1070000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1853000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>652000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>915000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>650000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,58 +4614,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-35000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2171000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4108000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-76000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-69000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-202000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-484000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-65000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-177000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-683000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-358000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1482000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2834000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-646000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,58 +4771,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-576000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1530000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1301000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-25023000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2703000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1415000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1506000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>586000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1315000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-971000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-953000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-764000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-690000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-672000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2766000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-642000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,58 +4847,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-913000</v>
+        <v>-492000</v>
       </c>
       <c r="E96" s="3">
-        <v>-858000</v>
+        <v>-694000</v>
       </c>
       <c r="F96" s="3">
+        <v>-540000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-588000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1178000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-591000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-594000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-595000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-593000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-592000</v>
       </c>
       <c r="M96" s="3">
         <v>-592000</v>
       </c>
       <c r="N96" s="3">
+        <v>-592000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-586000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-584000</v>
       </c>
       <c r="P96" s="3">
         <v>-584000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-584000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-585000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-575000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,58 +5057,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-935000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1019000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2499000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>26232000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1540000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-814000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-915000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1398000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-685000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-104000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-602000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-583000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-586000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-572000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>904000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-579000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4914,54 +5163,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1151000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1210000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1791000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3614000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1282000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1281000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>79000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1592000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-244000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-66000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-134000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-412000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>724000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-739000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-947000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-571000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OXY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OXY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>OXY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,243 +665,256 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4129000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2961000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6647000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6324000</v>
       </c>
-      <c r="G8" s="3">
-        <v>5743000</v>
-      </c>
       <c r="H8" s="3">
+        <v>5915000</v>
+      </c>
+      <c r="I8" s="3">
         <v>8543000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4142000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4570000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5215000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4175000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3811000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3536000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3067000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3084000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2978000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2822000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2673000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1950000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1789000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3108000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2329000</v>
       </c>
-      <c r="G9" s="3">
-        <v>2228000</v>
-      </c>
       <c r="H9" s="3">
+        <v>2985000</v>
+      </c>
+      <c r="I9" s="3">
         <v>3389000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1633000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1954000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1786000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1465000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1363000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1325000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1357000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1486000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1426000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1326000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1338000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2179000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1172000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3539000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3995000</v>
       </c>
-      <c r="G10" s="3">
-        <v>3515000</v>
-      </c>
       <c r="H10" s="3">
+        <v>2930000</v>
+      </c>
+      <c r="I10" s="3">
         <v>5154000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2509000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2616000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3429000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2710000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2448000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2211000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1710000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1598000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1552000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1496000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1335000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -921,61 +934,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E12" s="3">
         <v>33000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>37000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>112000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>63000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>71000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>36000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>50000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>24000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>21000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>15000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>55000</v>
-      </c>
-      <c r="O12" s="3">
-        <v>8000</v>
       </c>
       <c r="P12" s="3">
         <v>8000</v>
       </c>
       <c r="Q12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="R12" s="3">
         <v>11000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>17000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1027,114 +1044,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2728000</v>
+      </c>
+      <c r="E14" s="3">
         <v>6619000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1951000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1709000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1249000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>50000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>305000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>214000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>12000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>30000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>521000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>11000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>13000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>526000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>221000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>1915000</v>
+      </c>
+      <c r="E15" s="3">
         <v>2119000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2309000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2271000</v>
       </c>
-      <c r="G15" s="3">
-        <v>1706000</v>
-      </c>
       <c r="H15" s="3">
-        <v>3035000</v>
+        <v>1767000</v>
       </c>
       <c r="I15" s="3">
+        <v>2004000</v>
+      </c>
+      <c r="J15" s="3">
         <v>973000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1086000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1023000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>947000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>921000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1076000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>995000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>989000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>942000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1050000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>1046000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,114 +1177,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>7199000</v>
+      </c>
+      <c r="E17" s="3">
         <v>10967000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7622000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7717000</v>
       </c>
-      <c r="G17" s="3">
-        <v>6182000</v>
-      </c>
       <c r="H17" s="3">
+        <v>6307000</v>
+      </c>
+      <c r="I17" s="3">
         <v>6687000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3208000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3974000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3588000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2962000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2744000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3515000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2799000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2912000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2732000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3390000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2991000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-3070000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-8006000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-975000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1393000</v>
       </c>
-      <c r="G18" s="3">
-        <v>-439000</v>
-      </c>
       <c r="H18" s="3">
+        <v>-392000</v>
+      </c>
+      <c r="I18" s="3">
         <v>1856000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>934000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>596000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1627000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1213000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1067000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>21000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>268000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>172000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>246000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-568000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-318000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1278,273 +1311,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-635000</v>
+      </c>
+      <c r="E20" s="3">
         <v>132000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-711000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>837000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>199000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>192000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>20000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>232000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>961000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-44000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>14000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>52000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>38000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>519000</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>4000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-1790000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5688000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>556000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1715000</v>
       </c>
-      <c r="G21" s="3">
-        <v>1466000</v>
-      </c>
       <c r="H21" s="3">
+        <v>1513000</v>
+      </c>
+      <c r="I21" s="3">
         <v>4052000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1927000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1914000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3611000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2116000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2002000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1149000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1301000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1680000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1188000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>486000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>788000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>353000</v>
+      </c>
+      <c r="E22" s="3">
         <v>310000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>352000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>434000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>381000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>251000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>98000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>99000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>96000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>97000</v>
       </c>
       <c r="M22" s="3">
         <v>97000</v>
       </c>
       <c r="N22" s="3">
+        <v>97000</v>
+      </c>
+      <c r="O22" s="3">
         <v>87000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>91000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>86000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>81000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>76000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>68000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-4058000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-8184000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2038000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-990000</v>
       </c>
-      <c r="G23" s="3">
-        <v>-621000</v>
-      </c>
       <c r="H23" s="3">
+        <v>-574000</v>
+      </c>
+      <c r="I23" s="3">
         <v>1797000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>856000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>729000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2492000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1072000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>984000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-14000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>215000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>605000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>165000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-640000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-326000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-1468000</v>
+        <v>-378000</v>
       </c>
       <c r="E24" s="3">
+        <v>-1298000</v>
+      </c>
+      <c r="F24" s="3">
         <v>-25000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>46000</v>
       </c>
-      <c r="G24" s="3">
-        <v>116000</v>
-      </c>
       <c r="H24" s="3">
+        <v>163000</v>
+      </c>
+      <c r="I24" s="3">
         <v>531000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>225000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>151000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>710000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>302000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>339000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-421000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>85000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>285000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>78000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-333000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-30000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1596,114 +1645,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-6716000</v>
+        <v>-3680000</v>
       </c>
       <c r="E26" s="3">
+        <v>-6886000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2013000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1036000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-737000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1266000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>631000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>578000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1782000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>770000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>645000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>407000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>130000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>320000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>87000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-307000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-296000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-6938000</v>
+        <v>-3883000</v>
       </c>
       <c r="E27" s="3">
+        <v>-7108000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2232000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1338000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-897000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1265000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>628000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>680000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1861000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>843000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>705000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>485000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>189000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>505000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>117000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-268000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1755,34 +1813,37 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>-1415000</v>
+        <v>105000</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>-1245000</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-15000</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
+        <v>-30000</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>25000</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
@@ -1790,12 +1851,12 @@
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="3">
         <v>10000</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
@@ -1803,13 +1864,16 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-4000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,114 +1981,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>635000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-132000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>711000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-837000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-199000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-192000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-20000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-232000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-961000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>44000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-14000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-52000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-38000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-519000</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-4000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-60000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3778000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-8353000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2232000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1338000</v>
       </c>
-      <c r="G33" s="3">
-        <v>-912000</v>
-      </c>
       <c r="H33" s="3">
+        <v>-927000</v>
+      </c>
+      <c r="I33" s="3">
         <v>1265000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>628000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>705000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1861000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>843000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>705000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>495000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>189000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>505000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>117000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-272000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,119 +2149,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3778000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-8353000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2232000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1338000</v>
       </c>
-      <c r="G35" s="3">
-        <v>-912000</v>
-      </c>
       <c r="H35" s="3">
+        <v>-927000</v>
+      </c>
+      <c r="I35" s="3">
         <v>1265000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>628000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>705000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1861000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>843000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>705000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>495000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>189000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>505000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>117000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-272000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,61 +2312,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1896000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1011000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2021000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3032000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4840000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1751000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1752000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3033000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2954000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1362000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1606000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1672000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1806000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2218000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1494000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2233000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3180000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2332,326 +2422,347 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2083000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2359000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2458000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6373000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5854000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5273000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5310000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4893000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6000000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5521000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5184000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4145000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3749000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3913000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4316000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3989000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3521000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1660000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1477000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1436000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1581000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1601000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1582000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1484000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1260000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1009000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1347000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1057000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1246000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1007000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>920000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1005000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>866000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>927000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5055000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3590000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8194000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7110000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8649000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>819000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>724000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>746000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1149000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2760000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1047000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1207000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>483000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1024000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1423000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1340000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1083000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10694000</v>
+      </c>
+      <c r="E46" s="3">
         <v>8437000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>14109000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>16773000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>20944000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9425000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9270000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9932000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11112000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10990000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8894000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8270000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7045000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8075000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8238000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8428000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8711000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4109000</v>
+      </c>
+      <c r="E47" s="3">
         <v>7204000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>7248000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>11305000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4814000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2539000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2518000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2477000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2686000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2642000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2568000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2580000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2331000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2439000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2219000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2341000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2487000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>69617000</v>
+      </c>
+      <c r="E48" s="3">
         <v>73733000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>80266000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>83641000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>91199000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>32796000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>32584000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>31437000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>31155000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>30432000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>31344000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>31174000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>32065000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>31466000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>32005000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>32337000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>30419000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2664,11 +2775,11 @@
       <c r="F49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" s="3">
         <v>8461000</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>24</v>
@@ -2685,8 +2796,8 @@
       <c r="M49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2703,8 +2814,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,40 +2926,43 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E52" s="3">
         <v>78000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>20000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>17000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>25000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>10000</v>
-      </c>
-      <c r="I52" s="3">
-        <v>8000</v>
       </c>
       <c r="J52" s="3">
         <v>8000</v>
       </c>
       <c r="K52" s="3">
+        <v>8000</v>
+      </c>
+      <c r="L52" s="3">
         <v>4000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3000</v>
-      </c>
-      <c r="M52" s="3">
-        <v>2000</v>
       </c>
       <c r="N52" s="3">
         <v>2000</v>
@@ -2854,16 +2974,19 @@
         <v>2000</v>
       </c>
       <c r="Q52" s="3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="R52" s="3">
         <v>3000</v>
       </c>
       <c r="S52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="T52" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,61 +3038,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>84434000</v>
+      </c>
+      <c r="E54" s="3">
         <v>89452000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>101643000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>109330000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>125443000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>44770000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>44380000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>43854000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>44957000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>44067000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>42808000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>42026000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>41443000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>41982000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>42465000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>43109000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>41630000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,96 +3140,100 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2682000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3034000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3845000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7050000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6789000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5445000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5261000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4885000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5443000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5412000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5059000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4408000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3734000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3825000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4071000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3926000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3392000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2558000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2460000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2464000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>51000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>31000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>126000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>127000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>116000</v>
       </c>
       <c r="K58" s="3">
         <v>116000</v>
       </c>
-      <c r="L58" s="3" t="s">
+      <c r="L58" s="3">
+        <v>116000</v>
+      </c>
+      <c r="M58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>500000</v>
@@ -3111,225 +3245,240 @@
         <v>500000</v>
       </c>
       <c r="R58" s="3">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5260000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4425000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5654000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13046000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8877000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2309000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2149000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2411000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2813000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2666000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2011000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2492000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2128000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2066000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2281000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2436000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2296000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10500000</v>
+      </c>
+      <c r="E60" s="3">
         <v>9919000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11963000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>14845000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>15697000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7880000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7537000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7412000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8372000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8078000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7070000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7400000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6362000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6391000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6852000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6362000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5688000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>35899000</v>
+      </c>
+      <c r="E61" s="3">
         <v>36034000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>36058000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>38537000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>47583000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>10163000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>10215000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>10201000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10198000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10312000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10309000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9328000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9326000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9324000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9322000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9819000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8333000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18175000</v>
+      </c>
+      <c r="E62" s="3">
         <v>20153000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>22327000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>25530000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>21158000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5380000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5392000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4911000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4894000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4746000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4707000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4726000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5086000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5230000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5212000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5431000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5313000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3434,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,61 +3642,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>64574000</v>
+      </c>
+      <c r="E66" s="3">
         <v>66106000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>70348000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>75098000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>89363000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>23423000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>23144000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>22524000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23468000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23136000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>22086000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>21454000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>20774000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>20945000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>21386000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>21612000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>19334000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3685,7 +3853,7 @@
         <v>9762000</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>9762000</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -3720,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,61 +3944,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4317000</v>
+      </c>
+      <c r="E72" s="3">
         <v>8105000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>17229000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>20180000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>22227000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>23848000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>23795000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>23750000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>23635000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>22361000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>22107000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>21935000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>22032000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>22435000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>22513000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>22981000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>23836000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,61 +4168,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10098000</v>
+      </c>
+      <c r="E76" s="3">
         <v>13584000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>21533000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>24470000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>26318000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>21347000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>21236000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>21330000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21489000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>20931000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>20722000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>20572000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>20669000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21037000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21079000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21497000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>22296000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,119 +4280,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3778000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-8353000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2232000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1338000</v>
       </c>
-      <c r="G81" s="3">
-        <v>-912000</v>
-      </c>
       <c r="H81" s="3">
+        <v>-927000</v>
+      </c>
+      <c r="I81" s="3">
         <v>1265000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>628000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>705000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1861000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>843000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>705000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>495000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>189000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>505000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>117000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-272000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,61 +4421,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1915000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2186000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2242000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2271000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1706000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2004000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>973000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1086000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1023000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>947000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>921000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1076000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>995000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>989000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>942000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1050000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1046000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,61 +4755,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>852000</v>
+      </c>
+      <c r="E89" s="3">
         <v>360000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1339000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2009000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2405000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2961000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>948000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2500000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2404000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1756000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1009000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1421000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1070000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1853000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>652000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>915000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>650000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,61 +4835,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-13000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-35000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2171000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4108000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-76000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-69000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-202000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-484000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-65000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-177000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-683000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-358000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1482000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2834000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-646000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,61 +5001,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-292000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-576000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1530000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1301000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-25023000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2703000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1415000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1506000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>586000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1315000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-971000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-953000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-764000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-690000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-672000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2766000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-642000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,61 +5081,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>196000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-492000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-694000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-540000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-588000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1178000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-591000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-594000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-595000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-593000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-592000</v>
       </c>
       <c r="N96" s="3">
         <v>-592000</v>
       </c>
       <c r="O96" s="3">
+        <v>-592000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-586000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-584000</v>
       </c>
       <c r="Q96" s="3">
         <v>-584000</v>
       </c>
       <c r="R96" s="3">
+        <v>-584000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-585000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-575000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,61 +5303,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>301000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-935000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1019000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2499000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>26232000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1540000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-814000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-915000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1398000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-685000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-104000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-602000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-583000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-586000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-572000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>904000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-579000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5166,57 +5415,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>861000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1151000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1210000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1791000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3614000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1282000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1281000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>79000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1592000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-244000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-66000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-134000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-412000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>724000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-739000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-947000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-571000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OXY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OXY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>OXY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,256 +665,268 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4190000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4129000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2961000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6647000</v>
       </c>
-      <c r="G8" s="3">
-        <v>6324000</v>
-      </c>
       <c r="H8" s="3">
+        <v>6670000</v>
+      </c>
+      <c r="I8" s="3">
         <v>5915000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8543000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4142000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4570000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5215000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4175000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3811000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3536000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3067000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3084000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2978000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2822000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2673000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2090000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1950000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1789000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3108000</v>
       </c>
-      <c r="G9" s="3">
-        <v>2329000</v>
-      </c>
       <c r="H9" s="3">
+        <v>3285000</v>
+      </c>
+      <c r="I9" s="3">
         <v>2985000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3389000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1633000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1954000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1786000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1465000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1363000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1325000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1357000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1486000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1426000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1326000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1338000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2100000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2179000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1172000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3539000</v>
       </c>
-      <c r="G10" s="3">
-        <v>3995000</v>
-      </c>
       <c r="H10" s="3">
+        <v>3385000</v>
+      </c>
+      <c r="I10" s="3">
         <v>2930000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5154000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2509000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2616000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3429000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2710000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2448000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2211000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1710000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1598000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1552000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1496000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1335000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -935,64 +947,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E12" s="3">
         <v>29000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>33000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>37000</v>
       </c>
-      <c r="G12" s="3">
-        <v>112000</v>
-      </c>
       <c r="H12" s="3">
+        <v>113000</v>
+      </c>
+      <c r="I12" s="3">
         <v>63000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>71000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>36000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>50000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>24000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>21000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>15000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>55000</v>
-      </c>
-      <c r="P12" s="3">
-        <v>8000</v>
       </c>
       <c r="Q12" s="3">
         <v>8000</v>
       </c>
       <c r="R12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="S12" s="3">
         <v>11000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>17000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1047,120 +1063,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E14" s="3">
         <v>2728000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>6619000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1951000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1709000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1249000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>50000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>305000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>214000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>12000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>30000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>521000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>11000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>13000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>526000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>221000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>1754000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1915000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2119000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2309000</v>
       </c>
-      <c r="G15" s="3">
-        <v>2271000</v>
-      </c>
       <c r="H15" s="3">
+        <v>2369000</v>
+      </c>
+      <c r="I15" s="3">
         <v>1767000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2004000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>973000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1086000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1023000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>947000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>921000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1076000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>995000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>989000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>942000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>1050000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>1046000</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,120 +1203,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>4701000</v>
+      </c>
+      <c r="E17" s="3">
         <v>7199000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10967000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7622000</v>
       </c>
-      <c r="G17" s="3">
-        <v>7717000</v>
-      </c>
       <c r="H17" s="3">
+        <v>7942000</v>
+      </c>
+      <c r="I17" s="3">
         <v>6307000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6687000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3208000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3974000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3588000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2962000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2744000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3515000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2799000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2912000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2732000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3390000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2991000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-511000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3070000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-8006000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-975000</v>
       </c>
-      <c r="G18" s="3">
-        <v>-1393000</v>
-      </c>
       <c r="H18" s="3">
+        <v>-1272000</v>
+      </c>
+      <c r="I18" s="3">
         <v>-392000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1856000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>934000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>596000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1627000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1213000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1067000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>21000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>268000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>172000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>246000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-568000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-318000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1312,288 +1344,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-505000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-635000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>132000</v>
       </c>
-      <c r="F20" s="3">
-        <v>-711000</v>
-      </c>
       <c r="G20" s="3">
+        <v>-359000</v>
+      </c>
+      <c r="H20" s="3">
         <v>837000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>199000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>192000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>20000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>232000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>961000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-44000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>14000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>52000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>38000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>519000</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>4000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>738000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1790000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-5688000</v>
       </c>
-      <c r="F21" s="3">
-        <v>556000</v>
-      </c>
       <c r="G21" s="3">
-        <v>1715000</v>
+        <v>908000</v>
       </c>
       <c r="H21" s="3">
+        <v>1836000</v>
+      </c>
+      <c r="I21" s="3">
         <v>1513000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4052000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1927000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1914000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3611000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2116000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2002000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1149000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1301000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1680000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1188000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>486000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>788000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>409000</v>
+      </c>
+      <c r="E22" s="3">
         <v>353000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>310000</v>
       </c>
-      <c r="F22" s="3">
-        <v>352000</v>
-      </c>
       <c r="G22" s="3">
+        <v>704000</v>
+      </c>
+      <c r="H22" s="3">
         <v>434000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>381000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>251000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>98000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>99000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>96000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>97000</v>
       </c>
       <c r="N22" s="3">
         <v>97000</v>
       </c>
       <c r="O22" s="3">
+        <v>97000</v>
+      </c>
+      <c r="P22" s="3">
         <v>87000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>91000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>86000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>81000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>76000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>68000</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-1425000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4058000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-8184000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2038000</v>
       </c>
-      <c r="G23" s="3">
-        <v>-990000</v>
-      </c>
       <c r="H23" s="3">
+        <v>-869000</v>
+      </c>
+      <c r="I23" s="3">
         <v>-574000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1797000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>856000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>729000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2492000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1072000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>984000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-14000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>215000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>605000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>165000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-640000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-326000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-378000</v>
+        <v>-276000</v>
       </c>
       <c r="E24" s="3">
-        <v>-1298000</v>
+        <v>-403000</v>
       </c>
       <c r="F24" s="3">
+        <v>-1468000</v>
+      </c>
+      <c r="G24" s="3">
         <v>-25000</v>
       </c>
-      <c r="G24" s="3">
-        <v>46000</v>
-      </c>
       <c r="H24" s="3">
+        <v>167000</v>
+      </c>
+      <c r="I24" s="3">
         <v>163000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>531000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>225000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>151000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>710000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>302000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>339000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-421000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>85000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>285000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>78000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-333000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-30000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1648,120 +1696,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-3680000</v>
+        <v>-1149000</v>
       </c>
       <c r="E26" s="3">
-        <v>-6886000</v>
+        <v>-3655000</v>
       </c>
       <c r="F26" s="3">
+        <v>-6716000</v>
+      </c>
+      <c r="G26" s="3">
         <v>-2013000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1036000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-737000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1266000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>631000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>578000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1782000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>770000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>645000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>407000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>130000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>320000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>87000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-307000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-296000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-3883000</v>
+        <v>-1349000</v>
       </c>
       <c r="E27" s="3">
-        <v>-7108000</v>
+        <v>-3858000</v>
       </c>
       <c r="F27" s="3">
+        <v>-6938000</v>
+      </c>
+      <c r="G27" s="3">
         <v>-2232000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1338000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-897000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1265000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>628000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>680000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1861000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>843000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>705000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>485000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>189000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>505000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>117000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-268000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1816,37 +1873,40 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>105000</v>
+        <v>37000</v>
       </c>
       <c r="E29" s="3">
-        <v>-1245000</v>
+        <v>80000</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>-1415000</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-30000</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>25000</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>24</v>
@@ -1854,12 +1914,12 @@
       <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="3">
         <v>10000</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
@@ -1867,13 +1927,16 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-4000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1991,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,120 +2050,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>505000</v>
+      </c>
+      <c r="E32" s="3">
         <v>635000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-132000</v>
       </c>
-      <c r="F32" s="3">
-        <v>711000</v>
-      </c>
       <c r="G32" s="3">
+        <v>359000</v>
+      </c>
+      <c r="H32" s="3">
         <v>-837000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-199000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-192000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-20000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-232000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-961000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>44000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-14000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-52000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-38000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-519000</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-4000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-60000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1312000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3778000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-8353000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2232000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1338000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-927000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1265000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>628000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>705000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1861000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>843000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>705000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>495000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>189000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>505000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>117000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-272000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,125 +2227,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1312000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3778000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-8353000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2232000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1338000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-927000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1265000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>628000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>705000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1861000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>843000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>705000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>495000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>189000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>505000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>117000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-272000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2375,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,64 +2398,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2008000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1896000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1011000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2021000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3032000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4840000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1751000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1752000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3033000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2954000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1362000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1606000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1672000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1806000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2218000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1494000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2233000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3180000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2425,344 +2514,365 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2115000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2083000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2359000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2458000</v>
       </c>
-      <c r="G43" s="3">
-        <v>6373000</v>
-      </c>
       <c r="H43" s="3">
+        <v>4233000</v>
+      </c>
+      <c r="I43" s="3">
         <v>5854000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5273000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5310000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4893000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6000000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5521000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5184000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4145000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3749000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3913000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4316000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3989000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3521000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1898000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1660000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1477000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1436000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1581000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1601000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1582000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1484000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1260000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1009000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1347000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1057000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1246000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1007000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>920000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1005000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>866000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>927000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2798000</v>
+      </c>
+      <c r="E45" s="3">
         <v>5055000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3590000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8194000</v>
       </c>
-      <c r="G45" s="3">
-        <v>7110000</v>
-      </c>
       <c r="H45" s="3">
+        <v>7219000</v>
+      </c>
+      <c r="I45" s="3">
         <v>8649000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>819000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>724000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>746000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1149000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2760000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1047000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1207000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>483000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1024000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1423000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1340000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1083000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8819000</v>
+      </c>
+      <c r="E46" s="3">
         <v>10694000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8437000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>14109000</v>
       </c>
-      <c r="G46" s="3">
-        <v>16773000</v>
-      </c>
       <c r="H46" s="3">
+        <v>14633000</v>
+      </c>
+      <c r="I46" s="3">
         <v>20944000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9425000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9270000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9932000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11112000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10990000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8894000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8270000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7045000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8075000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8238000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8428000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8711000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4278000</v>
+      </c>
+      <c r="E47" s="3">
         <v>4109000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>7204000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>7248000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>11305000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4814000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2539000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2518000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2477000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2686000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2642000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2568000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2580000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2331000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2439000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2219000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2341000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2487000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>66951000</v>
+      </c>
+      <c r="E48" s="3">
         <v>69617000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>73733000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>80266000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>83641000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>91199000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>32796000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>32584000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>31437000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>31155000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>30432000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>31344000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>31174000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>32065000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>31466000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>32005000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>32337000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>30419000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2778,11 +2888,11 @@
       <c r="G49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" s="3">
         <v>8461000</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>24</v>
@@ -2799,8 +2909,8 @@
       <c r="N49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -2817,8 +2927,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2986,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,43 +3045,46 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E52" s="3">
         <v>14000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>78000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>20000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>17000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>25000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>10000</v>
-      </c>
-      <c r="J52" s="3">
-        <v>8000</v>
       </c>
       <c r="K52" s="3">
         <v>8000</v>
       </c>
       <c r="L52" s="3">
+        <v>8000</v>
+      </c>
+      <c r="M52" s="3">
         <v>4000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3000</v>
-      </c>
-      <c r="N52" s="3">
-        <v>2000</v>
       </c>
       <c r="O52" s="3">
         <v>2000</v>
@@ -2977,16 +3096,19 @@
         <v>2000</v>
       </c>
       <c r="R52" s="3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="S52" s="3">
         <v>3000</v>
       </c>
       <c r="T52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="U52" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,64 +3163,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>80064000</v>
+      </c>
+      <c r="E54" s="3">
         <v>84434000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>89452000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>101643000</v>
       </c>
-      <c r="G54" s="3">
-        <v>109330000</v>
-      </c>
       <c r="H54" s="3">
+        <v>107190000</v>
+      </c>
+      <c r="I54" s="3">
         <v>125443000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>44770000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>44380000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>43854000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>44957000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>44067000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>42808000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>42026000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>41443000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>41982000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>42465000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>43109000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>41630000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3247,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,102 +3270,106 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2987000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2682000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3034000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3845000</v>
       </c>
-      <c r="G57" s="3">
-        <v>7050000</v>
-      </c>
       <c r="H57" s="3">
+        <v>4910000</v>
+      </c>
+      <c r="I57" s="3">
         <v>6789000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5445000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5261000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4885000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5443000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5412000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5059000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4408000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3734000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3825000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4071000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3926000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3392000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>440000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2558000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2460000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2464000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>51000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>31000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>126000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>127000</v>
-      </c>
-      <c r="K58" s="3">
-        <v>116000</v>
       </c>
       <c r="L58" s="3">
         <v>116000</v>
       </c>
-      <c r="M58" s="3" t="s">
+      <c r="M58" s="3">
+        <v>116000</v>
+      </c>
+      <c r="N58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>500000</v>
@@ -3248,237 +3381,252 @@
         <v>500000</v>
       </c>
       <c r="S58" s="3">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4796000</v>
+      </c>
+      <c r="E59" s="3">
         <v>5260000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4425000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5654000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13046000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8877000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2309000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2149000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2411000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2813000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2666000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2011000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2492000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2128000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2066000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2281000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2436000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2296000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8223000</v>
+      </c>
+      <c r="E60" s="3">
         <v>10500000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9919000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11963000</v>
       </c>
-      <c r="G60" s="3">
-        <v>14845000</v>
-      </c>
       <c r="H60" s="3">
+        <v>12705000</v>
+      </c>
+      <c r="I60" s="3">
         <v>15697000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7880000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7537000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7412000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8372000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8078000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7070000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7400000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6362000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6391000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6852000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6362000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5688000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>35745000</v>
+      </c>
+      <c r="E61" s="3">
         <v>35899000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>36034000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>36058000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>38537000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>47583000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>10163000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>10215000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10201000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10198000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10312000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10309000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9328000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9326000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9324000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9322000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9819000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>8333000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>17523000</v>
+      </c>
+      <c r="E62" s="3">
         <v>18175000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>20153000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>22327000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>25530000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>21158000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5380000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5392000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4911000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4894000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4746000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4707000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4726000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5086000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5230000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5212000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5431000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5313000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3681,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3589,8 +3740,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,64 +3799,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>61491000</v>
+      </c>
+      <c r="E66" s="3">
         <v>64574000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>66106000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>70348000</v>
       </c>
-      <c r="G66" s="3">
-        <v>75098000</v>
-      </c>
       <c r="H66" s="3">
+        <v>72958000</v>
+      </c>
+      <c r="I66" s="3">
         <v>89363000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>23423000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>23144000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22524000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23468000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23136000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>22086000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>21454000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>20774000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>20945000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>21386000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>21612000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>19334000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3883,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3940,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +3999,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3856,7 +4023,7 @@
         <v>9762000</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>9762000</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -3891,8 +4058,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,64 +4117,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2996000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4317000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>8105000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>17229000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>20180000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>22227000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>23848000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>23795000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>23750000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>23635000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>22361000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>22107000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>21935000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>22032000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>22435000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>22513000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>22981000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>23836000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4235,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4294,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,64 +4353,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8811000</v>
+      </c>
+      <c r="E76" s="3">
         <v>10098000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13584000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21533000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>24470000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>26318000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>21347000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>21236000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21330000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21489000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>20931000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>20722000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>20572000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>20669000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21037000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21079000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21497000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>22296000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,125 +4471,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1312000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3778000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-8353000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2232000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1338000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-927000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1265000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>628000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>705000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1861000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>843000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>705000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>495000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>189000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>505000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>117000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-272000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,64 +4619,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1754000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1915000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2186000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2242000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2271000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1706000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2004000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>973000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1086000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1023000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>947000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>921000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1076000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>995000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>989000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>942000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1050000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1046000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4735,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4794,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4853,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4912,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,64 +4971,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1404000</v>
+      </c>
+      <c r="E89" s="3">
         <v>852000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>360000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1339000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2009000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2405000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2961000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>948000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2500000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2404000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1756000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1009000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1421000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1070000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1853000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>652000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>915000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>650000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,64 +5055,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-54000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-13000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-35000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2171000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4108000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-76000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-69000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-202000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-484000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-65000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-177000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-683000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-358000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1482000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2834000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-646000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5171,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,64 +5230,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1579000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-292000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-576000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1530000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1301000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-25023000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2703000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1415000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1506000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>586000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1315000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-971000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-953000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-764000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-690000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-672000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2766000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-642000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,64 +5314,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E96" s="3">
         <v>196000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-492000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-694000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-540000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-588000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1178000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-591000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-594000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-595000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-593000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-592000</v>
       </c>
       <c r="O96" s="3">
         <v>-592000</v>
       </c>
       <c r="P96" s="3">
+        <v>-592000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-586000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-584000</v>
       </c>
       <c r="R96" s="3">
         <v>-584000</v>
       </c>
       <c r="S96" s="3">
+        <v>-584000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-585000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-575000</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5430,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5489,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,64 +5548,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2863000</v>
+      </c>
+      <c r="E100" s="3">
         <v>301000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-935000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1019000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2499000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>26232000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1540000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-814000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-915000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1398000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-685000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-104000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-602000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-583000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-586000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-572000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>904000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-579000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5418,60 +5666,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E102" s="3">
         <v>861000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1151000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1210000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1791000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3614000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1282000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1281000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>79000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1592000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-244000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-66000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-134000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-412000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>724000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-739000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-947000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-571000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OXY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OXY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>OXY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,268 +665,281 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5368000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4190000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4129000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2961000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6647000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6670000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5915000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8543000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4142000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4570000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5215000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4175000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3811000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3536000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3067000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3084000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2978000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2822000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2673000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2257000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2090000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1950000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1789000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3108000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3285000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2985000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3389000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1633000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1954000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1786000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1465000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1363000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1325000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1357000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1486000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1426000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1326000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1338000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3111000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2100000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2179000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1172000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3539000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3385000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2930000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5154000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2509000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2616000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3429000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2710000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2448000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2211000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1710000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1598000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1552000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1496000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1335000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -948,67 +961,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E12" s="3">
         <v>33000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>29000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>33000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>37000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>113000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>63000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>71000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>36000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>50000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>24000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>21000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>15000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>55000</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>8000</v>
       </c>
       <c r="R12" s="3">
         <v>8000</v>
       </c>
       <c r="S12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="T12" s="3">
         <v>11000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>17000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1066,126 +1083,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>176000</v>
+      </c>
+      <c r="E14" s="3">
         <v>124000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2728000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>6619000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1951000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1709000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1249000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>50000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>305000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>214000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>12000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>30000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>521000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>11000</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>13000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>526000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>221000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>2194000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1754000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1915000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2119000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2309000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2369000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1767000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2004000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>973000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1086000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1023000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>947000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>921000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1076000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>995000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>989000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>942000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>1050000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>1046000</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1204,126 +1230,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>5289000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4701000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7199000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10967000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7622000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7942000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6307000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6687000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3208000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3974000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3588000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2962000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2744000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3515000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2799000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2912000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2732000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3390000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2991000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-511000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3070000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-8006000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-975000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1272000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-392000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1856000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>934000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>596000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1627000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1213000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1067000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>21000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>268000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>172000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>246000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-568000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-318000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1345,303 +1378,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>631000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-505000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-635000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>132000</v>
       </c>
-      <c r="G20" s="3">
-        <v>-359000</v>
-      </c>
       <c r="H20" s="3">
+        <v>-711000</v>
+      </c>
+      <c r="I20" s="3">
         <v>837000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>199000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>192000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>20000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>232000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>961000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-44000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>14000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>52000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>38000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>519000</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>4000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>2904000</v>
+      </c>
+      <c r="E21" s="3">
         <v>738000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1790000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5688000</v>
       </c>
-      <c r="G21" s="3">
-        <v>908000</v>
-      </c>
       <c r="H21" s="3">
+        <v>556000</v>
+      </c>
+      <c r="I21" s="3">
         <v>1836000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1513000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4052000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1927000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1914000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3611000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2116000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2002000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1149000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1301000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1680000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1188000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>486000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>788000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>395000</v>
+      </c>
+      <c r="E22" s="3">
         <v>409000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>353000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>310000</v>
       </c>
-      <c r="G22" s="3">
-        <v>704000</v>
-      </c>
       <c r="H22" s="3">
+        <v>352000</v>
+      </c>
+      <c r="I22" s="3">
         <v>434000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>381000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>251000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>98000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>99000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>96000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>97000</v>
       </c>
       <c r="O22" s="3">
         <v>97000</v>
       </c>
       <c r="P22" s="3">
+        <v>97000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>87000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>91000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>86000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>81000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>76000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>68000</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>315000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1425000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4058000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8184000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2038000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-869000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-574000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1797000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>856000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>729000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2492000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1072000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>984000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>215000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>605000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>165000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-640000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-326000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-276000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-403000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1468000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-25000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>167000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>163000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>531000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>225000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>151000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>710000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>302000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>339000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-421000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>85000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>285000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>78000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-333000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-30000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1699,126 +1748,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>299000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1149000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3655000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6716000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2013000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1036000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-737000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1266000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>631000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>578000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1782000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>770000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>645000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>407000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>130000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>320000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>87000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-307000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-296000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1349000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3858000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6938000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2232000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1338000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-897000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1265000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>628000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>680000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1861000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>843000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>705000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>485000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>189000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>505000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>117000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-268000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1876,40 +1934,43 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-445000</v>
+      </c>
+      <c r="E29" s="3">
         <v>37000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>80000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-1415000</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-30000</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>25000</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
@@ -1917,12 +1978,12 @@
       <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="3">
         <v>10000</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
@@ -1930,13 +1991,16 @@
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-4000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1994,8 +2058,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2053,126 +2120,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-631000</v>
+      </c>
+      <c r="E32" s="3">
         <v>505000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>635000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-132000</v>
       </c>
-      <c r="G32" s="3">
-        <v>359000</v>
-      </c>
       <c r="H32" s="3">
+        <v>711000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-837000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-199000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-192000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-20000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-232000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-961000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>44000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-14000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-52000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-38000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-519000</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-4000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-60000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-346000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1312000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3778000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-8353000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2232000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1338000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-927000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1265000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>628000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>705000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1861000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>843000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>705000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>495000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>189000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>505000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>117000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-272000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2230,131 +2306,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-346000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1312000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3778000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-8353000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2232000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1338000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-927000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1265000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>628000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>705000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1861000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>843000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>705000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>495000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>189000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>505000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>117000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-272000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2376,8 +2461,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2399,67 +2485,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2270000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2008000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1896000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1011000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2021000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3032000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4840000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1751000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1752000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3033000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2954000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1362000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1606000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1672000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1806000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2218000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1494000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2233000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3180000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2517,362 +2607,383 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3046000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2115000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2083000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2359000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2458000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4233000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5854000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5273000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5310000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4893000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6000000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5521000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5184000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4145000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3749000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3913000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4316000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3989000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3521000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2173000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1898000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1660000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1477000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1436000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1581000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1601000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1582000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1484000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1260000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1009000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1347000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1057000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1246000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1007000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>920000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1005000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>866000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>927000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2585000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2798000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5055000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3590000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8194000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7219000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8649000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>819000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>724000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>746000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1149000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2760000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1047000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1207000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>483000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1024000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1423000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1340000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1083000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10074000</v>
+      </c>
+      <c r="E46" s="3">
         <v>8819000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10694000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8437000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>14109000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>14633000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>20944000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9425000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9270000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9932000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11112000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10990000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8894000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8270000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7045000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8075000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8238000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8428000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8711000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4259000</v>
+      </c>
+      <c r="E47" s="3">
         <v>4278000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4109000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>7204000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>7248000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>11305000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4814000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2539000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2518000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2477000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2686000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2642000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2568000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2580000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2331000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2439000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2219000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2341000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2487000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>65022000</v>
+      </c>
+      <c r="E48" s="3">
         <v>66951000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>69617000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>73733000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>80266000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>83641000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>91199000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>32796000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>32584000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>31437000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>31155000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>30432000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>31344000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>31174000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>32065000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>31466000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>32005000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>32337000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>30419000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2891,11 +3002,11 @@
       <c r="H49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J49" s="3">
         <v>8461000</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>24</v>
@@ -2912,8 +3023,8 @@
       <c r="O49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -2930,8 +3041,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2989,8 +3103,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3048,46 +3165,49 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="3">
         <v>16000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>14000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>78000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>20000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>17000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>25000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>10000</v>
-      </c>
-      <c r="K52" s="3">
-        <v>8000</v>
       </c>
       <c r="L52" s="3">
         <v>8000</v>
       </c>
       <c r="M52" s="3">
+        <v>8000</v>
+      </c>
+      <c r="N52" s="3">
         <v>4000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3000</v>
-      </c>
-      <c r="O52" s="3">
-        <v>2000</v>
       </c>
       <c r="P52" s="3">
         <v>2000</v>
@@ -3099,16 +3219,19 @@
         <v>2000</v>
       </c>
       <c r="S52" s="3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="T52" s="3">
         <v>3000</v>
       </c>
       <c r="U52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="V52" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3166,67 +3289,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>79355000</v>
+      </c>
+      <c r="E54" s="3">
         <v>80064000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>84434000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>89452000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>101643000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>107190000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>125443000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>44770000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>44380000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>43854000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>44957000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>44067000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>42808000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>42026000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>41443000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>41982000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>42465000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>43109000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>41630000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3248,8 +3377,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3271,108 +3401,112 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3416000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2987000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2682000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3034000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3845000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4910000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6789000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5445000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5261000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4885000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5443000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5412000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5059000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4408000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3734000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3825000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4071000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3926000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3392000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>559000</v>
+      </c>
+      <c r="E58" s="3">
         <v>440000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2558000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2460000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2464000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>51000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>31000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>126000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>127000</v>
-      </c>
-      <c r="L58" s="3">
-        <v>116000</v>
       </c>
       <c r="M58" s="3">
         <v>116000</v>
       </c>
-      <c r="N58" s="3" t="s">
+      <c r="N58" s="3">
+        <v>116000</v>
+      </c>
+      <c r="O58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>500000</v>
@@ -3384,249 +3518,264 @@
         <v>500000</v>
       </c>
       <c r="T58" s="3">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4656000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4796000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5260000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4425000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5654000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13046000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8877000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2309000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2149000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2411000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2813000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2666000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2011000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2492000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2128000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2066000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2281000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2436000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2296000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8631000</v>
+      </c>
+      <c r="E60" s="3">
         <v>8223000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10500000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9919000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11963000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12705000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15697000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7880000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7537000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7412000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8372000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8078000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7070000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7400000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6362000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6391000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6852000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6362000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5688000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>35466000</v>
+      </c>
+      <c r="E61" s="3">
         <v>35745000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>35899000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>36034000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>36058000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>38537000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>47583000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>10163000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10215000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10201000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10198000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10312000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10309000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9328000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9326000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9324000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9322000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9819000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>8333000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16958000</v>
+      </c>
+      <c r="E62" s="3">
         <v>17523000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18175000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>20153000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>22327000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>25530000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>21158000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5380000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5392000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4911000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4894000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4746000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4707000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4726000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5086000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5230000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5212000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5431000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>5313000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3684,8 +3833,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3743,8 +3895,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3802,67 +3957,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>61055000</v>
+      </c>
+      <c r="E66" s="3">
         <v>61491000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>64574000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>66106000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>70348000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>72958000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>89363000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>23423000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23144000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>22524000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23468000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>23136000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>22086000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>21454000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>20774000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>20945000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>21386000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>21612000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>19334000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3884,8 +4045,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3943,8 +4105,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4002,8 +4167,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4026,7 +4194,7 @@
         <v>9762000</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>9762000</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -4061,8 +4229,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4120,67 +4291,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2639000</v>
+      </c>
+      <c r="E72" s="3">
         <v>2996000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4317000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8105000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>17229000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>20180000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>22227000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>23848000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>23795000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>23750000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>23635000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>22361000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>22107000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>21935000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>22032000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>22435000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>22513000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>22981000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>23836000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4238,8 +4415,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4297,8 +4477,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4356,67 +4539,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8538000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8811000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10098000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13584000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>21533000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>24470000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>26318000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>21347000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21236000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21330000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21489000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>20931000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>20722000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>20572000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20669000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21037000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21079000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21497000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>22296000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4474,131 +4663,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-346000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1312000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3778000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-8353000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2232000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1338000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-927000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1265000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>628000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>705000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1861000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>843000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>705000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>495000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>189000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>505000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>117000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-272000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4620,67 +4818,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2194000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1754000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1915000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2186000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2242000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2271000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1706000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2004000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>973000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1086000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1023000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>947000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>921000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1076000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>995000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>989000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>942000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1050000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1046000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4738,8 +4940,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4797,8 +5002,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4856,8 +5064,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4915,8 +5126,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4974,67 +5188,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>910000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1404000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>852000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>360000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1339000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2009000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2405000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2961000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>948000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2500000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2404000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1756000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1009000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1421000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1070000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1853000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>652000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>915000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>650000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5056,67 +5276,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-12000</v>
+        <v>-579000</v>
       </c>
       <c r="E91" s="3">
-        <v>-54000</v>
+        <v>-614000</v>
       </c>
       <c r="F91" s="3">
-        <v>-13000</v>
+        <v>-246000</v>
       </c>
       <c r="G91" s="3">
-        <v>-35000</v>
+        <v>-382000</v>
       </c>
       <c r="H91" s="3">
+        <v>-1293000</v>
+      </c>
+      <c r="I91" s="3">
         <v>-2171000</v>
       </c>
-      <c r="I91" s="3">
-        <v>-4108000</v>
-      </c>
       <c r="J91" s="3">
+        <v>-1714000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-76000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-69000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-202000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-484000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-65000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-177000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-683000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-358000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1482000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2834000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-646000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5174,8 +5398,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5233,67 +5460,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-282000</v>
+      </c>
+      <c r="E94" s="3">
         <v>1579000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-292000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-576000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1530000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1301000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-25023000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2703000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1415000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1506000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>586000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1315000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-971000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-953000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-764000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-690000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-672000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2766000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-642000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5315,67 +5548,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-211000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-11000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>196000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-492000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-694000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-540000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-588000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1178000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-591000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-594000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-595000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-593000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-592000</v>
       </c>
       <c r="P96" s="3">
         <v>-592000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-592000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-586000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-584000</v>
       </c>
       <c r="S96" s="3">
         <v>-584000</v>
       </c>
       <c r="T96" s="3">
+        <v>-584000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-585000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-575000</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5433,8 +5670,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5492,8 +5732,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5551,67 +5794,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-354000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2863000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>301000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-935000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1019000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2499000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>26232000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1540000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-814000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-915000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1398000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-685000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-104000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-602000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-583000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-586000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-572000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>904000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-579000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5669,63 +5918,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>274000</v>
+      </c>
+      <c r="E102" s="3">
         <v>120000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>861000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1151000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1210000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1791000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3614000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1282000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1281000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>79000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1592000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-244000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-66000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-134000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-412000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>724000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-739000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-947000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-571000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OXY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OXY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>OXY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,281 +665,294 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6007000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5368000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4190000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4129000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2961000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6647000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6670000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5915000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8543000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4142000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4570000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5215000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4175000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3811000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3536000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3067000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3084000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2978000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2822000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2673000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2239000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2257000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2090000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1950000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1789000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3108000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3285000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2985000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3389000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1633000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1954000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1786000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1465000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1363000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1325000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1357000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1486000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1426000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1326000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1338000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3768000</v>
+      </c>
+      <c r="E10" s="3">
         <v>3111000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2100000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2179000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1172000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3539000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3385000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2930000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5154000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2509000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2616000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3429000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2710000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2448000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2211000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1710000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1598000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1552000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1496000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1335000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -962,70 +975,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E12" s="3">
         <v>28000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>33000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>29000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>33000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>37000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>113000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>63000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>71000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>36000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>50000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>24000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>21000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>15000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>55000</v>
-      </c>
-      <c r="R12" s="3">
-        <v>8000</v>
       </c>
       <c r="S12" s="3">
         <v>8000</v>
       </c>
       <c r="T12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="U12" s="3">
         <v>11000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>17000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1086,132 +1103,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E14" s="3">
         <v>176000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>124000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2728000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>6619000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1951000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1709000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1249000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>50000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>305000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>214000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>12000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>30000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>521000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>11000</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>13000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>526000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>221000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>2371000</v>
+      </c>
+      <c r="E15" s="3">
         <v>2194000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1754000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1915000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2119000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2309000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2369000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1767000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2004000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>973000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1086000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1023000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>947000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>921000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1076000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>995000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>989000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>942000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>1050000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>1046000</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1231,132 +1257,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>5438000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5289000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4701000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7199000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10967000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7622000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7942000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6307000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6687000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3208000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3974000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3588000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2962000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2744000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3515000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2799000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2912000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2732000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3390000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2991000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>569000</v>
+      </c>
+      <c r="E18" s="3">
         <v>79000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-511000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3070000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-8006000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-975000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1272000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-392000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1856000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>934000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>596000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1627000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1213000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1067000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>21000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>268000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>172000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>246000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-568000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-318000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1379,318 +1412,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="E20" s="3">
         <v>631000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-505000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-635000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>132000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-711000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>837000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>199000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>192000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>20000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>232000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>961000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-44000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>14000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>52000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>38000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>519000</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>4000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>2899000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2904000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>738000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1790000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5688000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>556000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1836000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1513000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4052000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1927000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1914000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3611000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2116000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2002000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1149000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1301000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1680000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1188000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>486000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>788000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>385000</v>
+      </c>
+      <c r="E22" s="3">
         <v>395000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>409000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>353000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>310000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>352000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>434000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>381000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>251000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>98000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>99000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>96000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>97000</v>
       </c>
       <c r="P22" s="3">
         <v>97000</v>
       </c>
       <c r="Q22" s="3">
+        <v>97000</v>
+      </c>
+      <c r="R22" s="3">
         <v>87000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>91000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>86000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>81000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>76000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>68000</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>143000</v>
+      </c>
+      <c r="E23" s="3">
         <v>315000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1425000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4058000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8184000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2038000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-869000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-574000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1797000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>856000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>729000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2492000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1072000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>984000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-14000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>215000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>605000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>165000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-640000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-326000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E24" s="3">
         <v>16000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-276000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-403000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1468000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-25000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>167000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>163000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>531000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>225000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>151000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>710000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>302000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>339000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-421000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>85000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>285000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>78000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-333000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-30000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1751,132 +1800,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E26" s="3">
         <v>299000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1149000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3655000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6716000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2013000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1036000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-737000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1266000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>631000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>578000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1782000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>770000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>645000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>407000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>130000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>320000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>87000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-307000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-296000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-100000</v>
+      </c>
+      <c r="E27" s="3">
         <v>99000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1349000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3858000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6938000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2232000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1338000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-897000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1265000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>628000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>680000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1861000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>843000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>705000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>485000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>189000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>505000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>117000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-268000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1937,43 +1995,46 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E29" s="3">
         <v>-445000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>37000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>80000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-1415000</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-30000</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>25000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
@@ -1981,12 +2042,12 @@
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="3">
         <v>10000</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
@@ -1994,13 +2055,16 @@
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-4000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2061,8 +2125,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2123,132 +2190,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-631000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>505000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>635000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-132000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>711000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-837000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-199000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-192000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-20000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-232000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-961000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>44000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-52000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-38000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-519000</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-4000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-60000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-97000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-346000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1312000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3778000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8353000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2232000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1338000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-927000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1265000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>628000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>705000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1861000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>843000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>705000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>495000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>189000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>505000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>117000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-272000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2309,137 +2385,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-97000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-346000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1312000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3778000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8353000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2232000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1338000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-927000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1265000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>628000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>705000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1861000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>843000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>705000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>495000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>189000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>505000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>117000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-272000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2462,8 +2547,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2486,70 +2572,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4569000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2270000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2008000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1896000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1011000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2021000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3032000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4840000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1751000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1752000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3033000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2954000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1362000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1606000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1672000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1806000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2218000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1494000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2233000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3180000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2610,380 +2700,401 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3288000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3046000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2115000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2083000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2359000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2458000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4233000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5854000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5273000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5310000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4893000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6000000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5521000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5184000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4145000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3749000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3913000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4316000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3989000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3521000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1837000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2173000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1898000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1660000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1477000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1436000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1581000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1601000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1582000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1484000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1260000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1009000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1347000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1057000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1246000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1007000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>920000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1005000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>866000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>927000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3150000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2585000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2798000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5055000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3590000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8194000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7219000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8649000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>819000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>724000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>746000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1149000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2760000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1047000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1207000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>483000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1024000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1423000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1340000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1083000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12844000</v>
+      </c>
+      <c r="E46" s="3">
         <v>10074000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8819000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10694000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8437000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>14109000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>14633000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>20944000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9425000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9270000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9932000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11112000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10990000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8894000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8270000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7045000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8075000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8238000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8428000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8711000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4370000</v>
+      </c>
+      <c r="E47" s="3">
         <v>4259000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4278000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4109000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>7204000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>7248000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>11305000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4814000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2539000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2518000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2477000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2686000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2642000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2568000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2580000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2331000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2439000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2219000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2341000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2487000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>62706000</v>
+      </c>
+      <c r="E48" s="3">
         <v>65022000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>66951000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>69617000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>73733000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>80266000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>83641000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>91199000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>32796000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>32584000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>31437000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>31155000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>30432000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>31344000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>31174000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>32065000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>31466000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>32005000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>32337000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>30419000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3005,11 +3116,11 @@
       <c r="I49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K49" s="3">
         <v>8461000</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>24</v>
@@ -3026,8 +3137,8 @@
       <c r="P49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -3044,8 +3155,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3106,8 +3220,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3168,49 +3285,52 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>78000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>20000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>17000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>25000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10000</v>
-      </c>
-      <c r="L52" s="3">
-        <v>8000</v>
       </c>
       <c r="M52" s="3">
         <v>8000</v>
       </c>
       <c r="N52" s="3">
+        <v>8000</v>
+      </c>
+      <c r="O52" s="3">
         <v>4000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3000</v>
-      </c>
-      <c r="P52" s="3">
-        <v>2000</v>
       </c>
       <c r="Q52" s="3">
         <v>2000</v>
@@ -3222,16 +3342,19 @@
         <v>2000</v>
       </c>
       <c r="T52" s="3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="U52" s="3">
         <v>3000</v>
       </c>
       <c r="V52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="W52" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3292,70 +3415,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>79937000</v>
+      </c>
+      <c r="E54" s="3">
         <v>79355000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>80064000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>84434000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>89452000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>101643000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>107190000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>125443000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>44770000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>44380000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>43854000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>44957000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>44067000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>42808000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>42026000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>41443000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>41982000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>42465000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>43109000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>41630000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3378,8 +3507,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3402,114 +3532,118 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3544000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3416000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2987000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2682000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3034000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3845000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4910000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6789000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5445000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5261000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4885000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5443000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5412000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5059000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4408000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3734000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3825000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4071000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3926000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3392000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>651000</v>
+      </c>
+      <c r="E58" s="3">
         <v>559000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>440000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2558000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2460000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2464000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>51000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>31000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>126000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>127000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>116000</v>
       </c>
       <c r="N58" s="3">
         <v>116000</v>
       </c>
-      <c r="O58" s="3" t="s">
+      <c r="O58" s="3">
+        <v>116000</v>
+      </c>
+      <c r="P58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>500000</v>
@@ -3521,261 +3655,276 @@
         <v>500000</v>
       </c>
       <c r="U58" s="3">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5391000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4656000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4796000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5260000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4425000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5654000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13046000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8877000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2309000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2149000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2411000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2813000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2666000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2011000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2492000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2128000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2066000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2281000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2436000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2296000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9586000</v>
+      </c>
+      <c r="E60" s="3">
         <v>8631000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8223000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10500000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9919000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11963000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12705000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>15697000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7880000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7537000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7412000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8372000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8078000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7070000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7400000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6362000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6391000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6852000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6362000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5688000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>35352000</v>
+      </c>
+      <c r="E61" s="3">
         <v>35466000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>35745000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>35899000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>36034000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>36058000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>38537000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>47583000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10163000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10215000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10201000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10198000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10312000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10309000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9328000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9326000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9324000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9322000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>9819000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>8333000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16755000</v>
+      </c>
+      <c r="E62" s="3">
         <v>16958000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>17523000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18175000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>20153000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>22327000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>25530000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>21158000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5380000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5392000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4911000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4894000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4746000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4707000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4726000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5086000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5230000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5212000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>5431000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>5313000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3836,8 +3985,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3898,8 +4050,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3960,70 +4115,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>61693000</v>
+      </c>
+      <c r="E66" s="3">
         <v>61055000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>61491000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>64574000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>66106000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>70348000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>72958000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>89363000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23423000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23144000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>22524000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>23468000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>23136000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>22086000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>21454000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>20774000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>20945000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>21386000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>21612000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>19334000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4046,8 +4207,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4108,8 +4270,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4170,8 +4335,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4197,7 +4365,7 @@
         <v>9762000</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>9762000</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
@@ -4232,8 +4400,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4294,70 +4465,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2533000</v>
+      </c>
+      <c r="E72" s="3">
         <v>2639000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2996000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4317000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8105000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>17229000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>20180000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>22227000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>23848000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>23795000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>23750000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>23635000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>22361000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>22107000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>21935000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>22032000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>22435000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>22513000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>22981000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>23836000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4418,8 +4595,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4480,8 +4660,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4542,70 +4725,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8482000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8538000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8811000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10098000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13584000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>21533000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>24470000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>26318000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21347000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21236000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21330000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21489000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>20931000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>20722000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20572000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20669000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21037000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21079000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>21497000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>22296000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4666,137 +4855,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-97000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-346000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1312000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3778000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8353000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2232000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1338000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-927000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1265000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>628000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>705000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1861000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>843000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>705000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>495000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>189000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>505000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>117000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-272000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4819,70 +5017,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2371000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2194000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1754000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1915000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2186000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2242000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2271000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1706000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2004000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>973000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1086000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1023000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>947000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>921000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1076000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>995000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>989000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>942000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1050000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1046000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4943,8 +5145,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5005,8 +5210,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5067,8 +5275,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5129,8 +5340,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5191,70 +5405,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3314000</v>
+      </c>
+      <c r="E89" s="3">
         <v>910000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1404000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>852000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>360000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1339000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2009000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2405000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2961000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>948000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2500000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2404000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1756000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1009000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1421000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1070000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1853000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>652000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>915000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>650000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5277,70 +5497,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-698000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-579000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-614000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-246000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-382000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1293000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2171000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1714000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-76000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-69000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-202000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-484000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-65000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-177000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-683000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-358000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1482000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2834000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-646000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5401,8 +5625,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5463,70 +5690,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-754000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-282000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1579000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-292000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-576000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1530000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1301000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-25023000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2703000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1415000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1506000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>586000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1315000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-971000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-953000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-764000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-690000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-672000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2766000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-642000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5549,70 +5782,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>191000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-211000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-11000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>196000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-492000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-694000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-540000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-588000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1178000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-591000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-594000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-595000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-593000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-592000</v>
       </c>
       <c r="Q96" s="3">
         <v>-592000</v>
       </c>
       <c r="R96" s="3">
+        <v>-592000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-586000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-584000</v>
       </c>
       <c r="T96" s="3">
         <v>-584000</v>
       </c>
       <c r="U96" s="3">
+        <v>-584000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-585000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-575000</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5673,8 +5910,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5735,8 +5975,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5797,70 +6040,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-262000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-354000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2863000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>301000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-935000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1019000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2499000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>26232000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1540000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-814000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-915000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1398000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-685000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-104000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-602000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-583000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-586000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-572000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>904000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-579000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5921,66 +6170,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2298000</v>
+      </c>
+      <c r="E102" s="3">
         <v>274000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>120000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>861000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1151000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1210000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1791000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3614000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1282000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1281000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>79000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1592000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-244000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-66000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-134000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-412000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>724000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-739000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-947000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-571000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OXY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OXY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>OXY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,294 +665,307 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6810000</v>
+      </c>
+      <c r="E8" s="3">
         <v>6007000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5368000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4190000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4129000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2961000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6647000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6670000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5915000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8543000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4142000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4570000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5215000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4175000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3811000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3536000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3067000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3084000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2978000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2822000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2673000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2508000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2239000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2257000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2090000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1950000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1789000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3108000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3285000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2985000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3389000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1633000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1954000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1786000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1465000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1363000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1325000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1357000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1486000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1426000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1326000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1338000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4302000</v>
+      </c>
+      <c r="E10" s="3">
         <v>3768000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3111000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2100000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2179000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1172000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3539000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3385000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2930000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5154000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2509000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2616000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3429000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2710000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2448000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2211000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1710000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1598000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1552000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1496000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1335000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,73 +989,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E12" s="3">
         <v>86000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>28000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>33000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>29000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>33000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>37000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>113000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>63000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>71000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>36000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>50000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>24000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>21000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>15000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>55000</v>
-      </c>
-      <c r="S12" s="3">
-        <v>8000</v>
       </c>
       <c r="T12" s="3">
         <v>8000</v>
       </c>
       <c r="U12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="V12" s="3">
         <v>11000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>17000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1106,138 +1123,147 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E14" s="3">
         <v>73000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>176000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>124000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2728000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>6619000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1951000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1709000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1249000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>50000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>305000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>214000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>12000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>30000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>521000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>11000</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>13000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>526000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>221000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>1916000</v>
+      </c>
+      <c r="E15" s="3">
         <v>2371000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2194000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1754000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1915000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2119000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2309000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2369000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1767000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2004000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>973000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1086000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1023000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>947000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>921000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1076000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>995000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>989000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>942000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>1050000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>1046000</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1258,138 +1284,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>5286000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5438000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5289000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4701000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7199000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10967000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7622000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7942000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6307000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6687000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3208000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3974000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3588000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2962000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2744000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3515000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2799000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2912000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2732000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3390000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2991000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1524000</v>
+      </c>
+      <c r="E18" s="3">
         <v>569000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>79000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-511000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3070000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8006000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-975000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1272000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-392000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1856000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>934000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>596000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1627000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1213000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1067000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>21000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>268000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>172000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>246000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-568000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-318000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1413,333 +1446,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>142000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-41000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>631000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-505000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-635000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>132000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-711000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>837000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>199000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>192000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>20000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>232000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>961000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-44000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>14000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>52000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>38000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>519000</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>4000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>3582000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2899000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2904000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>738000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1790000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5688000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>556000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1836000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1513000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4052000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1927000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1914000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3611000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2116000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2002000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1149000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1301000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1680000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1188000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>486000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>788000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>449000</v>
+      </c>
+      <c r="E22" s="3">
         <v>385000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>395000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>409000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>353000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>310000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>352000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>434000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>381000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>251000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>98000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>99000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>96000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>97000</v>
       </c>
       <c r="Q22" s="3">
         <v>97000</v>
       </c>
       <c r="R22" s="3">
+        <v>97000</v>
+      </c>
+      <c r="S22" s="3">
         <v>87000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>91000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>86000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>81000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>76000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>68000</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1217000</v>
+      </c>
+      <c r="E23" s="3">
         <v>143000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>315000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1425000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4058000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8184000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2038000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-869000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-574000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1797000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>856000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>729000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2492000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1072000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>984000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-14000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>215000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>605000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>165000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-640000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-326000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>387000</v>
+      </c>
+      <c r="E24" s="3">
         <v>43000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>16000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-276000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-403000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1468000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-25000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>167000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>163000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>531000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>225000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>151000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>710000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>302000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>339000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-421000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>85000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>285000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>78000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-333000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-30000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1803,138 +1852,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>830000</v>
+      </c>
+      <c r="E26" s="3">
         <v>100000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>299000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1149000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3655000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6716000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2013000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1036000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-737000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1266000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>631000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>578000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1782000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>770000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>645000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>407000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>130000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>320000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>87000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-307000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-296000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>630000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>99000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1349000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3858000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6938000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2232000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1338000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-897000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1265000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>628000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>680000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1861000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>843000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>705000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>485000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>189000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>505000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>117000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-268000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1998,46 +2056,49 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E29" s="3">
         <v>3000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-445000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>37000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>80000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-1415000</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-30000</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>25000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
@@ -2045,12 +2106,12 @@
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" s="3">
         <v>10000</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
@@ -2058,13 +2119,16 @@
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-4000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2128,8 +2192,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2193,138 +2260,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-142000</v>
+      </c>
+      <c r="E32" s="3">
         <v>41000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-631000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>505000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>635000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-132000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>711000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-837000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-199000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-192000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-20000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-232000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-961000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>44000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-14000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-52000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-38000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-519000</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-4000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-60000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>628000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-97000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-346000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1312000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3778000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8353000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2232000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1338000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-927000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1265000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>628000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>705000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1861000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>843000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>705000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>495000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>189000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>505000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>117000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-272000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2388,143 +2464,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>628000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-97000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-346000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1312000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3778000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8353000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2232000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1338000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-927000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1265000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>628000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>705000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1861000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>843000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>705000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>495000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>189000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>505000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>117000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-272000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2548,8 +2633,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2573,73 +2659,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2059000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4569000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2270000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2008000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1896000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1011000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2021000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3032000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4840000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1751000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1752000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3033000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2954000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1362000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1606000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1672000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1806000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2218000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1494000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2233000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3180000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2703,427 +2793,448 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3477000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3288000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3046000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2115000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2083000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2359000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2458000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4233000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5854000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5273000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5310000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4893000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6000000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5521000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5184000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4145000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3749000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3913000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4316000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3989000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3521000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1773000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1837000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2173000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1898000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1660000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1477000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1436000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1581000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1601000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1582000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1484000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1260000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1009000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1347000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1057000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1246000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1007000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>920000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1005000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>866000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>927000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2590000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3150000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2585000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2798000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5055000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3590000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8194000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7219000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8649000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>819000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>724000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>746000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1149000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2760000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1047000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1207000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>483000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1024000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1423000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1340000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1083000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9899000</v>
+      </c>
+      <c r="E46" s="3">
         <v>12844000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10074000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8819000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10694000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8437000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>14109000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>14633000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>20944000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9425000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9270000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9932000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>11112000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10990000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8894000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8270000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7045000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8075000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8238000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8428000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8711000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4396000</v>
+      </c>
+      <c r="E47" s="3">
         <v>4370000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4259000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4278000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4109000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>7204000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>7248000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>11305000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4814000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2539000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2518000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2477000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2686000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2642000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2568000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2580000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2331000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2439000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2219000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2341000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2487000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>61448000</v>
+      </c>
+      <c r="E48" s="3">
         <v>62706000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>65022000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>66951000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>69617000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>73733000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>80266000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>83641000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>91199000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>32796000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>32584000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>31437000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>31155000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>30432000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>31344000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>31174000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>32065000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>31466000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>32005000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>32337000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>30419000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8461000</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>24</v>
@@ -3140,8 +3251,8 @@
       <c r="Q49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -3158,8 +3269,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3223,8 +3337,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3288,52 +3405,55 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E52" s="3">
         <v>17000</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="F52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>16000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>78000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>20000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>17000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>25000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10000</v>
-      </c>
-      <c r="M52" s="3">
-        <v>8000</v>
       </c>
       <c r="N52" s="3">
         <v>8000</v>
       </c>
       <c r="O52" s="3">
+        <v>8000</v>
+      </c>
+      <c r="P52" s="3">
         <v>4000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3000</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>2000</v>
       </c>
       <c r="R52" s="3">
         <v>2000</v>
@@ -3345,16 +3465,19 @@
         <v>2000</v>
       </c>
       <c r="U52" s="3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="V52" s="3">
         <v>3000</v>
       </c>
       <c r="W52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="X52" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3418,73 +3541,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>75758000</v>
+      </c>
+      <c r="E54" s="3">
         <v>79937000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>79355000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>80064000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>84434000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>89452000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>101643000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>107190000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>125443000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>44770000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>44380000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>43854000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>44957000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>44067000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>42808000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>42026000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>41443000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>41982000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>42465000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>43109000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>41630000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3508,8 +3637,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3533,120 +3663,124 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3713000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3544000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3416000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2987000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2682000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3034000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3845000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4910000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6789000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5445000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5261000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4885000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5443000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5412000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5059000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4408000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3734000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3825000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4071000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3926000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3392000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>780000</v>
+      </c>
+      <c r="E58" s="3">
         <v>651000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>559000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>440000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2558000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2460000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2464000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>51000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>31000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>126000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>127000</v>
-      </c>
-      <c r="N58" s="3">
-        <v>116000</v>
       </c>
       <c r="O58" s="3">
         <v>116000</v>
       </c>
-      <c r="P58" s="3" t="s">
+      <c r="P58" s="3">
+        <v>116000</v>
+      </c>
+      <c r="Q58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>500000</v>
@@ -3658,273 +3792,288 @@
         <v>500000</v>
       </c>
       <c r="V58" s="3">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4633000</v>
+      </c>
+      <c r="E59" s="3">
         <v>5391000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4656000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4796000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5260000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4425000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5654000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>13046000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8877000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2309000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2149000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2411000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2813000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2666000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2011000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2492000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2128000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2066000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2281000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2436000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2296000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9126000</v>
+      </c>
+      <c r="E60" s="3">
         <v>9586000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8631000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8223000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10500000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9919000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11963000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12705000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15697000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7880000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7537000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7412000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8372000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8078000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7070000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7400000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6362000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6391000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6852000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6362000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5688000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>30915000</v>
+      </c>
+      <c r="E61" s="3">
         <v>35352000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>35466000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>35745000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>35899000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>36034000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>36058000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>38537000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>47583000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10163000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10215000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10201000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10198000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10312000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10309000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9328000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9326000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9324000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>9322000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>9819000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>8333000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16844000</v>
+      </c>
+      <c r="E62" s="3">
         <v>16755000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>16958000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>17523000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18175000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>20153000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>22327000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>25530000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>21158000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5380000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5392000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4911000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4894000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4746000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4707000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4726000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5086000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5230000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>5212000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>5431000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>5313000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3988,8 +4137,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4053,8 +4205,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4118,73 +4273,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>56885000</v>
+      </c>
+      <c r="E66" s="3">
         <v>61693000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>61055000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>61491000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>64574000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>66106000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>70348000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>72958000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>89363000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23423000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23144000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>22524000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>23468000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>23136000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>22086000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>21454000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>20774000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>20945000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>21386000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>21612000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>19334000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4208,8 +4369,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4273,8 +4435,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4338,8 +4503,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4368,7 +4536,7 @@
         <v>9762000</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>9762000</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -4403,8 +4571,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4468,73 +4639,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3152000</v>
+      </c>
+      <c r="E72" s="3">
         <v>2533000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2639000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2996000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4317000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8105000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>17229000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>20180000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>22227000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>23848000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>23795000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>23750000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>23635000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>22361000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>22107000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>21935000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>22032000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>22435000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>22513000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>22981000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>23836000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4598,8 +4775,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4663,8 +4843,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4728,73 +4911,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9111000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8482000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8538000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8811000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10098000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13584000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>21533000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>24470000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>26318000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21347000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21236000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21330000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21489000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>20931000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20722000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20572000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20669000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21037000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>21079000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>21497000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>22296000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4858,143 +5047,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>628000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-97000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-346000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1312000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3778000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8353000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2232000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1338000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-927000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1265000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>628000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>705000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1861000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>843000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>705000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>495000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>189000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>505000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>117000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-272000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5018,73 +5216,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1916000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2371000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2194000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1754000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1915000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2186000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2242000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2271000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1706000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2004000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>973000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1086000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1023000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>947000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>921000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1076000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>995000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>989000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>942000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1050000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1046000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5148,8 +5350,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5213,8 +5418,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5278,8 +5486,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5343,8 +5554,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5408,73 +5622,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3118000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3314000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>910000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1404000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>852000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>360000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1339000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2009000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2405000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2961000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>948000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2500000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2404000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1756000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1009000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1421000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1070000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1853000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>652000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>915000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>650000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5498,73 +5718,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-656000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-698000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-579000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-614000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-246000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-382000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1293000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2171000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1714000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-76000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-69000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-202000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-484000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-65000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-177000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-683000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-358000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1482000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2834000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-646000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5628,8 +5852,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5693,73 +5920,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-166000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-754000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-282000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1579000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-292000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-576000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1530000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1301000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-25023000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2703000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1415000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1506000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>586000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1315000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-971000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-953000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-764000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-690000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-672000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2766000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-642000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5783,73 +6016,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E96" s="3">
         <v>191000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-211000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-11000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>196000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-492000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-694000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-540000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-588000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1178000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-591000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-594000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-595000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-593000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-592000</v>
       </c>
       <c r="R96" s="3">
         <v>-592000</v>
       </c>
       <c r="S96" s="3">
+        <v>-592000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-586000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-584000</v>
       </c>
       <c r="U96" s="3">
         <v>-584000</v>
       </c>
       <c r="V96" s="3">
+        <v>-584000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-585000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-575000</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5913,8 +6150,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5978,8 +6218,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6043,73 +6286,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5424000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-262000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-354000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2863000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>301000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-935000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1019000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2499000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>26232000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1540000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-814000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-915000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1398000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-685000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-104000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-602000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-583000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-586000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-572000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>904000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-579000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6173,69 +6422,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2472000</v>
+      </c>
+      <c r="E102" s="3">
         <v>2298000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>274000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>120000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>861000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1151000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1210000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1791000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3614000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1282000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1281000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>79000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1592000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-244000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-66000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-134000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-412000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>724000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-739000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-947000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-571000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OXY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OXY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,307 +665,319 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7937000</v>
+      </c>
+      <c r="E8" s="3">
         <v>6810000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6007000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5368000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4190000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4129000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2961000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6647000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6670000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5915000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8543000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4142000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4570000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5215000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4175000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3811000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3536000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3067000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3084000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2978000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2822000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2673000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2655000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2508000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2239000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2257000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2090000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1950000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1789000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3108000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3285000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2985000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3389000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1633000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1954000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1786000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1465000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1363000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1325000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1357000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1486000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1426000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1326000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1338000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5282000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4302000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3768000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3111000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2100000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2179000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1172000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3539000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3385000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2930000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5154000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2509000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2616000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3429000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2710000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2448000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2211000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1710000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1598000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1552000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1496000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1335000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,76 +1002,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>107000</v>
+      </c>
+      <c r="E12" s="3">
         <v>31000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>86000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>28000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>33000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>29000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>33000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>37000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>113000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>63000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>71000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>36000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>50000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>24000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>21000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>15000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>55000</v>
-      </c>
-      <c r="T12" s="3">
-        <v>8000</v>
       </c>
       <c r="U12" s="3">
         <v>8000</v>
       </c>
       <c r="V12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="W12" s="3">
         <v>11000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>17000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,144 +1142,153 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>162000</v>
+      </c>
+      <c r="E14" s="3">
         <v>46000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>73000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>176000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>124000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2728000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>6619000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1951000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1709000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1249000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>50000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>305000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>214000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>12000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>30000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>521000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>11000</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>13000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>526000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>221000</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>1966000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1916000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2371000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2194000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1754000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1915000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2119000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2309000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2369000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1767000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2004000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>973000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1086000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1023000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>947000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>921000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>1076000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>995000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>989000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>942000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>1050000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>1046000</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1285,144 +1310,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>5735000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5286000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5438000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5289000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4701000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7199000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10967000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7622000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7942000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6307000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6687000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3208000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3974000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3588000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2962000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2744000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3515000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2799000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2912000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2732000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3390000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2991000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2202000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1524000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>569000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>79000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-511000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3070000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8006000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-975000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1272000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-392000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1856000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>934000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>596000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1627000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1213000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1067000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>21000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>268000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>172000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>246000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-568000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-318000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1447,348 +1479,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>213000</v>
+      </c>
+      <c r="E20" s="3">
         <v>142000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-41000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>631000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-505000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-635000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>132000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-711000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>837000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>199000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>192000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>20000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>232000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>961000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-44000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>14000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>52000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>38000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>519000</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>4000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>4381000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3582000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2899000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2904000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>738000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1790000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5688000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>556000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1836000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1513000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4052000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1927000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1914000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3611000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2116000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2002000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1149000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1301000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1680000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1188000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>486000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>788000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>385000</v>
+      </c>
+      <c r="E22" s="3">
         <v>449000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>385000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>395000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>409000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>353000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>310000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>352000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>434000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>381000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>251000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>98000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>99000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>96000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>97000</v>
       </c>
       <c r="R22" s="3">
         <v>97000</v>
       </c>
       <c r="S22" s="3">
+        <v>97000</v>
+      </c>
+      <c r="T22" s="3">
         <v>87000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>91000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>86000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>81000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>76000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>68000</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>2030000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1217000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>143000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>315000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1425000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4058000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8184000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2038000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-869000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-574000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1797000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>856000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>729000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2492000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1072000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>984000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-14000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>215000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>605000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>165000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-640000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-326000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>469000</v>
+      </c>
+      <c r="E24" s="3">
         <v>387000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>43000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>16000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-276000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-403000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1468000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-25000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>167000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>163000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>531000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>225000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>151000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>710000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>302000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>339000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-421000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>85000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>285000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>78000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-333000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-30000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1855,144 +1903,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1561000</v>
+      </c>
+      <c r="E26" s="3">
         <v>830000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>100000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>299000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1149000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3655000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6716000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2013000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1036000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-737000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1266000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>631000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>578000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1782000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>770000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>645000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>407000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>130000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>320000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>87000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-307000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-296000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1361000</v>
+      </c>
+      <c r="E27" s="3">
         <v>630000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-100000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>99000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1349000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3858000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6938000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2232000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1338000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-897000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1265000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>628000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>680000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1861000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>843000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>705000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>485000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>189000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>505000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>117000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-268000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2059,49 +2116,52 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E29" s="3">
         <v>-2000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>3000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-445000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>37000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>80000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-1415000</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-30000</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>25000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
@@ -2109,12 +2169,12 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T29" s="3">
         <v>10000</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
@@ -2122,13 +2182,16 @@
         <v>0</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-4000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2195,8 +2258,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2263,144 +2329,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-213000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-142000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>41000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-631000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>505000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>635000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-132000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>711000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-837000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-199000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-192000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-20000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-232000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-961000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>44000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-14000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-52000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-38000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-519000</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-4000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-60000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1337000</v>
+      </c>
+      <c r="E33" s="3">
         <v>628000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-97000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-346000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1312000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3778000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8353000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2232000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1338000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-927000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1265000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>628000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>705000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1861000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>843000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>705000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>495000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>189000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>505000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>117000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-272000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2467,149 +2542,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1337000</v>
+      </c>
+      <c r="E35" s="3">
         <v>628000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-97000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-346000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1312000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3778000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8353000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2232000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1338000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-927000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1265000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>628000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>705000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1861000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>843000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>705000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>495000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>189000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>505000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>117000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-272000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2634,8 +2718,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2660,76 +2745,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2764000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2059000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4569000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2270000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2008000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1896000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1011000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2021000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3032000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4840000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1751000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1752000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3033000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2954000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1362000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1606000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1672000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1806000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2218000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1494000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2233000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3180000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2796,416 +2885,437 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4208000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3477000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3288000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3046000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2115000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2083000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2359000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2458000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4233000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5854000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5273000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5310000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4893000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6000000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5521000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5184000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4145000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3749000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3913000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4316000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3989000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3521000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1846000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1773000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1837000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2173000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1898000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1660000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1477000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1436000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1581000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1601000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1582000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1484000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1260000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1009000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1347000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1057000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1246000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1007000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>920000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1005000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>866000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>927000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1393000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2590000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3150000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2585000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2798000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5055000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3590000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8194000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7219000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8649000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>819000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>724000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>746000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1149000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2760000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1047000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1207000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>483000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1024000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1423000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1340000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1083000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10211000</v>
+      </c>
+      <c r="E46" s="3">
         <v>9899000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12844000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10074000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8819000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10694000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8437000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>14109000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14633000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>20944000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9425000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9270000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9932000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>11112000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10990000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8894000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8270000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7045000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8075000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8238000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8428000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8711000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4154000</v>
+      </c>
+      <c r="E47" s="3">
         <v>4396000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4370000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4259000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4278000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4109000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>7204000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>7248000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>11305000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4814000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2539000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2518000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2477000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2686000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2642000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2568000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2580000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2331000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2439000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2219000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2341000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2487000</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>60656000</v>
+      </c>
+      <c r="E48" s="3">
         <v>61448000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>62706000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>65022000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>66951000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>69617000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>73733000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>80266000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>83641000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>91199000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>32796000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>32584000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>31437000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>31155000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>30432000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>31344000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>31174000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>32065000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>31466000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>32005000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>32337000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>30419000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3230,14 +3340,14 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8461000</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>24</v>
@@ -3254,8 +3364,8 @@
       <c r="R49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -3272,8 +3382,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3340,8 +3453,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3408,8 +3524,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3417,46 +3536,46 @@
         <v>15000</v>
       </c>
       <c r="E52" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F52" s="3">
         <v>17000</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="G52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>16000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>14000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>78000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>20000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>17000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>25000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10000</v>
-      </c>
-      <c r="N52" s="3">
-        <v>8000</v>
       </c>
       <c r="O52" s="3">
         <v>8000</v>
       </c>
       <c r="P52" s="3">
+        <v>8000</v>
+      </c>
+      <c r="Q52" s="3">
         <v>4000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3000</v>
-      </c>
-      <c r="R52" s="3">
-        <v>2000</v>
       </c>
       <c r="S52" s="3">
         <v>2000</v>
@@ -3468,16 +3587,19 @@
         <v>2000</v>
       </c>
       <c r="V52" s="3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="W52" s="3">
         <v>3000</v>
       </c>
       <c r="X52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Y52" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3544,76 +3666,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>75036000</v>
+      </c>
+      <c r="E54" s="3">
         <v>75758000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>79937000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>79355000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>80064000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>84434000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>89452000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>101643000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>107190000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>125443000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>44770000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>44380000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>43854000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>44957000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>44067000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>42808000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>42026000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>41443000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>41982000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>42465000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>43109000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>41630000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3638,8 +3766,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3664,126 +3793,130 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3899000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3713000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3544000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3416000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2987000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2682000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3034000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3845000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4910000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6789000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5445000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5261000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4885000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5443000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5412000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5059000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4408000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3734000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3825000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4071000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3926000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3392000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>186000</v>
+      </c>
+      <c r="E58" s="3">
         <v>780000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>651000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>559000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>440000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2558000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2460000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2464000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>51000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>31000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>126000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>127000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>116000</v>
       </c>
       <c r="P58" s="3">
         <v>116000</v>
       </c>
-      <c r="Q58" s="3" t="s">
+      <c r="Q58" s="3">
+        <v>116000</v>
+      </c>
+      <c r="R58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
       <c r="S58" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="T58" s="3">
         <v>500000</v>
@@ -3795,285 +3928,300 @@
         <v>500000</v>
       </c>
       <c r="W58" s="3">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4239000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4633000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5391000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4656000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4796000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5260000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4425000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5654000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13046000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8877000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2309000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2149000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2411000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2813000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2666000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2011000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2492000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2128000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2066000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2281000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2436000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2296000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8324000</v>
+      </c>
+      <c r="E60" s="3">
         <v>9126000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9586000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8631000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8223000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10500000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9919000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11963000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12705000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>15697000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7880000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7537000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7412000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8372000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8078000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7070000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7400000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6362000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6391000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6852000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6362000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5688000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>29431000</v>
+      </c>
+      <c r="E61" s="3">
         <v>30915000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>35352000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>35466000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>35745000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>35899000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>36034000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>36058000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>38537000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>47583000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10163000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10215000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10201000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10198000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10312000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>10309000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9328000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9326000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>9324000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>9322000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>9819000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>8333000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16954000</v>
+      </c>
+      <c r="E62" s="3">
         <v>16844000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>16755000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>16958000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>17523000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>18175000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>20153000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>22327000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>25530000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>21158000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5380000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5392000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4911000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4894000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4746000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4707000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4726000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5086000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>5230000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>5212000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>5431000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>5313000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4140,8 +4288,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4208,8 +4359,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4276,76 +4430,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>54709000</v>
+      </c>
+      <c r="E66" s="3">
         <v>56885000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>61693000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>61055000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>61491000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>64574000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>66106000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>70348000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>72958000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>89363000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23423000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>23144000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>22524000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>23468000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>23136000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>22086000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>21454000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>20774000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>20945000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>21386000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>21612000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>19334000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4370,8 +4530,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4438,8 +4599,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4506,8 +4670,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4539,7 +4706,7 @@
         <v>9762000</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>9762000</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
@@ -4574,8 +4741,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4642,76 +4812,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4480000</v>
+      </c>
+      <c r="E72" s="3">
         <v>3152000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2533000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2639000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2996000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4317000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8105000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>17229000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>20180000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>22227000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>23848000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>23795000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>23750000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>23635000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>22361000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>22107000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>21935000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>22032000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>22435000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>22513000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>22981000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>23836000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4778,8 +4954,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4846,8 +5025,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4914,76 +5096,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10565000</v>
+      </c>
+      <c r="E76" s="3">
         <v>9111000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8482000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8538000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8811000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10098000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13584000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>21533000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>24470000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26318000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21347000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21236000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21330000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21489000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20931000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20722000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20572000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>20669000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>21037000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>21079000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>21497000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>22296000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5050,149 +5238,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1337000</v>
+      </c>
+      <c r="E81" s="3">
         <v>628000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-97000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-346000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1312000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3778000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8353000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2232000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1338000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-927000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1265000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>628000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>705000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1861000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>843000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>705000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>495000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>189000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>505000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>117000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-272000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5217,76 +5414,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1966000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1916000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2371000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2194000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1754000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1915000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2186000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2242000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2271000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1706000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2004000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>973000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1086000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1023000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>947000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>921000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1076000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>995000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>989000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>942000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1050000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1046000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5353,8 +5554,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5421,8 +5625,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5489,8 +5696,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5557,8 +5767,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5625,76 +5838,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3092000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3118000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3314000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>910000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1404000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>852000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>360000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1339000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2009000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2405000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2961000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>948000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2500000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2404000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1756000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1009000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1421000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1070000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1853000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>652000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>915000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>650000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5719,76 +5938,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-937000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-656000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-698000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-579000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-614000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-246000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-382000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1293000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2171000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1714000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-76000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-69000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-202000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-484000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-65000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-177000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-683000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-358000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1482000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2834000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-646000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5855,8 +6078,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5923,76 +6149,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-166000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-754000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-282000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1579000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-292000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-576000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1530000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1301000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-25023000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2703000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1415000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1506000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>586000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1315000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-971000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-953000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-764000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-690000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-672000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2766000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-642000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6017,76 +6249,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>19000</v>
       </c>
-      <c r="E96" s="3">
-        <v>191000</v>
-      </c>
       <c r="F96" s="3">
-        <v>-211000</v>
+        <v>-9000</v>
       </c>
       <c r="G96" s="3">
         <v>-11000</v>
       </c>
       <c r="H96" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="I96" s="3">
         <v>196000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-492000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-694000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-540000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-588000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1178000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-591000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-594000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-595000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-593000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-592000</v>
       </c>
       <c r="S96" s="3">
         <v>-592000</v>
       </c>
       <c r="T96" s="3">
+        <v>-592000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-586000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-584000</v>
       </c>
       <c r="V96" s="3">
         <v>-584000</v>
       </c>
       <c r="W96" s="3">
+        <v>-584000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-585000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-575000</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6153,8 +6389,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6221,8 +6460,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6289,76 +6531,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2532000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5424000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-262000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-354000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2863000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>301000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-935000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1019000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2499000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>26232000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1540000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-814000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-915000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1398000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-685000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-104000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-602000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-583000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-586000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-572000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>904000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-579000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6425,72 +6673,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>509000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2472000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2298000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>274000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>120000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>861000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1151000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1210000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1791000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3614000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1282000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1281000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>79000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1592000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-244000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-66000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-134000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-412000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>724000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-739000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-947000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-571000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OXY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OXY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,319 +665,332 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8398000</v>
+      </c>
+      <c r="E8" s="3">
         <v>7937000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6810000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6007000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5368000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4190000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4129000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2961000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6647000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6670000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5915000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8543000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4142000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4570000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5215000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4175000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3811000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3536000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3067000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3084000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2978000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2822000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2673000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2840000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2655000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2508000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2239000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2257000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2090000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1950000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1789000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3108000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3285000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2985000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3389000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1633000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1954000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1786000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1465000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1363000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1325000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1357000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1486000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1426000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1326000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1338000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5558000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5282000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4302000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3768000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3111000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2100000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2179000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1172000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3539000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3385000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2930000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5154000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2509000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2616000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3429000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2710000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2448000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2211000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1710000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1598000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1552000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1496000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1335000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,79 +1016,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E12" s="3">
         <v>107000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>31000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>86000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>28000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>33000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>29000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>33000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>37000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>113000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>63000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>71000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>36000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>50000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>24000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>21000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>15000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>55000</v>
-      </c>
-      <c r="U12" s="3">
-        <v>8000</v>
       </c>
       <c r="V12" s="3">
         <v>8000</v>
       </c>
       <c r="W12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="X12" s="3">
         <v>11000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>17000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1145,150 +1162,159 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E14" s="3">
         <v>162000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>46000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>73000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>176000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>124000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2728000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6619000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1951000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1709000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1249000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>50000</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>305000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>214000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>12000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>30000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>521000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>11000</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>13000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>526000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>221000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>1643000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1966000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1916000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2371000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2194000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1754000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1915000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2119000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2309000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2369000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1767000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2004000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>973000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1086000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1023000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>947000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>921000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>1076000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>995000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>989000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>942000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>1050000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>1046000</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1311,150 +1337,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>5403000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5735000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5286000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5438000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5289000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4701000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7199000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10967000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7622000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7942000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6307000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6687000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3208000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3974000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3588000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2962000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2744000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3515000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2799000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2912000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2732000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3390000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2991000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2995000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2202000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1524000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>569000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>79000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-511000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3070000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8006000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-975000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1272000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-392000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1856000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>934000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>596000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1627000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1213000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1067000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>21000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>268000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>172000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>246000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-568000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-318000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1480,363 +1513,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>459000</v>
+      </c>
+      <c r="E20" s="3">
         <v>213000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>142000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-41000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>631000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-505000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-635000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>132000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-711000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>837000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>199000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>192000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>20000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>232000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>961000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-44000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>14000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>52000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>38000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>519000</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>4000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>5097000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4381000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3582000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2899000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2904000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>738000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1790000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5688000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>556000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1836000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1513000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4052000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1927000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1914000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3611000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2116000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2002000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1149000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1301000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1680000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1188000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>486000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>788000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>371000</v>
+      </c>
+      <c r="E22" s="3">
         <v>385000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>449000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>385000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>395000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>409000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>353000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>310000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>352000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>434000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>381000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>251000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>98000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>99000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>96000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>97000</v>
       </c>
       <c r="S22" s="3">
         <v>97000</v>
       </c>
       <c r="T22" s="3">
+        <v>97000</v>
+      </c>
+      <c r="U22" s="3">
         <v>87000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>91000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>86000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>81000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>76000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>68000</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>3083000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2030000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1217000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>143000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>315000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1425000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4058000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8184000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2038000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-869000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-574000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1797000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>856000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>729000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2492000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1072000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>984000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-14000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>215000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>605000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>165000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-640000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-326000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-1793000</v>
+      </c>
+      <c r="E24" s="3">
         <v>469000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>387000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>43000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>16000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-276000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-403000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1468000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-25000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>167000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>163000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>531000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>225000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>151000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>710000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>302000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>339000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-421000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>85000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>285000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>78000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-333000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-30000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1906,150 +1955,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>4876000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1561000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>830000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>100000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>299000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1149000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3655000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6716000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2013000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1036000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-737000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1266000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>631000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>578000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1782000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>770000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>645000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>407000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>130000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>320000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>87000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-307000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-296000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>4676000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1361000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>630000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>99000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1349000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3858000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6938000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2232000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1338000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-897000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1265000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>628000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>680000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1861000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>843000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>705000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>485000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>189000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>505000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>117000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-268000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2119,52 +2177,55 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-24000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-2000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>3000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-445000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>37000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>80000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-1415000</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-30000</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>25000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
@@ -2172,12 +2233,12 @@
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29" s="3">
         <v>10000</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
@@ -2185,13 +2246,16 @@
         <v>0</v>
       </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2261,8 +2325,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2332,150 +2399,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-459000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-213000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-142000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>41000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-631000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>505000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>635000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-132000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>711000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-837000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-199000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-192000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-20000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-232000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-961000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>44000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-14000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-52000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-38000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-519000</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-60000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4676000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1337000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>628000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-97000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-346000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1312000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3778000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8353000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2232000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1338000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-927000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1265000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>628000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>705000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1861000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>843000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>705000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>495000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>189000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>505000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>117000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-272000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2545,155 +2621,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4676000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1337000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>628000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-97000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-346000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1312000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3778000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8353000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2232000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1338000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-927000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1265000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>628000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>705000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1861000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>843000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>705000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>495000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>189000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>505000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>117000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-272000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2719,8 +2804,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2746,79 +2832,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1909000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2764000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2059000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4569000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2270000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2008000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1896000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1011000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2021000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3032000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4840000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1751000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1752000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3033000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2954000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1362000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1606000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1672000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1806000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2218000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1494000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2233000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3180000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2888,434 +2978,455 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5434000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4208000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3477000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3288000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3046000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2115000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2083000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2359000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2458000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4233000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5854000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5273000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5310000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4893000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6000000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5521000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5184000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4145000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3749000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3913000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4316000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3989000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3521000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1406000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1846000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1773000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1837000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2173000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1898000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1660000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1477000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1436000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1581000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1601000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1582000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1484000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1260000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1009000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1347000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1057000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1246000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1007000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>920000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1005000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>866000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>927000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1309000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1393000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2590000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3150000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2585000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2798000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5055000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3590000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8194000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7219000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8649000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>819000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>724000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>746000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1149000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2760000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1047000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1207000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>483000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1024000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1423000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1340000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1083000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10058000</v>
+      </c>
+      <c r="E46" s="3">
         <v>10211000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9899000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12844000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10074000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8819000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10694000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8437000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14109000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>14633000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>20944000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9425000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9270000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9932000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>11112000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10990000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8894000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8270000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7045000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8075000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8238000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8428000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>8711000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4229000</v>
+      </c>
+      <c r="E47" s="3">
         <v>4154000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4396000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4370000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4259000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4278000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4109000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>7204000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7248000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>11305000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4814000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2539000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2518000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2477000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2686000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2642000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2568000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2580000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2331000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2439000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2219000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2341000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2487000</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>59918000</v>
+      </c>
+      <c r="E48" s="3">
         <v>60656000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>61448000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>62706000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>65022000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>66951000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>69617000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>73733000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>80266000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>83641000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>91199000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>32796000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>32584000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>31437000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>31155000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>30432000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>31344000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>31174000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>32065000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>31466000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>32005000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>32337000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>30419000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3343,14 +3454,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3" t="s">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8461000</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>24</v>
@@ -3367,8 +3478,8 @@
       <c r="S49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="U49" s="3">
         <v>0</v>
@@ -3385,8 +3496,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3456,8 +3570,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3527,58 +3644,61 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="E52" s="3">
         <v>15000</v>
       </c>
       <c r="F52" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G52" s="3">
         <v>17000</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="H52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>16000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>14000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>78000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>20000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>17000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>25000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10000</v>
-      </c>
-      <c r="O52" s="3">
-        <v>8000</v>
       </c>
       <c r="P52" s="3">
         <v>8000</v>
       </c>
       <c r="Q52" s="3">
+        <v>8000</v>
+      </c>
+      <c r="R52" s="3">
         <v>4000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3000</v>
-      </c>
-      <c r="S52" s="3">
-        <v>2000</v>
       </c>
       <c r="T52" s="3">
         <v>2000</v>
@@ -3590,16 +3710,19 @@
         <v>2000</v>
       </c>
       <c r="W52" s="3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="X52" s="3">
         <v>3000</v>
       </c>
       <c r="Y52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Z52" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3669,79 +3792,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>74222000</v>
+      </c>
+      <c r="E54" s="3">
         <v>75036000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>75758000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>79937000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>79355000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>80064000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>84434000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>89452000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>101643000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>107190000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>125443000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>44770000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>44380000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>43854000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>44957000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>44067000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>42808000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>42026000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>41443000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>41982000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>42465000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>43109000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>41630000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3767,8 +3896,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3794,132 +3924,136 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4664000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3899000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3713000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3544000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3416000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2987000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2682000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3034000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3845000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4910000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6789000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5445000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5261000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4885000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5443000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5412000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5059000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4408000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3734000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3825000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4071000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3926000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3392000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>507000</v>
+      </c>
+      <c r="E58" s="3">
         <v>186000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>780000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>651000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>559000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>440000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2558000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2460000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2464000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>51000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>31000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>126000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>127000</v>
-      </c>
-      <c r="P58" s="3">
-        <v>116000</v>
       </c>
       <c r="Q58" s="3">
         <v>116000</v>
       </c>
-      <c r="R58" s="3" t="s">
+      <c r="R58" s="3">
+        <v>116000</v>
+      </c>
+      <c r="S58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
       <c r="T58" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="U58" s="3">
         <v>500000</v>
@@ -3931,297 +4065,312 @@
         <v>500000</v>
       </c>
       <c r="X58" s="3">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3529000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4239000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4633000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5391000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4656000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4796000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5260000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4425000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5654000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13046000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8877000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2309000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2149000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2411000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2813000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2666000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2011000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2492000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2128000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2066000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2281000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2436000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2296000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8700000</v>
+      </c>
+      <c r="E60" s="3">
         <v>8324000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9126000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9586000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8631000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8223000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10500000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9919000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11963000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12705000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15697000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7880000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7537000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7412000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8372000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8078000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7070000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7400000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6362000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6391000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6852000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6362000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5688000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>25865000</v>
+      </c>
+      <c r="E61" s="3">
         <v>29431000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>30915000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>35352000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>35466000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>35745000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>35899000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>36034000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>36058000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>38537000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>47583000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10163000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10215000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10201000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10198000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>10312000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>10309000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9328000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>9326000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>9324000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>9322000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>9819000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>8333000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14750000</v>
+      </c>
+      <c r="E62" s="3">
         <v>16954000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>16844000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>16755000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>16958000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>17523000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>18175000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>20153000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>22327000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>25530000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>21158000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5380000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5392000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4911000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4894000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4746000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4707000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4726000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>5086000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>5230000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>5212000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>5431000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>5313000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4291,8 +4440,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4362,8 +4514,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4433,79 +4588,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>49315000</v>
+      </c>
+      <c r="E66" s="3">
         <v>54709000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>56885000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>61693000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>61055000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>61491000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>64574000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>66106000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>70348000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>72958000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>89363000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>23423000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>23144000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>22524000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>23468000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>23136000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>22086000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>21454000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>20774000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>20945000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>21386000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>21612000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>19334000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4531,8 +4692,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4602,8 +4764,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4673,8 +4838,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4709,7 +4877,7 @@
         <v>9762000</v>
       </c>
       <c r="N70" s="3">
-        <v>0</v>
+        <v>9762000</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
@@ -4744,8 +4912,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4815,79 +4986,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>9032000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4480000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3152000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2533000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2639000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2996000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4317000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>8105000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17229000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>20180000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>22227000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>23848000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>23795000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>23750000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>23635000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>22361000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>22107000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>21935000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>22032000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>22435000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>22513000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>22981000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>23836000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4957,8 +5134,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5028,8 +5208,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5099,79 +5282,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15145000</v>
+      </c>
+      <c r="E76" s="3">
         <v>10565000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9111000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8482000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8538000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8811000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10098000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13584000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21533000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>24470000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26318000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21347000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21236000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21330000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21489000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20931000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20722000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>20572000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>20669000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>21037000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>21079000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>21497000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>22296000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5241,155 +5430,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4676000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1337000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>628000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-97000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-346000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1312000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3778000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8353000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2232000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1338000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-927000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1265000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>628000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>705000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1861000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>843000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>705000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>495000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>189000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>505000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>117000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-272000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5415,79 +5613,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1643000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1966000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1916000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2371000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2194000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1754000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1915000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2186000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2242000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2271000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1706000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2004000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>973000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1086000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1023000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>947000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>921000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1076000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>995000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>989000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>942000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1050000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1046000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5557,8 +5759,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5628,8 +5833,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5699,8 +5907,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5770,8 +5981,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5841,79 +6055,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3239000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3092000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3118000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3314000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>910000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1404000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>852000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>360000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1339000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2009000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2405000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2961000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>948000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2500000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2404000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1756000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1009000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1421000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1070000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1853000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>652000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>915000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>650000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5939,79 +6159,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-858000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-937000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-656000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-698000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-579000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-614000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-246000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-382000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1293000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2171000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1714000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-76000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-69000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-202000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-484000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-65000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-177000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-683000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-358000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1482000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2834000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-646000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6081,8 +6305,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6152,79 +6379,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-662000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-51000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-166000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-754000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-282000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1579000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-292000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-576000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1530000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1301000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-25023000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2703000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1415000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1506000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>586000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1315000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-971000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-953000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-764000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-690000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-672000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2766000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-642000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6250,79 +6483,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-216000</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>19000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-9000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-11000</v>
       </c>
       <c r="H96" s="3">
         <v>-11000</v>
       </c>
       <c r="I96" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="J96" s="3">
         <v>196000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-492000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-694000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-540000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-588000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1178000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-591000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-594000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-595000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-593000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-592000</v>
       </c>
       <c r="T96" s="3">
         <v>-592000</v>
       </c>
       <c r="U96" s="3">
+        <v>-592000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-586000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-584000</v>
       </c>
       <c r="W96" s="3">
         <v>-584000</v>
       </c>
       <c r="X96" s="3">
+        <v>-584000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-585000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-575000</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6392,8 +6629,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6463,8 +6703,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6534,79 +6777,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3429000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2532000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5424000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-262000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-354000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2863000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>301000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-935000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1019000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2499000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>26232000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1540000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-814000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-915000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1398000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-685000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-104000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-602000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-583000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-586000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-572000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>904000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-579000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6676,75 +6925,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-852000</v>
+      </c>
+      <c r="E102" s="3">
         <v>509000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2472000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2298000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>274000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>120000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>861000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1151000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1210000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1791000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3614000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1282000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1281000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>79000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1592000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-244000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-66000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-134000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-412000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>724000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-739000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-947000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-571000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OXY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OXY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,332 +665,345 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10712000</v>
+      </c>
+      <c r="E8" s="3">
         <v>8398000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7937000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6810000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6007000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5368000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4190000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4129000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2961000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6647000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6670000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5915000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8543000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4142000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4570000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5215000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4175000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3811000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3536000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3067000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3084000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2978000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2822000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2673000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3235000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2840000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2655000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2508000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2239000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2257000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2090000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1950000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1789000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3108000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3285000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2985000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3389000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1633000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1954000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1786000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1465000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1363000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1325000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1357000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1486000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1426000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1326000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1338000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7477000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5558000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5282000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4302000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3768000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3111000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2100000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2179000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1172000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3539000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3385000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2930000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5154000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2509000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2616000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3429000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2710000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2448000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2211000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1710000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1598000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1552000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1496000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1335000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1017,82 +1030,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E12" s="3">
         <v>25000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>107000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>31000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>86000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>28000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>33000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>29000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>33000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>37000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>113000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>63000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>71000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>36000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>50000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>24000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>21000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>15000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>55000</v>
-      </c>
-      <c r="V12" s="3">
-        <v>8000</v>
       </c>
       <c r="W12" s="3">
         <v>8000</v>
       </c>
       <c r="X12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="Y12" s="3">
         <v>11000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>17000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1165,156 +1182,165 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E14" s="3">
         <v>65000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>162000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>46000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>73000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>176000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>124000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2728000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6619000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1951000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1709000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1249000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>50000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>305000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>214000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>12000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>30000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>521000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>11000</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>13000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>526000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>221000</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>1728000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1643000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1966000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1916000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2371000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2194000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1754000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1915000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2119000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2309000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2369000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1767000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2004000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>973000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1086000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1023000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>947000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>921000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>1076000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>995000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>989000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>942000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>1050000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>1046000</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1338,156 +1364,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>5963000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5403000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5735000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5286000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5438000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5289000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4701000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7199000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10967000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7622000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7942000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6307000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6687000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3208000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3974000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3588000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2962000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2744000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3515000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2799000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2912000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2732000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3390000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2991000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>4749000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2995000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2202000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1524000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>569000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>79000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-511000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3070000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8006000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-975000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1272000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-392000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1856000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>934000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>596000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1627000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1213000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1067000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>21000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>268000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>172000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>246000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-568000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-318000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1514,378 +1547,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>351000</v>
+      </c>
+      <c r="E20" s="3">
         <v>459000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>213000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>142000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-41000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>631000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-505000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-635000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>132000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-711000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>837000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>199000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>192000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>20000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>232000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>961000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-44000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>14000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>52000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>38000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>519000</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>4000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>6828000</v>
+      </c>
+      <c r="E21" s="3">
         <v>5097000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4381000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3582000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2899000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2904000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>738000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1790000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5688000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>556000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1836000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1513000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4052000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1927000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1914000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3611000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2116000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2002000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1149000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1301000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1680000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1188000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>486000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>788000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E22" s="3">
         <v>371000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>385000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>449000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>385000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>395000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>409000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>353000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>310000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>352000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>434000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>381000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>251000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>98000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>99000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>96000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>97000</v>
       </c>
       <c r="T22" s="3">
         <v>97000</v>
       </c>
       <c r="U22" s="3">
+        <v>97000</v>
+      </c>
+      <c r="V22" s="3">
         <v>87000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>91000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>86000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>81000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>76000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>68000</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>4986000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3083000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2030000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1217000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>143000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>315000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1425000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4058000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8184000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2038000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-869000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-574000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1797000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>856000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>729000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2492000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1072000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>984000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-14000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>215000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>605000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>165000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-640000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-326000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>1231000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1793000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>469000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>387000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>43000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>16000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-276000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-403000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1468000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-25000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>167000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>163000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>531000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>225000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>151000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>710000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>302000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>339000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-421000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>85000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>285000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>78000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-333000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-30000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1958,156 +2007,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>3755000</v>
+      </c>
+      <c r="E26" s="3">
         <v>4876000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1561000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>830000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>100000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>299000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1149000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3655000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6716000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2013000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1036000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-737000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1266000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>631000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>578000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1782000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>770000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>645000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>407000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>130000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>320000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>87000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-307000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-296000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>3555000</v>
+      </c>
+      <c r="E27" s="3">
         <v>4676000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1361000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>630000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>99000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1349000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3858000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6938000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2232000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1338000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-897000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1265000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>628000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>680000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1861000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>843000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>705000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>485000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>189000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>505000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>117000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-268000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2180,8 +2238,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2189,46 +2250,46 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-24000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-2000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>3000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-445000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>37000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>80000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-1415000</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-30000</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>25000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>24</v>
@@ -2236,12 +2297,12 @@
       <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V29" s="3">
         <v>10000</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
@@ -2249,13 +2310,16 @@
         <v>0</v>
       </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2328,8 +2392,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2402,156 +2469,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-351000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-459000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-213000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-142000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>41000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-631000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>505000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>635000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-132000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>711000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-837000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-199000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-192000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-232000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-961000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>44000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-14000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-52000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-38000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-519000</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-60000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3555000</v>
+      </c>
+      <c r="E33" s="3">
         <v>4676000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1337000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>628000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-97000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-346000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1312000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3778000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8353000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2232000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1338000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-927000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1265000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>628000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>705000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1861000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>843000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>705000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>495000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>189000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>505000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>117000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-272000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2624,161 +2700,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3555000</v>
+      </c>
+      <c r="E35" s="3">
         <v>4676000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1337000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>628000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-97000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-346000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1312000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3778000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8353000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2232000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1338000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-927000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1265000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>628000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>705000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1861000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>843000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>705000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>495000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>189000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>505000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>117000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-272000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2805,8 +2890,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2833,82 +2919,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1362000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1909000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2764000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2059000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4569000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2270000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2008000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1896000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1011000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2021000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3032000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4840000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1751000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1752000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3033000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2954000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1362000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1606000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1672000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1806000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2218000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1494000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2233000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3180000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2981,452 +3071,473 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6350000</v>
+      </c>
+      <c r="E43" s="3">
         <v>5434000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4208000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3477000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3288000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3046000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2115000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2083000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2359000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2458000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4233000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5854000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5273000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5310000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4893000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6000000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5521000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5184000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4145000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3749000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3913000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4316000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3989000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3521000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1564000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1406000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1846000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1773000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1837000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2173000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1898000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1660000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1477000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1436000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1581000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1601000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1582000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1484000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1260000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1009000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1347000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1057000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1246000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1007000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>920000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1005000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>866000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>927000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1132000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1309000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1393000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2590000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3150000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2585000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2798000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5055000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3590000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8194000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7219000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8649000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>819000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>724000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>746000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1149000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2760000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1047000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1207000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>483000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1024000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1423000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1340000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1083000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10408000</v>
+      </c>
+      <c r="E46" s="3">
         <v>10058000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10211000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9899000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12844000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10074000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8819000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10694000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8437000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>14109000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>14633000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>20944000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9425000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9270000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9932000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>11112000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10990000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8894000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8270000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7045000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8075000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8238000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>8428000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>8711000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4503000</v>
+      </c>
+      <c r="E47" s="3">
         <v>4229000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4154000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4396000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4370000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4259000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4278000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4109000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7204000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7248000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>11305000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4814000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2539000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2518000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2477000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2686000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2642000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2568000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2580000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2331000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2439000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2219000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2341000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2487000</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>59294000</v>
+      </c>
+      <c r="E48" s="3">
         <v>59918000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>60656000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>61448000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>62706000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>65022000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>66951000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>69617000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>73733000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>80266000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>83641000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>91199000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>32796000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>32584000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>31437000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>31155000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>30432000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>31344000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>31174000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>32065000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>31466000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>32005000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>32337000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>30419000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3457,14 +3568,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3" t="s">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8461000</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>24</v>
@@ -3481,8 +3592,8 @@
       <c r="T49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U49" s="3">
-        <v>0</v>
+      <c r="U49" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
@@ -3499,8 +3610,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3573,8 +3687,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3647,61 +3764,64 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E52" s="3">
         <v>17000</v>
-      </c>
-      <c r="E52" s="3">
-        <v>15000</v>
       </c>
       <c r="F52" s="3">
         <v>15000</v>
       </c>
       <c r="G52" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H52" s="3">
         <v>17000</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="I52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>16000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>14000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>78000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>20000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>17000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>25000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10000</v>
-      </c>
-      <c r="P52" s="3">
-        <v>8000</v>
       </c>
       <c r="Q52" s="3">
         <v>8000</v>
       </c>
       <c r="R52" s="3">
+        <v>8000</v>
+      </c>
+      <c r="S52" s="3">
         <v>4000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3000</v>
-      </c>
-      <c r="T52" s="3">
-        <v>2000</v>
       </c>
       <c r="U52" s="3">
         <v>2000</v>
@@ -3713,16 +3833,19 @@
         <v>2000</v>
       </c>
       <c r="X52" s="3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Y52" s="3">
         <v>3000</v>
       </c>
       <c r="Z52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AA52" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3795,82 +3918,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>74221000</v>
+      </c>
+      <c r="E54" s="3">
         <v>74222000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>75036000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>75758000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>79937000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>79355000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>80064000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>84434000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>89452000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>101643000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>107190000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>125443000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>44770000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>44380000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>43854000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>44957000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>44067000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>42808000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>42026000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>41443000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>41982000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>42465000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>43109000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>41630000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3897,8 +4026,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3925,138 +4055,142 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5197000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4664000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3899000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3713000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3544000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3416000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2987000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2682000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3034000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3845000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4910000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6789000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5445000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5261000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4885000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5443000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5412000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5059000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4408000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3734000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3825000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4071000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3926000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3392000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>459000</v>
+      </c>
+      <c r="E58" s="3">
         <v>507000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>186000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>780000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>651000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>559000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>440000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2558000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2460000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2464000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>51000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>31000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>126000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>127000</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>116000</v>
       </c>
       <c r="R58" s="3">
         <v>116000</v>
       </c>
-      <c r="S58" s="3" t="s">
+      <c r="S58" s="3">
+        <v>116000</v>
+      </c>
+      <c r="T58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
       <c r="U58" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="V58" s="3">
         <v>500000</v>
@@ -4068,309 +4202,324 @@
         <v>500000</v>
       </c>
       <c r="Y58" s="3">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4074000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3529000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4239000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4633000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5391000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4656000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4796000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5260000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4425000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5654000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13046000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8877000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2309000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2149000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2411000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2813000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2666000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2011000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2492000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2128000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2066000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2281000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2436000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2296000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9730000</v>
+      </c>
+      <c r="E60" s="3">
         <v>8700000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8324000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9126000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9586000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8631000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8223000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10500000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9919000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11963000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12705000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>15697000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7880000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7537000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7412000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8372000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8078000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7070000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7400000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6362000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6391000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6852000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6362000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5688000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>21743000</v>
+      </c>
+      <c r="E61" s="3">
         <v>25865000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>29431000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>30915000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>35352000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>35466000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>35745000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>35899000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>36034000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>36058000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>38537000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>47583000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10163000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10215000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10201000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>10198000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>10312000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>10309000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>9328000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>9326000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>9324000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>9322000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>9819000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>8333000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14918000</v>
+      </c>
+      <c r="E62" s="3">
         <v>14750000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>16954000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>16844000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>16755000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>16958000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>17523000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>18175000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>20153000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>22327000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>25530000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>21158000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5380000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5392000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4911000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4894000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4746000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4707000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4726000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>5086000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>5230000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>5212000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>5431000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>5313000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4443,8 +4592,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4517,8 +4669,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4591,82 +4746,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>46391000</v>
+      </c>
+      <c r="E66" s="3">
         <v>49315000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>54709000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>56885000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>61693000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>61055000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>61491000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>64574000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>66106000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>70348000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>72958000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>89363000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>23423000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>23144000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>22524000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>23468000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>23136000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>22086000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>21454000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>20774000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>20945000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>21386000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>21612000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>19334000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4693,8 +4854,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4767,8 +4929,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4841,8 +5006,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4880,7 +5048,7 @@
         <v>9762000</v>
       </c>
       <c r="O70" s="3">
-        <v>0</v>
+        <v>9762000</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
@@ -4915,8 +5083,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4989,82 +5160,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>12462000</v>
+      </c>
+      <c r="E72" s="3">
         <v>9032000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4480000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3152000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2533000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2639000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2996000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4317000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8105000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>17229000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>20180000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>22227000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>23848000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>23795000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>23750000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>23635000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>22361000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>22107000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>21935000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>22032000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>22435000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>22513000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>22981000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>23836000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5137,8 +5314,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5211,8 +5391,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5285,82 +5468,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18068000</v>
+      </c>
+      <c r="E76" s="3">
         <v>15145000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10565000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9111000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8482000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8538000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8811000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10098000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13584000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21533000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>24470000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26318000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21347000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21236000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21330000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21489000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20931000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>20722000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>20572000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>20669000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>21037000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>21079000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>21497000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>22296000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5433,161 +5622,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3555000</v>
+      </c>
+      <c r="E81" s="3">
         <v>4676000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1337000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>628000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-97000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-346000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1312000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3778000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8353000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2232000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1338000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-927000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1265000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>628000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>705000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1861000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>843000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>705000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>495000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>189000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>505000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>117000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-272000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5614,82 +5812,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1728000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1643000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1966000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1916000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2371000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2194000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1754000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1915000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2186000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2242000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2271000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1706000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2004000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>973000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1086000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1023000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>947000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>921000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1076000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>995000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>989000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>942000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1050000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1046000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5762,8 +5964,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5836,8 +6041,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5910,8 +6118,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5984,8 +6195,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6058,82 +6272,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5329000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3239000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3092000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3118000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3314000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>910000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1404000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>852000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>360000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1339000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2009000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2405000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2961000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>948000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2500000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2404000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1756000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1009000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1421000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1070000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1853000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>652000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>915000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>650000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6160,82 +6380,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-972000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-858000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-937000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-656000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-698000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-579000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-614000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-246000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-382000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1293000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2171000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1714000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-76000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-69000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-202000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-484000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-65000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-177000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-683000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-358000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1482000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2834000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-646000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6308,8 +6532,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6382,82 +6609,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1293000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-662000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-51000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-166000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-754000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-282000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1579000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-292000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-576000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1530000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1301000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-25023000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2703000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1415000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1506000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>586000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1315000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-971000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-953000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-764000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-690000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-672000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2766000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-642000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6484,82 +6717,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-323000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-216000</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>19000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-9000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-11000</v>
       </c>
       <c r="I96" s="3">
         <v>-11000</v>
       </c>
       <c r="J96" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="K96" s="3">
         <v>196000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-492000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-694000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-540000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-588000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1178000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-591000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-594000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-595000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-593000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-592000</v>
       </c>
       <c r="U96" s="3">
         <v>-592000</v>
       </c>
       <c r="V96" s="3">
+        <v>-592000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-586000</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-584000</v>
       </c>
       <c r="X96" s="3">
         <v>-584000</v>
       </c>
       <c r="Y96" s="3">
+        <v>-584000</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-585000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-575000</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6632,8 +6869,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6706,8 +6946,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6780,82 +7023,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4586000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3429000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2532000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5424000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-262000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-354000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2863000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>301000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-935000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1019000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2499000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>26232000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1540000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-814000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-915000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1398000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-685000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-104000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-602000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-583000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-586000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-572000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>904000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-579000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6928,78 +7177,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-550000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-852000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>509000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2472000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2298000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>274000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>120000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>861000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1151000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1210000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1791000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3614000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1282000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1281000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>79000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1592000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-244000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-66000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-134000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-412000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>724000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-739000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-947000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-571000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OXY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OXY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,345 +665,358 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9427000</v>
+      </c>
+      <c r="E8" s="3">
         <v>10712000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8398000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7937000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6810000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6007000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5368000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4190000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4129000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2961000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6647000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6670000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5915000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8543000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4142000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4570000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5215000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4175000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3811000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3536000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3067000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3084000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2978000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2822000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2673000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3054000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3235000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2840000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2655000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2508000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2239000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2257000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2090000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1950000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1789000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3108000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3285000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2985000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3389000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1633000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1954000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1786000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1465000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1363000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1325000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1357000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1486000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1426000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1326000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1338000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6373000</v>
+      </c>
+      <c r="E10" s="3">
         <v>7477000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5558000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5282000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4302000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3768000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3111000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2100000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2179000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1172000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3539000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3385000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2930000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5154000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2509000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2616000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3429000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2710000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2448000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2211000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1710000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1598000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1552000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1496000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1335000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1031,85 +1044,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E12" s="3">
         <v>26000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>25000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>107000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>31000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>86000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>28000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>33000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>29000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>33000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>37000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>113000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>63000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>71000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>36000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>50000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>24000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>21000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>15000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>55000</v>
-      </c>
-      <c r="W12" s="3">
-        <v>8000</v>
       </c>
       <c r="X12" s="3">
         <v>8000</v>
       </c>
       <c r="Y12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="Z12" s="3">
         <v>11000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>17000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1185,162 +1202,171 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E14" s="3">
         <v>13000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>65000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>162000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>46000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>73000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>176000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>124000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2728000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6619000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1951000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1709000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1249000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>50000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>305000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>214000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>12000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>30000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>521000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>11000</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>13000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>526000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>221000</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>1736000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1728000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1643000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1966000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1916000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2371000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2194000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1754000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1915000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2119000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2309000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2369000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1767000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2004000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>973000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1086000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>1023000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>947000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>921000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>1076000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>995000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>989000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>942000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>1050000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>1046000</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1365,162 +1391,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>5834000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5963000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5403000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5735000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5286000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5438000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5289000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4701000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7199000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10967000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7622000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7942000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6307000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6687000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3208000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3974000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3588000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2962000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2744000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3515000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2799000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2912000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2732000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3390000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2991000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>3593000</v>
+      </c>
+      <c r="E18" s="3">
         <v>4749000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2995000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2202000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1524000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>569000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>79000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-511000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3070000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8006000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-975000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1272000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-392000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1856000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>934000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>596000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1627000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1213000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1067000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>21000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>268000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>172000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>246000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-568000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-318000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1548,393 +1581,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>340000</v>
+      </c>
+      <c r="E20" s="3">
         <v>351000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>459000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>213000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>142000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-41000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>631000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-505000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-635000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>132000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-711000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>837000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>199000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>192000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>20000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>232000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>961000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-44000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>14000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>52000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>38000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>519000</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>4000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>5669000</v>
+      </c>
+      <c r="E21" s="3">
         <v>6828000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5097000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4381000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3582000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2899000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2904000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>738000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1790000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5688000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>556000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1836000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1513000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4052000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1927000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1914000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3611000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2116000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2002000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1149000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1301000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1680000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1188000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>486000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>788000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>285000</v>
+      </c>
+      <c r="E22" s="3">
         <v>114000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>371000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>385000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>449000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>385000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>395000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>409000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>353000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>310000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>352000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>434000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>381000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>251000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>98000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>99000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>96000</v>
-      </c>
-      <c r="T22" s="3">
-        <v>97000</v>
       </c>
       <c r="U22" s="3">
         <v>97000</v>
       </c>
       <c r="V22" s="3">
+        <v>97000</v>
+      </c>
+      <c r="W22" s="3">
         <v>87000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>91000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>86000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>81000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>76000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>68000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>3648000</v>
+      </c>
+      <c r="E23" s="3">
         <v>4986000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3083000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2030000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1217000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>143000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>315000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1425000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4058000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8184000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2038000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-869000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-574000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1797000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>856000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>729000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2492000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1072000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>984000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-14000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>215000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>605000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>165000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-640000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-326000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>902000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1231000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1793000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>469000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>387000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>43000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>16000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-276000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-403000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1468000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-25000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>167000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>163000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>531000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>225000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>151000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>710000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>302000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>339000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-421000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>85000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>285000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>78000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-333000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-30000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2010,162 +2059,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>2746000</v>
+      </c>
+      <c r="E26" s="3">
         <v>3755000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4876000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1561000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>830000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>100000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>299000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1149000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3655000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6716000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2013000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1036000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-737000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1266000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>631000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>578000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1782000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>770000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>645000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>407000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>130000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>320000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>87000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-307000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-296000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>2546000</v>
+      </c>
+      <c r="E27" s="3">
         <v>3555000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4676000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1361000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>630000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>99000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1349000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3858000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6938000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2232000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1338000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-897000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1265000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>628000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>680000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1861000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>843000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>705000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>485000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>189000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>505000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>117000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-268000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2241,8 +2299,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2253,46 +2314,46 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-24000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-2000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>3000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-445000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>37000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>80000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-1415000</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-30000</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>25000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>24</v>
@@ -2300,12 +2361,12 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W29" s="3">
         <v>10000</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
         <v>0</v>
       </c>
@@ -2313,13 +2374,16 @@
         <v>0</v>
       </c>
       <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-4000</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2395,8 +2459,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2472,162 +2539,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-340000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-351000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-459000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-213000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-142000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>41000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-631000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>505000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>635000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-132000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>711000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-837000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-199000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-192000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-20000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-232000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-961000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>44000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-14000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-52000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-38000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-519000</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-4000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-60000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2546000</v>
+      </c>
+      <c r="E33" s="3">
         <v>3555000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4676000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1337000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>628000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-97000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-346000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1312000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3778000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8353000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2232000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1338000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-927000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1265000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>628000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>705000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1861000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>843000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>705000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>495000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>189000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>505000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>117000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-272000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2703,167 +2779,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2546000</v>
+      </c>
+      <c r="E35" s="3">
         <v>3555000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4676000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1337000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>628000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-97000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-346000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1312000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3778000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8353000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2232000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1338000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-927000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1265000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>628000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>705000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1861000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>843000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>705000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>495000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>189000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>505000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>117000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-272000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2891,8 +2976,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2920,85 +3006,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1233000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1362000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1909000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2764000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2059000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4569000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2270000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2008000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1896000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1011000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2021000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3032000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4840000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1751000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1752000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3033000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2954000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1362000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1606000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1672000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1806000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2218000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1494000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2233000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3180000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3074,470 +3164,491 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4046000</v>
+      </c>
+      <c r="E43" s="3">
         <v>6350000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5434000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4208000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3477000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3288000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3046000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2115000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2083000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2359000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2458000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4233000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5854000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5273000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5310000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4893000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6000000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5521000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5184000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4145000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3749000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3913000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>4316000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3989000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3521000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1937000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1564000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1406000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1846000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1773000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1837000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2173000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1898000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1660000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1477000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1436000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1581000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1601000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1582000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1484000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1260000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1009000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1347000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1057000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1246000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1007000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>920000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1005000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>866000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>927000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1533000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1132000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1309000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1393000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2590000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3150000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2585000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2798000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5055000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3590000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8194000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7219000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8649000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>819000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>724000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>746000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1149000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2760000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1047000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1207000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>483000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1024000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1423000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1340000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1083000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8749000</v>
+      </c>
+      <c r="E46" s="3">
         <v>10408000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10058000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10211000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9899000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12844000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10074000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8819000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10694000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8437000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>14109000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>14633000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>20944000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9425000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9270000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9932000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>11112000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>10990000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8894000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8270000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>7045000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8075000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>8238000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>8428000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>8711000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4284000</v>
+      </c>
+      <c r="E47" s="3">
         <v>4503000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4229000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4154000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4396000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4370000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4259000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4278000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4109000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7204000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7248000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>11305000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4814000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2539000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2518000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2477000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2686000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2642000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2568000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2580000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2331000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2439000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2219000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2341000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2487000</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>59096000</v>
+      </c>
+      <c r="E48" s="3">
         <v>59294000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>59918000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>60656000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>61448000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>62706000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>65022000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>66951000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>69617000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>73733000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>80266000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>83641000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>91199000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>32796000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>32584000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>31437000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>31155000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>30432000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>31344000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>31174000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>32065000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>31466000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>32005000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>32337000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>30419000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3571,14 +3682,14 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3" t="s">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8461000</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>24</v>
@@ -3595,8 +3706,8 @@
       <c r="U49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V49" s="3">
-        <v>0</v>
+      <c r="V49" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="W49" s="3">
         <v>0</v>
@@ -3613,8 +3724,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3690,8 +3804,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3767,64 +3884,67 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E52" s="3">
         <v>16000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>17000</v>
-      </c>
-      <c r="F52" s="3">
-        <v>15000</v>
       </c>
       <c r="G52" s="3">
         <v>15000</v>
       </c>
       <c r="H52" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I52" s="3">
         <v>17000</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="J52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>16000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>78000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>20000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>17000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>25000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10000</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>8000</v>
       </c>
       <c r="R52" s="3">
         <v>8000</v>
       </c>
       <c r="S52" s="3">
+        <v>8000</v>
+      </c>
+      <c r="T52" s="3">
         <v>4000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3000</v>
-      </c>
-      <c r="U52" s="3">
-        <v>2000</v>
       </c>
       <c r="V52" s="3">
         <v>2000</v>
@@ -3836,16 +3956,19 @@
         <v>2000</v>
       </c>
       <c r="Y52" s="3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Z52" s="3">
         <v>3000</v>
       </c>
       <c r="AA52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AB52" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3921,85 +4044,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>72144000</v>
+      </c>
+      <c r="E54" s="3">
         <v>74221000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>74222000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>75036000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>75758000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>79937000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>79355000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>80064000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>84434000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>89452000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>101643000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>107190000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>125443000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>44770000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>44380000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>43854000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>44957000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>44067000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>42808000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>42026000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>41443000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>41982000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>42465000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>43109000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>41630000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4027,8 +4156,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4056,144 +4186,148 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3715000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5197000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4664000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3899000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3713000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3544000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3416000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2987000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2682000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3034000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3845000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4910000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6789000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5445000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5261000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4885000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5443000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5412000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5059000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4408000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3734000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3825000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4071000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3926000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>3392000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>546000</v>
+      </c>
+      <c r="E58" s="3">
         <v>459000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>507000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>186000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>780000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>651000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>559000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>440000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2558000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2460000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2464000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>51000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>31000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>126000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>127000</v>
-      </c>
-      <c r="R58" s="3">
-        <v>116000</v>
       </c>
       <c r="S58" s="3">
         <v>116000</v>
       </c>
-      <c r="T58" s="3" t="s">
+      <c r="T58" s="3">
+        <v>116000</v>
+      </c>
+      <c r="U58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
       <c r="V58" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="W58" s="3">
         <v>500000</v>
@@ -4205,321 +4339,336 @@
         <v>500000</v>
       </c>
       <c r="Z58" s="3">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3674000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4074000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3529000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4239000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4633000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5391000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4656000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4796000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5260000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4425000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5654000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13046000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8877000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2309000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2149000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2411000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2813000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2666000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2011000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2492000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2128000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2066000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2281000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2436000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2296000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7935000</v>
+      </c>
+      <c r="E60" s="3">
         <v>9730000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8700000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8324000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9126000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9586000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8631000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8223000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10500000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9919000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11963000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12705000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>15697000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7880000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7537000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7412000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8372000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8078000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7070000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7400000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6362000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6391000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6852000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>6362000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>5688000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>20478000</v>
+      </c>
+      <c r="E61" s="3">
         <v>21743000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>25865000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>29431000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>30915000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>35352000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>35466000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>35745000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>35899000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>36034000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>36058000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>38537000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>47583000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10163000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10215000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>10201000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>10198000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>10312000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>10309000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>9328000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>9326000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>9324000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>9322000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>9819000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>8333000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15011000</v>
+      </c>
+      <c r="E62" s="3">
         <v>14918000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14750000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>16954000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>16844000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>16755000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>16958000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>17523000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18175000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>20153000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>22327000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>25530000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>21158000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5380000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5392000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4911000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4894000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4746000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4707000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4726000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>5086000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>5230000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>5212000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>5431000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>5313000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4595,8 +4744,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4672,8 +4824,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4749,85 +4904,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>43424000</v>
+      </c>
+      <c r="E66" s="3">
         <v>46391000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>49315000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>54709000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>56885000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>61693000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>61055000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>61491000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>64574000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>66106000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>70348000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>72958000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>89363000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>23423000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>23144000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>22524000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>23468000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>23136000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>22086000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>21454000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>20774000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>20945000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>21386000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>21612000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>19334000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4855,8 +5016,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4932,8 +5094,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5009,8 +5174,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5051,7 +5219,7 @@
         <v>9762000</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>9762000</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
@@ -5086,8 +5254,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5163,85 +5334,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>14888000</v>
+      </c>
+      <c r="E72" s="3">
         <v>12462000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>9032000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4480000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3152000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2533000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2639000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2996000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4317000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8105000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>17229000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>20180000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>22227000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>23848000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>23795000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>23750000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>23635000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>22361000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>22107000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>21935000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>22032000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>22435000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>22513000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>22981000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>23836000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5317,8 +5494,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5394,8 +5574,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5471,85 +5654,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18958000</v>
+      </c>
+      <c r="E76" s="3">
         <v>18068000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15145000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10565000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9111000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8482000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8538000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8811000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10098000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13584000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21533000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>24470000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>26318000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21347000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21236000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21330000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21489000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>20931000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>20722000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>20572000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>20669000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>21037000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>21079000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>21497000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>22296000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5625,167 +5814,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2546000</v>
+      </c>
+      <c r="E81" s="3">
         <v>3555000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4676000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1337000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>628000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-97000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-346000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1312000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3778000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8353000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2232000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1338000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-927000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1265000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>628000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>705000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1861000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>843000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>705000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>495000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>189000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>505000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>117000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-272000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5813,85 +6011,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1736000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1728000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1643000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1966000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1916000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2371000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2194000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1754000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1915000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2186000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2242000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2271000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1706000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2004000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>973000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1086000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1023000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>947000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>921000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1076000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>995000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>989000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>942000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1050000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>1046000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5967,8 +6169,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6044,8 +6249,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6121,8 +6329,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6198,8 +6409,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6275,85 +6489,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4267000</v>
+      </c>
+      <c r="E89" s="3">
         <v>5329000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3239000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3092000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3118000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3314000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>910000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1404000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>852000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>360000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1339000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2009000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2405000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2961000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>948000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2500000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2404000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1756000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1009000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1421000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1070000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1853000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>652000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>915000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>650000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6381,85 +6601,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1147000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-972000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-858000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-937000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-656000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-698000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-579000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-614000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-246000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-382000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1293000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2171000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1714000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-76000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-69000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-202000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-484000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-65000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-177000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-683000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-358000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1482000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2834000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-646000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6535,8 +6759,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6612,85 +6839,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1019000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1293000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-662000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-51000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-166000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-754000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-282000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1579000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-292000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-576000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1530000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1301000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-25023000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2703000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1415000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1506000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>586000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1315000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-971000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-953000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-764000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-690000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-672000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2766000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-642000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6718,85 +6951,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-324000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-323000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-216000</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>19000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-9000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-11000</v>
       </c>
       <c r="J96" s="3">
         <v>-11000</v>
       </c>
       <c r="K96" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="L96" s="3">
         <v>196000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-492000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-694000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-540000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-588000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1178000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-591000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-594000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-595000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-593000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-592000</v>
       </c>
       <c r="V96" s="3">
         <v>-592000</v>
       </c>
       <c r="W96" s="3">
+        <v>-592000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-586000</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-584000</v>
       </c>
       <c r="Y96" s="3">
         <v>-584000</v>
       </c>
       <c r="Z96" s="3">
+        <v>-584000</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-585000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-575000</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6872,8 +7109,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6949,8 +7189,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7026,85 +7269,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3370000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4586000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3429000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2532000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5424000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-262000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-354000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2863000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>301000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-935000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1019000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2499000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>26232000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1540000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-814000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-915000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1398000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-685000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-104000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-602000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-583000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-586000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-572000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>904000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-579000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7180,81 +7429,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-550000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-852000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>509000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2472000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2298000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>274000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>120000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>861000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1151000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1210000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1791000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3614000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1282000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1281000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>79000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1592000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-244000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-66000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-134000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-412000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>724000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-739000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-947000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-571000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OXY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OXY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,358 +665,370 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8250000</v>
+      </c>
+      <c r="E8" s="3">
         <v>9427000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10712000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8398000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7937000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6810000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6007000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5368000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4190000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4129000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2961000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6647000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6670000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5915000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8543000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4142000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4570000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5215000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4175000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3811000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3536000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3067000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3084000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2978000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2822000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2673000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2934000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3054000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3235000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2840000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2655000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2508000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2239000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2257000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2090000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1950000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1789000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3108000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3285000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2985000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3389000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1633000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1954000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1786000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1465000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1363000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1325000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1357000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1486000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1426000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1326000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1338000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5316000</v>
+      </c>
+      <c r="E10" s="3">
         <v>6373000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7477000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5558000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5282000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4302000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3768000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3111000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2100000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2179000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1172000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3539000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3385000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2930000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5154000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2509000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2616000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3429000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2710000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2448000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2211000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1710000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1598000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1552000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1496000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1335000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1045,88 +1057,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>118000</v>
+      </c>
+      <c r="E12" s="3">
         <v>47000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>26000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>25000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>107000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>31000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>86000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>28000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>33000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>29000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>33000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>37000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>113000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>63000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>71000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>36000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>50000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>24000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>21000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>15000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>55000</v>
-      </c>
-      <c r="X12" s="3">
-        <v>8000</v>
       </c>
       <c r="Y12" s="3">
         <v>8000</v>
       </c>
       <c r="Z12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="AA12" s="3">
         <v>11000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>17000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1205,168 +1221,177 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E14" s="3">
         <v>4000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>13000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>65000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>162000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>46000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>73000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>176000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>124000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2728000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>6619000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1951000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1709000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1249000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>50000</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>305000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>214000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>12000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>30000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>521000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>11000</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>13000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>526000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>221000</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>1819000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1736000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1728000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1643000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1966000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1916000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2371000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2194000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1754000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1915000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2119000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2309000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2369000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1767000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2004000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>973000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>1086000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>1023000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>947000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>921000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>1076000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>995000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>989000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>942000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>1050000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>1046000</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1392,168 +1417,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>5858000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5834000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5963000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5403000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5735000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5286000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5438000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5289000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4701000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7199000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10967000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7622000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7942000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6307000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6687000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3208000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3974000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3588000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2962000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2744000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3515000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2799000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2912000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2732000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3390000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2991000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2392000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3593000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4749000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2995000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2202000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1524000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>569000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>79000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-511000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3070000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8006000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-975000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1272000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-392000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1856000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>934000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>596000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1627000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1213000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1067000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>21000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>268000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>172000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>246000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-568000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-318000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1582,408 +1614,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>268000</v>
+      </c>
+      <c r="E20" s="3">
         <v>340000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>351000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>459000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>213000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>142000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-41000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>631000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-505000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-635000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>132000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-711000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>837000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>199000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>192000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>20000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>232000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>961000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-44000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>14000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>52000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>38000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>519000</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
         <v>4000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>4479000</v>
+      </c>
+      <c r="E21" s="3">
         <v>5669000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>6828000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5097000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4381000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3582000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2899000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2904000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>738000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1790000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5688000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>556000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1836000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1513000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4052000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1927000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1914000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3611000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2116000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2002000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1149000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1301000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1680000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1188000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>486000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>788000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>260000</v>
+      </c>
+      <c r="E22" s="3">
         <v>285000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>114000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>371000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>385000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>449000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>385000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>395000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>409000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>353000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>310000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>352000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>434000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>381000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>251000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>98000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>99000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>96000</v>
-      </c>
-      <c r="U22" s="3">
-        <v>97000</v>
       </c>
       <c r="V22" s="3">
         <v>97000</v>
       </c>
       <c r="W22" s="3">
+        <v>97000</v>
+      </c>
+      <c r="X22" s="3">
         <v>87000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>91000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>86000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>81000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>76000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>68000</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3648000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4986000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3083000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2030000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1217000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>143000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>315000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1425000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4058000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8184000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2038000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-869000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-574000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1797000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>856000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>729000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2492000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1072000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>984000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-14000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>215000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>605000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>165000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-640000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-326000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>473000</v>
+      </c>
+      <c r="E24" s="3">
         <v>902000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1231000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1793000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>469000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>387000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>43000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>16000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-276000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-403000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1468000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-25000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>167000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>163000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>531000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>225000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>151000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>710000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>302000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>339000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-421000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>85000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>285000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>78000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-333000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-30000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2062,168 +2110,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1927000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2746000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3755000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4876000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1561000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>830000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>100000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>299000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1149000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3655000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6716000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2013000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1036000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-737000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1266000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>631000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>578000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1782000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>770000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>645000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>407000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>130000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>320000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>87000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-307000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-296000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1727000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2546000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3555000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4676000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1361000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>630000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>99000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1349000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3858000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6938000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2232000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1338000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-897000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1265000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>628000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>680000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1861000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>843000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>705000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>485000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>189000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>505000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>117000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-268000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2302,8 +2359,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2317,46 +2377,46 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-24000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-2000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>3000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-445000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>37000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>80000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-1415000</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-30000</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>25000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>24</v>
@@ -2364,12 +2424,12 @@
       <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="X29" s="3">
         <v>10000</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
       <c r="Y29" s="3">
         <v>0</v>
       </c>
@@ -2377,13 +2437,16 @@
         <v>0</v>
       </c>
       <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
         <v>-4000</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2462,8 +2525,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2542,168 +2608,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-268000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-340000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-351000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-459000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-213000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-142000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>41000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-631000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>505000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>635000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-132000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>711000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-837000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-199000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-192000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-20000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-232000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-961000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>44000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-14000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-52000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-38000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-519000</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-4000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-60000</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1727000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2546000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3555000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4676000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1337000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>628000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-97000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-346000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1312000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3778000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8353000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2232000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1338000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-927000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1265000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>628000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>705000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1861000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>843000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>705000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>495000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>189000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>505000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>117000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-272000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2782,173 +2857,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1727000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2546000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3555000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4676000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1337000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>628000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-97000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-346000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1312000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3778000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8353000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2232000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1338000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-927000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1265000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>628000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>705000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1861000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>843000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>705000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>495000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>189000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>505000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>117000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-272000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2977,8 +3061,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3007,88 +3092,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>984000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1233000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1362000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1909000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2764000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2059000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4569000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2270000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2008000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1896000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1011000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2021000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3032000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4840000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1751000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1752000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3033000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2954000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1362000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1606000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1672000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1806000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2218000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1494000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2233000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3180000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3167,488 +3256,509 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4281000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4046000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6350000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5434000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4208000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3477000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3288000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3046000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2115000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2083000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2359000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2458000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4233000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5854000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5273000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5310000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4893000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6000000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5521000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5184000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4145000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3749000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3913000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>4316000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3989000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>3521000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2059000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1937000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1564000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1406000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1846000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1773000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1837000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2173000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1898000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1660000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1477000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1436000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1581000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1601000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1582000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1484000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1260000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1009000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1347000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1057000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1246000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1007000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>920000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1005000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>866000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>927000</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1562000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1533000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1132000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1309000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1393000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2590000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3150000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2585000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2798000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5055000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3590000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8194000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7219000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>8649000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>819000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>724000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>746000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1149000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2760000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1047000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1207000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>483000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1024000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1423000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1340000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1083000</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8886000</v>
+      </c>
+      <c r="E46" s="3">
         <v>8749000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10408000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10058000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10211000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9899000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12844000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10074000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8819000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10694000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8437000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>14109000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>14633000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>20944000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9425000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9270000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9932000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>11112000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>10990000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8894000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8270000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>7045000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>8075000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>8238000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>8428000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>8711000</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4420000</v>
+      </c>
+      <c r="E47" s="3">
         <v>4284000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4503000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4229000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4154000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4396000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4370000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4259000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4278000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4109000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7204000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7248000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>11305000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4814000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2539000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2518000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2477000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2686000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2642000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2568000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2580000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2331000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2439000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2219000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2341000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>2487000</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>59287000</v>
+      </c>
+      <c r="E48" s="3">
         <v>59096000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>59294000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>59918000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>60656000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>61448000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>62706000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>65022000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>66951000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>69617000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>73733000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>80266000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>83641000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>91199000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>32796000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>32584000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>31437000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>31155000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>30432000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>31344000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>31174000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>32065000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>31466000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>32005000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>32337000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>30419000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3685,14 +3795,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3" t="s">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8461000</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>24</v>
@@ -3709,8 +3819,8 @@
       <c r="V49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W49" s="3">
-        <v>0</v>
+      <c r="W49" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="X49" s="3">
         <v>0</v>
@@ -3727,8 +3837,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3807,8 +3920,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3887,67 +4003,70 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E52" s="3">
         <v>15000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>17000</v>
-      </c>
-      <c r="G52" s="3">
-        <v>15000</v>
       </c>
       <c r="H52" s="3">
         <v>15000</v>
       </c>
       <c r="I52" s="3">
+        <v>15000</v>
+      </c>
+      <c r="J52" s="3">
         <v>17000</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="K52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>14000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>78000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>20000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>17000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>25000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10000</v>
-      </c>
-      <c r="R52" s="3">
-        <v>8000</v>
       </c>
       <c r="S52" s="3">
         <v>8000</v>
       </c>
       <c r="T52" s="3">
+        <v>8000</v>
+      </c>
+      <c r="U52" s="3">
         <v>4000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3000</v>
-      </c>
-      <c r="V52" s="3">
-        <v>2000</v>
       </c>
       <c r="W52" s="3">
         <v>2000</v>
@@ -3959,16 +4078,19 @@
         <v>2000</v>
       </c>
       <c r="Z52" s="3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="AA52" s="3">
         <v>3000</v>
       </c>
       <c r="AB52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AC52" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4047,88 +4169,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>72609000</v>
+      </c>
+      <c r="E54" s="3">
         <v>72144000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>74221000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>74222000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>75036000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>75758000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>79937000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>79355000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>80064000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>84434000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>89452000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>101643000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>107190000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>125443000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>44770000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>44380000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>43854000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>44957000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>44067000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>42808000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>42026000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>41443000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>41982000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>42465000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>43109000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>41630000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4157,8 +4285,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4187,150 +4316,154 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4029000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3715000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5197000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4664000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3899000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3713000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3544000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3416000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2987000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2682000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3034000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3845000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4910000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6789000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5445000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5261000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4885000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5443000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5412000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5059000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4408000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3734000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3825000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4071000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>3926000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>3392000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>165000</v>
+      </c>
+      <c r="E58" s="3">
         <v>546000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>459000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>507000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>186000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>780000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>651000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>559000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>440000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2558000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2460000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2464000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>51000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>31000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>126000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>127000</v>
-      </c>
-      <c r="S58" s="3">
-        <v>116000</v>
       </c>
       <c r="T58" s="3">
         <v>116000</v>
       </c>
-      <c r="U58" s="3" t="s">
+      <c r="U58" s="3">
+        <v>116000</v>
+      </c>
+      <c r="V58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
       <c r="W58" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="X58" s="3">
         <v>500000</v>
@@ -4342,333 +4475,348 @@
         <v>500000</v>
       </c>
       <c r="AA58" s="3">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3563000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3674000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4074000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3529000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4239000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4633000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5391000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4656000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4796000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5260000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4425000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5654000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13046000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8877000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2309000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2149000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2411000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2813000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2666000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2011000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2492000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2128000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2066000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2281000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2436000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2296000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7757000</v>
+      </c>
+      <c r="E60" s="3">
         <v>7935000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9730000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8700000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8324000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9126000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9586000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8631000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8223000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10500000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9919000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11963000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12705000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>15697000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7880000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7537000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7412000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8372000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8078000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7070000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7400000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6362000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6391000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>6852000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>6362000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>5688000</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>19670000</v>
+      </c>
+      <c r="E61" s="3">
         <v>20478000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>21743000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>25865000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>29431000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>30915000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>35352000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>35466000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>35745000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>35899000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>36034000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>36058000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>38537000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>47583000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10163000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>10215000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>10201000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>10198000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>10312000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>10309000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>9328000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>9326000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>9324000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>9322000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>9819000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>8333000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15097000</v>
+      </c>
+      <c r="E62" s="3">
         <v>15011000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14918000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>14750000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>16954000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>16844000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>16755000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>16958000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>17523000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18175000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>20153000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>22327000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>25530000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>21158000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5380000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5392000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4911000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4894000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4746000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4707000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4726000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>5086000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>5230000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>5212000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>5431000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>5313000</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4747,8 +4895,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4827,8 +4978,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4907,88 +5061,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>42524000</v>
+      </c>
+      <c r="E66" s="3">
         <v>43424000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>46391000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>49315000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>54709000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>56885000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>61693000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>61055000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>61491000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>64574000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>66106000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>70348000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>72958000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>89363000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>23423000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>23144000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>22524000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>23468000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>23136000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>22086000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>21454000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>20774000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>20945000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>21386000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>21612000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>19334000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5017,8 +5177,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5097,8 +5258,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5177,8 +5341,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5222,7 +5389,7 @@
         <v>9762000</v>
       </c>
       <c r="Q70" s="3">
-        <v>0</v>
+        <v>9762000</v>
       </c>
       <c r="R70" s="3">
         <v>0</v>
@@ -5257,8 +5424,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5337,88 +5507,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>16499000</v>
+      </c>
+      <c r="E72" s="3">
         <v>14888000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>12462000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>9032000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4480000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3152000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2533000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2639000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2996000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4317000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8105000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>17229000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>20180000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>22227000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>23848000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>23795000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>23750000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>23635000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>22361000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>22107000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>21935000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>22032000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>22435000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>22513000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>22981000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>23836000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5497,8 +5673,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5577,8 +5756,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5657,88 +5839,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20323000</v>
+      </c>
+      <c r="E76" s="3">
         <v>18958000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>18068000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15145000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10565000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9111000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8482000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8538000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8811000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10098000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13584000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21533000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>24470000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>26318000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21347000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21236000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21330000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21489000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>20931000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>20722000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>20572000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>20669000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>21037000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>21079000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>21497000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>22296000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5817,173 +6005,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1727000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2546000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3555000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4676000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1337000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>628000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-97000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-346000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1312000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3778000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8353000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2232000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1338000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-927000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1265000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>628000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>705000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1861000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>843000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>705000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>495000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>189000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>505000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>117000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-272000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6012,88 +6209,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1819000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1736000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1728000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1643000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1966000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1916000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2371000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2194000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1754000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1915000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2186000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2242000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2271000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1706000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2004000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>973000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1086000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1023000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>947000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>921000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1076000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>995000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>989000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>942000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>1050000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>1046000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6172,8 +6373,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6252,8 +6456,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6332,8 +6539,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6412,8 +6622,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6492,88 +6705,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3975000</v>
+      </c>
+      <c r="E89" s="3">
         <v>4267000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5329000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3239000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3092000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3118000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3314000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>910000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1404000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>852000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>360000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1339000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2009000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2405000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2961000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>948000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2500000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2404000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1756000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1009000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1421000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1070000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1853000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>652000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>915000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>650000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6602,88 +6821,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1520000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1147000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-972000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-858000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-937000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-656000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-698000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-579000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-614000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-246000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-382000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1293000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2171000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1714000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-76000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-69000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-202000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-484000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-65000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-177000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-683000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-358000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1482000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-2834000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-646000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6762,8 +6985,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6842,88 +7068,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1898000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1019000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1293000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-662000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-51000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-166000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-754000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-282000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1579000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-292000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-576000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1530000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1301000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-25023000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2703000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1415000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1506000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>586000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1315000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-971000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-953000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-764000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-690000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-672000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-2766000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-642000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6952,88 +7184,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-321000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-324000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-323000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-216000</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>19000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-9000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-11000</v>
       </c>
       <c r="K96" s="3">
         <v>-11000</v>
       </c>
       <c r="L96" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="M96" s="3">
         <v>196000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-492000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-694000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-540000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-588000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1178000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-591000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-594000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-595000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-593000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-592000</v>
       </c>
       <c r="W96" s="3">
         <v>-592000</v>
       </c>
       <c r="X96" s="3">
+        <v>-592000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-586000</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-584000</v>
       </c>
       <c r="Z96" s="3">
         <v>-584000</v>
       </c>
       <c r="AA96" s="3">
+        <v>-584000</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-585000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-575000</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7112,8 +7348,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7192,8 +7431,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7272,88 +7514,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2330000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3370000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4586000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3429000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2532000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5424000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-262000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-354000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2863000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>301000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-935000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1019000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2499000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>26232000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1540000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-814000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-915000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1398000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-685000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-104000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-602000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-583000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-586000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-572000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>904000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-579000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7432,84 +7680,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-253000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-122000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-550000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-852000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>509000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2472000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2298000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>274000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>120000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>861000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1151000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1210000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1791000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3614000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1282000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1281000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>79000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1592000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-244000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-66000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-134000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-412000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>724000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-739000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-947000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-571000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OXY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OXY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>OXY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,370 +665,383 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7254000</v>
+      </c>
+      <c r="E8" s="3">
         <v>8250000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9427000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10712000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8398000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7937000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6810000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6007000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5368000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4190000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4129000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2961000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6647000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6670000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5915000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8543000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4142000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4570000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5215000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4175000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3811000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3536000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3067000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3084000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2978000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2822000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2673000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2708000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2934000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3054000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3235000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2840000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2655000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2508000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2239000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2257000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2090000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1950000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1789000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3108000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3285000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2985000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3389000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1633000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1954000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1786000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1465000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1363000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1325000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1357000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1486000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1426000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1326000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1338000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4546000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5316000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6373000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7477000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5558000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5282000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4302000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3768000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3111000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2100000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2179000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1172000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3539000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3385000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2930000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5154000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2509000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2616000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3429000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2710000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2448000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2211000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1710000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1598000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1552000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1496000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1335000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1058,91 +1071,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>102000</v>
+      </c>
+      <c r="E12" s="3">
         <v>118000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>47000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>26000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>25000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>107000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>31000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>86000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>28000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>33000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>29000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>33000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>37000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>113000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>63000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>71000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>36000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>50000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>24000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>21000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>15000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>55000</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>8000</v>
       </c>
       <c r="Z12" s="3">
         <v>8000</v>
       </c>
       <c r="AA12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="AB12" s="3">
         <v>11000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>17000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1224,174 +1241,183 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>7000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>13000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>65000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>162000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>46000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>73000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>176000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>124000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2728000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6619000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1951000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1709000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1249000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>50000</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>305000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>214000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>12000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>30000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>521000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>11000</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>13000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>526000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>221000</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>1721000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1819000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1736000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1728000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1643000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1966000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1916000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2371000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2194000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1754000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1915000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2119000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2309000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2369000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1767000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>2004000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>973000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>1086000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>1023000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>947000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>921000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>1076000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>995000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>989000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>942000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>1050000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>1046000</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1418,174 +1444,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>5386000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5858000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5834000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5963000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5403000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5735000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5286000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5438000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5289000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4701000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7199000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10967000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7622000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7942000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6307000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6687000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3208000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3974000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3588000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2962000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2744000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3515000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2799000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2912000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2732000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3390000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2991000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1868000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2392000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3593000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4749000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2995000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2202000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1524000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>569000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>79000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-511000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3070000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8006000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-975000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1272000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-392000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1856000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>934000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>596000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1627000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1213000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1067000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>21000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>268000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>172000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>246000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-568000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-318000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1615,423 +1648,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E20" s="3">
         <v>268000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>340000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>351000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>459000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>213000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>142000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-41000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>631000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-505000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-635000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>132000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-711000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>837000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>199000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>192000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>20000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>232000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>961000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-44000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>14000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>52000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>38000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>519000</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
       <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
         <v>4000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>3693000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4479000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5669000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>6828000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5097000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4381000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3582000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2899000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2904000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>738000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1790000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5688000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>556000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1836000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1513000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4052000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1927000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1914000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3611000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2116000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2002000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1149000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1301000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1680000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1188000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>486000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>788000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>238000</v>
+      </c>
+      <c r="E22" s="3">
         <v>260000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>285000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>114000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>371000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>385000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>449000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>385000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>395000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>409000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>353000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>310000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>352000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>434000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>381000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>251000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>98000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>99000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>96000</v>
-      </c>
-      <c r="V22" s="3">
-        <v>97000</v>
       </c>
       <c r="W22" s="3">
         <v>97000</v>
       </c>
       <c r="X22" s="3">
+        <v>97000</v>
+      </c>
+      <c r="Y22" s="3">
         <v>87000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>91000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>86000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>81000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>76000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>68000</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1734000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2400000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3648000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4986000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3083000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2030000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1217000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>143000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>315000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1425000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4058000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8184000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2038000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-869000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-574000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1797000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>856000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>729000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2492000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1072000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>984000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-14000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>215000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>605000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>165000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-640000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-326000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>471000</v>
+      </c>
+      <c r="E24" s="3">
         <v>473000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>902000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1231000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1793000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>469000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>387000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>43000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>16000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-276000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-403000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1468000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-25000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>167000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>163000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>531000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>225000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>151000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>710000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>302000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>339000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-421000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>85000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>285000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>78000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-333000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-30000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2113,174 +2162,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1263000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1927000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2746000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3755000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4876000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1561000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>830000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>100000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>299000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1149000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3655000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6716000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2013000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1036000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-737000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1266000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>631000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>578000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1782000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>770000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>645000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>407000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>130000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>320000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>87000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-307000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-296000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>983000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1727000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2546000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3555000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4676000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1361000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>630000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>99000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1349000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3858000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6938000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2232000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1338000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-897000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1265000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>628000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>680000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1861000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>843000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>705000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>485000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>189000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>505000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>117000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-268000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2362,13 +2420,16 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -2380,46 +2441,46 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-24000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-2000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>3000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-445000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>37000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>80000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-1415000</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-30000</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>25000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>24</v>
@@ -2427,12 +2488,12 @@
       <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y29" s="3">
         <v>10000</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
       <c r="Z29" s="3">
         <v>0</v>
       </c>
@@ -2440,13 +2501,16 @@
         <v>0</v>
       </c>
       <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
         <v>-4000</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2528,8 +2592,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2611,174 +2678,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-268000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-340000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-351000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-459000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-213000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-142000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>41000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-631000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>505000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>635000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-132000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>711000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-837000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-199000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-192000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-20000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-232000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-961000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>44000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-14000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-52000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-38000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-519000</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
       <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
         <v>-4000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-60000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>983000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1727000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2546000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3555000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4676000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1337000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>628000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-97000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-346000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1312000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3778000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8353000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2232000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1338000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-927000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1265000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>628000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>705000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1861000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>843000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>705000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>495000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>189000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>505000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>117000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-272000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2860,179 +2936,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>983000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1727000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2546000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3555000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4676000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1337000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>628000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-97000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-346000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1312000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3778000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8353000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2232000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1338000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-927000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1265000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>628000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>705000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1861000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>843000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>705000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>495000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>189000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>505000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>117000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-272000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3062,8 +3147,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3093,91 +3179,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1165000</v>
+      </c>
+      <c r="E41" s="3">
         <v>984000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1233000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1362000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1909000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2764000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2059000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4569000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2270000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2008000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1896000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1011000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2021000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3032000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4840000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1751000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1752000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3033000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2954000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1362000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1606000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1672000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1806000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2218000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1494000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2233000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>3180000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3259,340 +3349,355 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3272000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4281000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4046000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6350000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5434000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4208000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3477000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3288000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3046000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2115000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2083000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2359000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2458000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4233000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5854000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5273000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5310000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4893000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6000000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5521000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5184000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4145000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3749000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3913000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>4316000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>3989000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>3521000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2311000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2059000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1937000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1564000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1406000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1846000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1773000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1837000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2173000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1898000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1660000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1477000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1436000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1581000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1601000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1582000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1484000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1260000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1009000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1347000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1057000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1246000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1007000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>920000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1005000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>866000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>927000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1394000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1562000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1533000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1132000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1309000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1393000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2590000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3150000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2585000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2798000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5055000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3590000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8194000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7219000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>8649000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>819000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>724000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>746000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1149000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2760000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1047000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1207000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>483000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1024000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1423000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1340000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1083000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8142000</v>
+      </c>
+      <c r="E46" s="3">
         <v>8886000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8749000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10408000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10058000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10211000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9899000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>12844000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10074000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8819000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10694000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8437000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>14109000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>14633000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>20944000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9425000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9270000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9932000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>11112000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>10990000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8894000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8270000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>7045000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>8075000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>8238000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>8428000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>8711000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3600,165 +3705,171 @@
         <v>4420000</v>
       </c>
       <c r="E47" s="3">
+        <v>4420000</v>
+      </c>
+      <c r="F47" s="3">
         <v>4284000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4503000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4229000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4154000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4396000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4370000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4259000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4278000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4109000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7204000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>7248000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>11305000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4814000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2539000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2518000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2477000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2686000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2642000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2568000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2580000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2331000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2439000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2219000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>2341000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>2487000</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>59021000</v>
+      </c>
+      <c r="E48" s="3">
         <v>59287000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>59096000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>59294000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>59918000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>60656000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>61448000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>62706000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>65022000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>66951000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>69617000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>73733000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>80266000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>83641000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>91199000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>32796000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>32584000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>31437000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>31155000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>30432000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>31344000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>31174000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>32065000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>31466000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>32005000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>32337000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>30419000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3798,14 +3909,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-      <c r="P49" s="3" t="s">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>8461000</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>24</v>
@@ -3822,8 +3933,8 @@
       <c r="W49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X49" s="3">
-        <v>0</v>
+      <c r="X49" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Y49" s="3">
         <v>0</v>
@@ -3840,8 +3951,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3923,8 +4037,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4006,70 +4123,73 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E52" s="3">
         <v>16000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>15000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>16000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>17000</v>
-      </c>
-      <c r="H52" s="3">
-        <v>15000</v>
       </c>
       <c r="I52" s="3">
         <v>15000</v>
       </c>
       <c r="J52" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K52" s="3">
         <v>17000</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="L52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>16000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>14000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>78000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>20000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>17000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>25000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10000</v>
-      </c>
-      <c r="S52" s="3">
-        <v>8000</v>
       </c>
       <c r="T52" s="3">
         <v>8000</v>
       </c>
       <c r="U52" s="3">
+        <v>8000</v>
+      </c>
+      <c r="V52" s="3">
         <v>4000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3000</v>
-      </c>
-      <c r="W52" s="3">
-        <v>2000</v>
       </c>
       <c r="X52" s="3">
         <v>2000</v>
@@ -4081,16 +4201,19 @@
         <v>2000</v>
       </c>
       <c r="AA52" s="3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="AB52" s="3">
         <v>3000</v>
       </c>
       <c r="AC52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AD52" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4172,91 +4295,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>71600000</v>
+      </c>
+      <c r="E54" s="3">
         <v>72609000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>72144000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>74221000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>74222000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>75036000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>75758000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>79937000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>79355000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>80064000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>84434000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>89452000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>101643000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>107190000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>125443000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>44770000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>44380000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>43854000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>44957000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>44067000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>42808000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>42026000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>41443000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>41982000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>42465000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>43109000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>41630000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4286,8 +4415,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4317,156 +4447,160 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3514000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4029000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3715000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5197000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4664000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3899000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3713000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3544000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3416000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2987000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2682000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3034000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3845000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4910000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6789000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5445000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5261000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4885000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5443000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5412000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>5059000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4408000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3734000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3825000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>4071000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>3926000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>3392000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>139000</v>
+      </c>
+      <c r="E58" s="3">
         <v>165000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>546000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>459000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>507000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>186000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>780000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>651000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>559000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>440000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2558000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2460000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2464000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>51000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>31000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>126000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>127000</v>
-      </c>
-      <c r="T58" s="3">
-        <v>116000</v>
       </c>
       <c r="U58" s="3">
         <v>116000</v>
       </c>
-      <c r="V58" s="3" t="s">
+      <c r="V58" s="3">
+        <v>116000</v>
+      </c>
+      <c r="W58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
-      </c>
       <c r="X58" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="3">
         <v>500000</v>
@@ -4478,345 +4612,360 @@
         <v>500000</v>
       </c>
       <c r="AB58" s="3">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3787000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3563000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3674000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4074000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3529000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4239000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4633000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5391000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4656000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4796000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5260000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4425000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5654000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13046000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8877000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2309000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2149000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2411000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2813000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2666000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2011000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2492000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2128000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2066000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2281000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2436000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>2296000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7440000</v>
+      </c>
+      <c r="E60" s="3">
         <v>7757000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7935000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9730000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8700000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8324000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9126000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9586000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8631000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8223000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10500000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9919000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11963000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12705000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>15697000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7880000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7537000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7412000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8372000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8078000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7070000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>7400000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6362000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>6391000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>6852000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>6362000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>5688000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>19645000</v>
+      </c>
+      <c r="E61" s="3">
         <v>19670000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>20478000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>21743000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>25865000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>29431000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>30915000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>35352000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>35466000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>35745000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>35899000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>36034000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>36058000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>38537000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>47583000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>10163000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>10215000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>10201000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>10198000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>10312000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>10309000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>9328000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>9326000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>9324000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>9322000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>9819000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>8333000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14956000</v>
+      </c>
+      <c r="E62" s="3">
         <v>15097000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>15011000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>14918000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>14750000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>16954000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>16844000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>16755000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16958000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>17523000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18175000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>20153000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>22327000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>25530000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>21158000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5380000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5392000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4911000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4894000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4746000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4707000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4726000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>5086000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>5230000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>5212000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>5431000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>5313000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4898,8 +5047,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4981,8 +5133,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5064,91 +5219,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>42041000</v>
+      </c>
+      <c r="E66" s="3">
         <v>42524000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>43424000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>46391000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>49315000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>54709000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>56885000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>61693000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>61055000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>61491000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>64574000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>66106000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>70348000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>72958000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>89363000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>23423000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>23144000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>22524000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>23468000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>23136000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>22086000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>21454000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>20774000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>20945000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>21386000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>21612000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>19334000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5178,8 +5339,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5261,8 +5423,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5344,13 +5509,16 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>9762000</v>
+        <v>9130000</v>
       </c>
       <c r="E70" s="3">
         <v>9762000</v>
@@ -5392,7 +5560,7 @@
         <v>9762000</v>
       </c>
       <c r="R70" s="3">
-        <v>0</v>
+        <v>9762000</v>
       </c>
       <c r="S70" s="3">
         <v>0</v>
@@ -5427,8 +5595,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5510,91 +5681,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>17318000</v>
+      </c>
+      <c r="E72" s="3">
         <v>16499000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>14888000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>12462000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>9032000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4480000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3152000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2533000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2639000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2996000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4317000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8105000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>17229000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>20180000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>22227000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>23848000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>23795000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>23750000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>23635000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>22361000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>22107000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>21935000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>22032000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>22435000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>22513000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>22981000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>23836000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5676,8 +5853,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5759,8 +5939,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5842,91 +6025,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20429000</v>
+      </c>
+      <c r="E76" s="3">
         <v>20323000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>18958000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>18068000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>15145000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10565000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9111000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8482000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8538000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8811000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10098000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13584000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21533000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>24470000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>26318000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21347000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21236000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21330000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>21489000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>20931000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>20722000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>20572000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>20669000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>21037000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>21079000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>21497000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>22296000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6008,179 +6197,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>983000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1727000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2546000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3555000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4676000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1337000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>628000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-97000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-346000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1312000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3778000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8353000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2232000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1338000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-927000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1265000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>628000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>705000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1861000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>843000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>705000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>495000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>189000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>505000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>117000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-272000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6210,91 +6408,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1721000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1819000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1736000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1728000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1643000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1966000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1916000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2371000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2194000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1754000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1915000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2186000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2242000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2271000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1706000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2004000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>973000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1086000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1023000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>947000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>921000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1076000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>995000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>989000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>942000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>1050000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>1046000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6376,8 +6578,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6459,8 +6664,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6542,8 +6750,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6625,8 +6836,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6708,91 +6922,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2870000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3975000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4267000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5329000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3239000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3092000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3118000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3314000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>910000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1404000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>852000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>360000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1339000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2009000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2405000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2961000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>948000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2500000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2404000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1756000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1009000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1421000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1070000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1853000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>652000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>915000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>650000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6822,91 +7042,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1461000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1520000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1147000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-972000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-858000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-937000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-656000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-698000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-579000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-614000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-246000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-382000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1293000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2171000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1714000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-76000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-69000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-202000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-484000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-65000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-177000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-683000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-358000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1482000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-2834000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-646000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6988,8 +7212,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7071,91 +7298,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1598000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1898000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1019000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1293000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-662000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-51000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-166000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-754000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-282000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1579000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-292000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-576000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1530000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1301000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-25023000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2703000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1415000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1506000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>586000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1315000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-971000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-953000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-764000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-690000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-672000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-2766000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-642000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7185,91 +7418,95 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-320000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-321000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-324000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-323000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-216000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>19000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-9000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-11000</v>
       </c>
       <c r="L96" s="3">
         <v>-11000</v>
       </c>
       <c r="M96" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="N96" s="3">
         <v>196000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-492000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-694000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-540000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-588000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1178000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-591000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-594000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-595000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-593000</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-592000</v>
       </c>
       <c r="X96" s="3">
         <v>-592000</v>
       </c>
       <c r="Y96" s="3">
+        <v>-592000</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-586000</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-584000</v>
       </c>
       <c r="AA96" s="3">
         <v>-584000</v>
       </c>
       <c r="AB96" s="3">
+        <v>-584000</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-585000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-575000</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7351,8 +7588,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7434,8 +7674,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7517,91 +7760,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1080000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2330000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3370000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4586000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3429000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2532000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5424000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-262000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-354000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2863000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>301000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-935000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1019000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2499000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>26232000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1540000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-814000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-915000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1398000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-685000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-104000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-602000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-583000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-586000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-572000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>904000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-579000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7683,87 +7932,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>192000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-253000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-122000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-550000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-852000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>509000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2472000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2298000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>274000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>120000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>861000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1151000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1210000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1791000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3614000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1282000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1281000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>79000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1592000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-244000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-66000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-134000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-412000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>724000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-739000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-947000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-571000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OXY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OXY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>OXY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,383 +665,396 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6730000</v>
+      </c>
+      <c r="E8" s="3">
         <v>7254000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8250000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9427000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10712000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8398000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7937000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6810000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6007000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5368000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4190000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4129000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2961000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6647000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6670000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5915000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8543000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4142000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4570000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5215000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4175000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3811000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3536000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3067000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3084000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2978000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2822000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>2673000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2786000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2708000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2934000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3054000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3235000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2840000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2655000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2508000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2239000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2257000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2090000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1950000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1789000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3108000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3285000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2985000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3389000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1633000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1954000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1786000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1465000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1363000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1325000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1357000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1486000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1426000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1326000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1338000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3944000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4546000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5316000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6373000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7477000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5558000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5282000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4302000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3768000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3111000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2100000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2179000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1172000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3539000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3385000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2930000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5154000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2509000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2616000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3429000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2710000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2448000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2211000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1710000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1598000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1552000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1496000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>1335000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1072,8 +1085,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1081,85 +1095,88 @@
         <v>102000</v>
       </c>
       <c r="E12" s="3">
+        <v>102000</v>
+      </c>
+      <c r="F12" s="3">
         <v>118000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>47000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>26000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>25000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>107000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>31000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>86000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>28000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>33000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>29000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>33000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>37000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>113000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>63000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>71000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>36000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>50000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>24000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>21000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>15000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>55000</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>8000</v>
       </c>
       <c r="AA12" s="3">
         <v>8000</v>
       </c>
       <c r="AB12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="AC12" s="3">
         <v>11000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>17000</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1244,180 +1261,189 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>209000</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>7000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>13000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>65000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>162000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>46000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>73000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>176000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>124000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2728000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>6619000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1951000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1709000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1249000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>50000</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>305000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>214000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>12000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>30000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>521000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>11000</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>13000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>526000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>221000</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>1709000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1721000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1819000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1736000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1728000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1643000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1966000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1916000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2371000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2194000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1754000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1915000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2119000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2309000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2369000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1767000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>2004000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>973000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>1086000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>1023000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>947000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>921000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>1076000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>995000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>989000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>942000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>1050000</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>1046000</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1445,180 +1471,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>5359000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5386000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5858000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5834000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5963000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5403000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5735000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5286000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5438000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5289000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4701000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7199000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10967000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7622000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7942000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6307000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6687000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3208000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3974000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3588000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2962000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2744000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3515000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2799000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2912000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2732000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>3390000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>2991000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1371000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1868000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2392000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3593000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4749000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2995000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2202000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1524000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>569000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>79000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-511000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3070000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8006000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-975000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1272000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-392000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1856000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>934000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>596000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1627000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1213000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1067000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>21000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>268000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>172000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>246000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-568000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-318000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1649,438 +1682,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>186000</v>
+      </c>
+      <c r="E20" s="3">
         <v>104000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>268000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>340000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>351000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>459000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>213000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>142000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-41000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>631000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-505000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-635000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>132000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-711000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>837000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>199000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>192000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>20000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>232000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>961000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-44000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>14000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>52000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>38000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>519000</v>
       </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
       <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
         <v>4000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>3266000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3693000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4479000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5669000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>6828000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5097000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4381000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3582000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2899000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2904000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>738000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1790000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5688000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>556000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1836000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1513000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4052000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1927000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1914000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3611000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2116000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2002000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1149000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1301000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1680000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1188000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>486000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>788000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>230000</v>
+      </c>
+      <c r="E22" s="3">
         <v>238000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>260000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>285000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>114000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>371000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>385000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>449000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>385000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>395000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>409000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>353000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>310000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>352000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>434000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>381000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>251000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>98000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>99000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>96000</v>
-      </c>
-      <c r="W22" s="3">
-        <v>97000</v>
       </c>
       <c r="X22" s="3">
         <v>97000</v>
       </c>
       <c r="Y22" s="3">
+        <v>97000</v>
+      </c>
+      <c r="Z22" s="3">
         <v>87000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>91000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>86000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>81000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>76000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>68000</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1327000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1734000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2400000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3648000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4986000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3083000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2030000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1217000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>143000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>315000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1425000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4058000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8184000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2038000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-869000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-574000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1797000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>856000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>729000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2492000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1072000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>984000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-14000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>215000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>605000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>165000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-640000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-326000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>467000</v>
+      </c>
+      <c r="E24" s="3">
         <v>471000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>473000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>902000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1231000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1793000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>469000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>387000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>43000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>16000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-276000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-403000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1468000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>167000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>163000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>531000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>225000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>151000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>710000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>302000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>339000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-421000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>85000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>285000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>78000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-333000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-30000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2165,180 +2214,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>860000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1263000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1927000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2746000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3755000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4876000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1561000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>830000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>299000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1149000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3655000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6716000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2013000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1036000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-737000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1266000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>631000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>578000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1782000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>770000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>645000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>407000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>130000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>320000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>87000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-307000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-296000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>605000</v>
+      </c>
+      <c r="E27" s="3">
         <v>983000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1727000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2546000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3555000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4676000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1361000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>630000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>99000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1349000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3858000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6938000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2232000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1338000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-897000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1265000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>628000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>680000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1861000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>843000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>705000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>485000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>189000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>505000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>117000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-268000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2423,16 +2481,19 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -2444,46 +2505,46 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-24000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-2000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>3000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-445000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>37000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>80000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-1415000</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-30000</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>25000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>24</v>
@@ -2491,12 +2552,12 @@
       <c r="X29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z29" s="3">
         <v>10000</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
       <c r="AA29" s="3">
         <v>0</v>
       </c>
@@ -2504,13 +2565,16 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
         <v>-4000</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2595,8 +2659,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2681,180 +2748,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-186000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-104000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-268000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-340000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-351000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-459000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-213000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-142000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>41000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-631000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>505000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>635000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-132000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>711000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-837000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-199000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-192000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-20000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-232000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-961000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>44000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-14000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-52000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-38000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-519000</v>
       </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
       <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
         <v>-4000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-60000</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>605000</v>
+      </c>
+      <c r="E33" s="3">
         <v>983000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1727000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2546000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3555000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4676000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1337000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>628000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-97000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-346000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1312000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3778000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8353000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2232000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1338000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-927000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1265000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>628000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>705000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1861000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>843000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>705000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>495000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>189000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>505000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>117000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-272000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2939,185 +3015,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>605000</v>
+      </c>
+      <c r="E35" s="3">
         <v>983000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1727000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2546000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3555000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4676000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1337000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>628000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-97000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-346000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1312000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3778000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8353000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2232000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1338000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-927000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1265000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>628000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>705000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1861000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>843000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>705000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>495000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>189000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>505000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>117000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-272000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3148,8 +3233,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3180,94 +3266,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>486000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1165000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>984000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1233000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1362000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1909000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2764000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2059000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4569000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2270000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2008000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1896000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1011000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2021000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3032000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4840000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1751000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1752000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3033000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2954000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1362000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1606000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1672000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1806000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2218000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1494000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>2233000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>3180000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3352,524 +3442,545 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2850000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3272000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4281000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4046000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6350000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5434000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4208000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3477000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3288000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3046000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2115000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2083000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2359000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2458000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4233000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5854000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5273000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5310000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4893000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>6000000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5521000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5184000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>4145000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3749000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3913000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>4316000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>3989000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>3521000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2021000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2311000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2059000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1937000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1564000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1406000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1846000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1773000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1837000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2173000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1898000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1660000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1477000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1436000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1581000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1601000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1582000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1484000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1260000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1009000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1347000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1057000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1246000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1007000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>920000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1005000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>866000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>927000</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2097000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1394000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1562000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1533000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1132000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1309000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1393000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2590000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3150000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2585000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2798000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5055000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3590000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>8194000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7219000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>8649000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>819000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>724000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>746000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1149000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2760000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1047000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1207000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>483000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1024000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1423000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1340000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>1083000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7454000</v>
+      </c>
+      <c r="E46" s="3">
         <v>8142000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8886000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8749000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10408000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10058000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10211000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9899000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12844000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10074000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8819000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10694000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8437000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>14109000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>14633000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>20944000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9425000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9270000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>9932000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>11112000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>10990000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8894000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>8270000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>7045000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>8075000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>8238000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>8428000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>8711000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4420000</v>
+        <v>4559000</v>
       </c>
       <c r="E47" s="3">
         <v>4420000</v>
       </c>
       <c r="F47" s="3">
+        <v>4420000</v>
+      </c>
+      <c r="G47" s="3">
         <v>4284000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4503000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4229000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4154000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4396000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4370000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4259000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4278000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4109000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>7204000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>7248000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>11305000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4814000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2539000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2518000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2477000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2686000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2642000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2568000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2580000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2331000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2439000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>2219000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>2341000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>2487000</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>59168000</v>
+      </c>
+      <c r="E48" s="3">
         <v>59021000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>59287000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>59096000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>59294000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>59918000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>60656000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>61448000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>62706000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>65022000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>66951000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>69617000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>73733000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>80266000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>83641000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>91199000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>32796000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>32584000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>31437000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>31155000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>30432000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>31344000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>31174000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>32065000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>31466000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>32005000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>32337000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>30419000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3912,14 +4023,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-      <c r="Q49" s="3" t="s">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>8461000</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>24</v>
@@ -3936,8 +4047,8 @@
       <c r="X49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y49" s="3">
-        <v>0</v>
+      <c r="Y49" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Z49" s="3">
         <v>0</v>
@@ -3954,8 +4065,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4040,8 +4154,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4126,73 +4243,76 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E52" s="3">
         <v>17000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>15000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>16000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>17000</v>
-      </c>
-      <c r="I52" s="3">
-        <v>15000</v>
       </c>
       <c r="J52" s="3">
         <v>15000</v>
       </c>
       <c r="K52" s="3">
+        <v>15000</v>
+      </c>
+      <c r="L52" s="3">
         <v>17000</v>
       </c>
-      <c r="L52" s="3" t="s">
+      <c r="M52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>16000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>14000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>78000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>20000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>17000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>25000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10000</v>
-      </c>
-      <c r="T52" s="3">
-        <v>8000</v>
       </c>
       <c r="U52" s="3">
         <v>8000</v>
       </c>
       <c r="V52" s="3">
+        <v>8000</v>
+      </c>
+      <c r="W52" s="3">
         <v>4000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3000</v>
-      </c>
-      <c r="X52" s="3">
-        <v>2000</v>
       </c>
       <c r="Y52" s="3">
         <v>2000</v>
@@ -4204,16 +4324,19 @@
         <v>2000</v>
       </c>
       <c r="AB52" s="3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="AC52" s="3">
         <v>3000</v>
       </c>
       <c r="AD52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AE52" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4298,94 +4421,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>71199000</v>
+      </c>
+      <c r="E54" s="3">
         <v>71600000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>72609000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>72144000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>74221000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>74222000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>75036000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>75758000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>79937000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>79355000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>80064000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>84434000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>89452000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>101643000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>107190000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>125443000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>44770000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>44380000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>43854000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>44957000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>44067000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>42808000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>42026000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>41443000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>41982000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>42465000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>43109000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>41630000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4416,8 +4545,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4448,162 +4578,166 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3557000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3514000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4029000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3715000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5197000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4664000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3899000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3713000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3544000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3416000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2987000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2682000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3034000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3845000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4910000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6789000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5445000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5261000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4885000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5443000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>5412000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>5059000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4408000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3734000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>3825000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>4071000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>3926000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>3392000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>158000</v>
+      </c>
+      <c r="E58" s="3">
         <v>139000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>165000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>546000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>459000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>507000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>186000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>780000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>651000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>559000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>440000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2558000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2460000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2464000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>51000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>31000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>126000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>127000</v>
-      </c>
-      <c r="U58" s="3">
-        <v>116000</v>
       </c>
       <c r="V58" s="3">
         <v>116000</v>
       </c>
-      <c r="W58" s="3" t="s">
+      <c r="W58" s="3">
+        <v>116000</v>
+      </c>
+      <c r="X58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
-      </c>
       <c r="Y58" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="Z58" s="3">
         <v>500000</v>
@@ -4615,357 +4749,372 @@
         <v>500000</v>
       </c>
       <c r="AC58" s="3">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3741000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3787000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3563000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3674000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4074000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3529000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4239000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4633000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5391000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4656000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4796000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5260000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4425000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5654000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>13046000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8877000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2309000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2149000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2411000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2813000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2666000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2011000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2492000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2128000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2066000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2281000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>2436000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>2296000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7456000</v>
+      </c>
+      <c r="E60" s="3">
         <v>7440000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7757000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7935000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9730000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8700000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8324000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9126000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9586000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8631000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8223000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10500000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9919000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11963000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12705000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>15697000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7880000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7537000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7412000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8372000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8078000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>7070000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>7400000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>6362000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>6391000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>6852000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>6362000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>5688000</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>19669000</v>
+      </c>
+      <c r="E61" s="3">
         <v>19645000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>19670000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>20478000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>21743000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>25865000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>29431000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>30915000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>35352000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>35466000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>35745000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>35899000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>36034000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>36058000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>38537000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>47583000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>10163000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>10215000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>10201000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>10198000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>10312000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>10309000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>9328000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>9326000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>9324000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>9322000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>9819000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>8333000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14963000</v>
+      </c>
+      <c r="E62" s="3">
         <v>14956000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>15097000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15011000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>14918000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>14750000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>16954000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>16844000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16755000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16958000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>17523000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>18175000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>20153000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>22327000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>25530000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>21158000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5380000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5392000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4911000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4894000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4746000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4707000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>4726000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>5086000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>5230000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>5212000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>5431000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>5313000</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5050,8 +5199,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5136,8 +5288,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5222,94 +5377,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>42088000</v>
+      </c>
+      <c r="E66" s="3">
         <v>42041000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>42524000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>43424000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>46391000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>49315000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>54709000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>56885000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>61693000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>61055000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>61491000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>64574000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>66106000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>70348000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>72958000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>89363000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>23423000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>23144000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>22524000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>23468000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>23136000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>22086000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>21454000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>20774000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>20945000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>21386000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>21612000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>19334000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5340,8 +5501,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5426,8 +5588,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5512,16 +5677,19 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>8621000</v>
+      </c>
+      <c r="E70" s="3">
         <v>9130000</v>
-      </c>
-      <c r="E70" s="3">
-        <v>9762000</v>
       </c>
       <c r="F70" s="3">
         <v>9762000</v>
@@ -5563,7 +5731,7 @@
         <v>9762000</v>
       </c>
       <c r="S70" s="3">
-        <v>0</v>
+        <v>9762000</v>
       </c>
       <c r="T70" s="3">
         <v>0</v>
@@ -5598,8 +5766,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5684,94 +5855,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>17762000</v>
+      </c>
+      <c r="E72" s="3">
         <v>17318000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>16499000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>14888000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>12462000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>9032000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4480000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3152000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2533000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2639000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2996000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4317000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8105000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>17229000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>20180000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>22227000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>23848000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>23795000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>23750000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>23635000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>22361000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>22107000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>21935000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>22032000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>22435000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>22513000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>22981000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>23836000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5856,8 +6033,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5942,8 +6122,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6028,94 +6211,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20490000</v>
+      </c>
+      <c r="E76" s="3">
         <v>20429000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>20323000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>18958000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>18068000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>15145000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10565000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9111000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8482000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8538000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8811000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10098000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13584000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21533000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>24470000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>26318000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21347000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21236000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>21330000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>21489000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>20931000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>20722000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>20572000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>20669000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>21037000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>21079000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>21497000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>22296000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6200,185 +6389,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>605000</v>
+      </c>
+      <c r="E81" s="3">
         <v>983000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1727000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2546000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3555000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4676000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1337000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>628000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-97000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-346000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1312000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3778000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8353000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2232000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1338000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-927000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1265000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>628000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>705000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1861000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>843000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>705000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>495000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>189000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>505000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>117000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-272000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6409,94 +6607,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1709000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1721000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1819000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1736000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1728000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1643000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1966000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1916000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2371000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2194000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1754000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1915000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2186000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2242000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2271000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1706000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2004000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>973000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1086000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1023000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>947000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>921000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1076000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>995000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>989000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>942000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>1050000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>1046000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6581,8 +6783,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6667,8 +6872,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6753,8 +6961,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6839,8 +7050,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6925,94 +7139,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3070000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2870000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3975000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4267000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5329000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3239000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3092000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3118000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3314000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>910000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1404000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>852000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>360000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1339000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2009000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2405000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2961000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>948000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2500000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2404000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1756000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1009000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1421000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1070000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1853000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>652000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>915000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>650000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7043,94 +7263,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1646000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1461000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1520000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1147000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-972000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-858000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-937000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-656000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-698000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-579000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-614000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-246000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-382000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1293000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2171000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1714000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-76000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-69000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-202000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-484000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-65000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-177000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-683000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-358000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-1482000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-2834000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-646000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7215,8 +7439,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7301,94 +7528,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1939000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1598000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1898000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1019000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1293000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-662000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-51000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-166000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-754000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-282000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1579000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-292000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-576000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1530000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1301000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-25023000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2703000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1415000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1506000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>586000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1315000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-971000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-953000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-764000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-690000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-672000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-2766000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-642000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7419,94 +7652,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-368000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-320000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-321000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-324000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-323000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-216000</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>19000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-9000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-11000</v>
       </c>
       <c r="M96" s="3">
         <v>-11000</v>
       </c>
       <c r="N96" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="O96" s="3">
         <v>196000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-492000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-694000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-540000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-588000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1178000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-591000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-594000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-595000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-593000</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-592000</v>
       </c>
       <c r="Y96" s="3">
         <v>-592000</v>
       </c>
       <c r="Z96" s="3">
+        <v>-592000</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-586000</v>
-      </c>
-      <c r="AA96" s="3">
-        <v>-584000</v>
       </c>
       <c r="AB96" s="3">
         <v>-584000</v>
       </c>
       <c r="AC96" s="3">
+        <v>-584000</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-585000</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-575000</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7591,8 +7828,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7677,8 +7917,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7763,94 +8006,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1816000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1080000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2330000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3370000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4586000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3429000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2532000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5424000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-262000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-354000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2863000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>301000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-935000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1019000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2499000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>26232000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1540000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-814000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-915000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1398000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-685000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-104000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-602000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-583000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-586000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-572000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>904000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-579000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7935,90 +8184,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-685000</v>
+      </c>
+      <c r="E102" s="3">
         <v>192000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-253000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-122000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-550000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-852000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>509000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2472000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2298000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>274000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>120000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>861000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1151000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1210000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1791000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3614000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1282000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1281000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>79000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1592000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-244000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-66000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-134000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-412000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>724000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-739000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-947000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-571000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OXY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OXY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>OXY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,396 +665,409 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7208000</v>
+      </c>
+      <c r="E8" s="3">
         <v>6730000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7254000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8250000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9427000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10712000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8398000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7937000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6810000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6007000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5368000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4190000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4129000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2961000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6647000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6670000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5915000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8543000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4142000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4570000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5215000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4175000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3811000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3536000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3067000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3084000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2978000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>2822000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>2673000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2754000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2786000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2708000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2934000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3054000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3235000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2840000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2655000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2508000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2239000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2257000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2090000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1950000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1789000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3108000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3285000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2985000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3389000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1633000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1954000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1786000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1465000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1363000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1325000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1357000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1486000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1426000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1326000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>1338000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4454000</v>
+      </c>
+      <c r="E10" s="3">
         <v>3944000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4546000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5316000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6373000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7477000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5558000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5282000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4302000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3768000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3111000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2100000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2179000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1172000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3539000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3385000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2930000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5154000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2509000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2616000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3429000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2710000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2448000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2211000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1710000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1598000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1552000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>1496000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>1335000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1086,97 +1099,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>102000</v>
+        <v>125000</v>
       </c>
       <c r="E12" s="3">
         <v>102000</v>
       </c>
       <c r="F12" s="3">
+        <v>102000</v>
+      </c>
+      <c r="G12" s="3">
         <v>118000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>47000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>26000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>25000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>107000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>31000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>86000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>28000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>33000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>29000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>33000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>37000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>113000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>63000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>71000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>36000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>50000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>24000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>21000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>15000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>55000</v>
-      </c>
-      <c r="AA12" s="3">
-        <v>8000</v>
       </c>
       <c r="AB12" s="3">
         <v>8000</v>
       </c>
       <c r="AC12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="AD12" s="3">
         <v>11000</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>17000</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1264,186 +1281,195 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>209000</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>7000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>13000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>65000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>162000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>46000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>73000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>176000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>124000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2728000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>6619000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1951000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1709000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1249000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>50000</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>305000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>214000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>12000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>30000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>521000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>11000</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
       <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>13000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>526000</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>221000</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>1712000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1709000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1721000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1819000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1736000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1728000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1643000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1966000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1916000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2371000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2194000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1754000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1915000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2119000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2309000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>2369000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>1767000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>2004000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>973000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>1086000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>1023000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>947000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>921000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>1076000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>995000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>989000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>942000</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>1050000</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>1046000</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1472,186 +1498,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>5467000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5359000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5386000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5858000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5834000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5963000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5403000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5735000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5286000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5438000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5289000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4701000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7199000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10967000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7622000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7942000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6307000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6687000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3208000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3974000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3588000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2962000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2744000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3515000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2799000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2912000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2732000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>3390000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>2991000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1741000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1371000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1868000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2392000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3593000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4749000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2995000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2202000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1524000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>569000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>79000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-511000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3070000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-8006000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-975000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1272000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-392000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1856000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>934000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>596000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1627000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1213000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1067000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>21000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>268000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>172000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>246000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-568000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-318000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1683,186 +1716,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>298000</v>
+      </c>
+      <c r="E20" s="3">
         <v>186000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>104000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>268000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>340000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>351000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>459000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>213000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>142000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-41000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>631000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-505000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-635000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>132000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-711000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>837000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>199000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>192000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>20000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>232000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>961000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-44000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>14000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>52000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>38000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>519000</v>
       </c>
-      <c r="AC20" s="3">
-        <v>0</v>
-      </c>
       <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
         <v>4000</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>3751000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3266000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3693000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4479000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5669000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>6828000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5097000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4381000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3582000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2899000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2904000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>738000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1790000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5688000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>556000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1836000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1513000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4052000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1927000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1914000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3611000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2116000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2002000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1149000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1301000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1680000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1188000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>486000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>788000</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1870,266 +1910,275 @@
         <v>230000</v>
       </c>
       <c r="E22" s="3">
+        <v>230000</v>
+      </c>
+      <c r="F22" s="3">
         <v>238000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>260000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>285000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>114000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>371000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>385000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>449000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>385000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>395000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>409000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>353000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>310000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>352000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>434000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>381000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>251000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>98000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>99000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>96000</v>
-      </c>
-      <c r="X22" s="3">
-        <v>97000</v>
       </c>
       <c r="Y22" s="3">
         <v>97000</v>
       </c>
       <c r="Z22" s="3">
+        <v>97000</v>
+      </c>
+      <c r="AA22" s="3">
         <v>87000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>91000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>86000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>81000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>76000</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>68000</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1809000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1327000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1734000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2400000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3648000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4986000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3083000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2030000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1217000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>143000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>315000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1425000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4058000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-8184000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2038000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-869000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-574000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1797000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>856000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>729000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2492000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1072000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>984000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-14000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>215000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>605000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>165000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-640000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-326000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>434000</v>
+      </c>
+      <c r="E24" s="3">
         <v>467000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>471000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>473000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>902000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1231000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1793000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>469000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>387000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>43000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>16000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-276000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-403000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1468000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-25000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>167000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>163000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>531000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>225000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>151000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>710000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>302000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>339000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-421000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>85000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>285000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>78000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-333000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>-30000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2217,186 +2266,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1375000</v>
+      </c>
+      <c r="E26" s="3">
         <v>860000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1263000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1927000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2746000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3755000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4876000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1561000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>830000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>100000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>299000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1149000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3655000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6716000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2013000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1036000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-737000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1266000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>631000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>578000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1782000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>770000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>645000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>407000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>130000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>320000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>87000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-307000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-296000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1156000</v>
+      </c>
+      <c r="E27" s="3">
         <v>605000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>983000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1727000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2546000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3555000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4676000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1361000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>630000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>99000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1349000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3858000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6938000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2232000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1338000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-897000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1265000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>628000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>680000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1861000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>843000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>705000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>485000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>189000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>505000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>117000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-268000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2484,8 +2542,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2495,8 +2556,8 @@
       <c r="E29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -2508,46 +2569,46 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-24000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-2000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>3000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-445000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>37000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>80000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-1415000</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-30000</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3" t="s">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>25000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>24</v>
@@ -2555,12 +2616,12 @@
       <c r="Y29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA29" s="3">
         <v>10000</v>
       </c>
-      <c r="AA29" s="3">
-        <v>0</v>
-      </c>
       <c r="AB29" s="3">
         <v>0</v>
       </c>
@@ -2568,13 +2629,16 @@
         <v>0</v>
       </c>
       <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
         <v>-4000</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AF29" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2662,8 +2726,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2751,186 +2818,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-298000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-186000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-104000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-268000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-340000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-351000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-459000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-213000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-142000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>41000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-631000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>505000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>635000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-132000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>711000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-837000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-199000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-192000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-20000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-232000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-961000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>44000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-14000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-52000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-38000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-519000</v>
       </c>
-      <c r="AC32" s="3">
-        <v>0</v>
-      </c>
       <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
         <v>-4000</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-60000</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1156000</v>
+      </c>
+      <c r="E33" s="3">
         <v>605000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>983000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1727000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2546000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3555000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4676000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1337000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>628000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-97000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-346000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1312000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3778000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-8353000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2232000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1338000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-927000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1265000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>628000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>705000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1861000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>843000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>705000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>495000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>189000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>505000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>117000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-272000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3018,191 +3094,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1156000</v>
+      </c>
+      <c r="E35" s="3">
         <v>605000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>983000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1727000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2546000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3555000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4676000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1337000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>628000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-97000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-346000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1312000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3778000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-8353000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2232000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1338000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-927000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1265000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>628000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>705000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1861000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>843000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>705000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>495000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>189000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>505000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>117000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-272000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3234,8 +3319,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3267,97 +3353,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>611000</v>
+      </c>
+      <c r="E41" s="3">
         <v>486000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1165000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>984000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1233000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1362000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1909000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2764000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2059000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4569000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2270000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2008000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1896000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1011000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2021000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3032000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4840000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1751000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1752000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3033000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2954000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1362000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1606000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1672000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1806000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2218000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1494000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>2233000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>3180000</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3445,542 +3535,563 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3674000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2850000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3272000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4281000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4046000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6350000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5434000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4208000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3477000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3288000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3046000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2115000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2083000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2359000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2458000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4233000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5854000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5273000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5310000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4893000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>6000000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5521000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5184000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>4145000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3749000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>3913000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>4316000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>3989000</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>3521000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1975000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2021000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2311000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2059000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1937000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1564000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1406000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1846000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1773000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1837000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2173000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1898000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1660000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1477000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1436000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1581000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1601000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1582000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1484000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1260000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1009000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1347000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1057000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1246000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1007000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>920000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1005000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>866000</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>927000</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2006000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2097000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1394000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1562000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1533000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1132000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1309000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1393000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2590000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3150000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2585000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2798000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5055000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3590000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>8194000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7219000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>8649000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>819000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>724000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>746000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1149000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2760000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1047000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1207000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>483000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1024000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1423000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>1340000</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>1083000</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8266000</v>
+      </c>
+      <c r="E46" s="3">
         <v>7454000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8142000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8886000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8749000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10408000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10058000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10211000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9899000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12844000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10074000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8819000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10694000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8437000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>14109000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>14633000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>20944000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9425000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>9270000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>9932000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>11112000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>10990000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>8894000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>8270000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>7045000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>8075000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>8238000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>8428000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>8711000</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4421000</v>
+      </c>
+      <c r="E47" s="3">
         <v>4559000</v>
-      </c>
-      <c r="E47" s="3">
-        <v>4420000</v>
       </c>
       <c r="F47" s="3">
         <v>4420000</v>
       </c>
       <c r="G47" s="3">
+        <v>4420000</v>
+      </c>
+      <c r="H47" s="3">
         <v>4284000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4503000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4229000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4154000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4396000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4370000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4259000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4278000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4109000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>7204000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>7248000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>11305000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4814000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2539000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2518000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2477000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2686000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2642000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2568000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2580000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2331000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>2439000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>2219000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>2341000</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>2487000</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>59124000</v>
+      </c>
+      <c r="E48" s="3">
         <v>59168000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>59021000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>59287000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>59096000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>59294000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>59918000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>60656000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>61448000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>62706000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>65022000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>66951000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>69617000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>73733000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>80266000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>83641000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>91199000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>32796000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>32584000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>31437000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>31155000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>30432000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>31344000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>31174000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>32065000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>31466000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>32005000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>32337000</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>30419000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4026,14 +4137,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-      <c r="R49" s="3" t="s">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>8461000</v>
-      </c>
-      <c r="T49" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>24</v>
@@ -4050,8 +4161,8 @@
       <c r="Y49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z49" s="3">
-        <v>0</v>
+      <c r="Z49" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="AA49" s="3">
         <v>0</v>
@@ -4068,8 +4179,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4157,8 +4271,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4246,76 +4363,79 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E52" s="3">
         <v>18000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>17000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>16000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>15000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>16000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>17000</v>
-      </c>
-      <c r="J52" s="3">
-        <v>15000</v>
       </c>
       <c r="K52" s="3">
         <v>15000</v>
       </c>
       <c r="L52" s="3">
+        <v>15000</v>
+      </c>
+      <c r="M52" s="3">
         <v>17000</v>
       </c>
-      <c r="M52" s="3" t="s">
+      <c r="N52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>16000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>14000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>78000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>20000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>17000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>25000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10000</v>
-      </c>
-      <c r="U52" s="3">
-        <v>8000</v>
       </c>
       <c r="V52" s="3">
         <v>8000</v>
       </c>
       <c r="W52" s="3">
+        <v>8000</v>
+      </c>
+      <c r="X52" s="3">
         <v>4000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3000</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>2000</v>
       </c>
       <c r="Z52" s="3">
         <v>2000</v>
@@ -4327,16 +4447,19 @@
         <v>2000</v>
       </c>
       <c r="AC52" s="3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="AD52" s="3">
         <v>3000</v>
       </c>
       <c r="AE52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AF52" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4424,97 +4547,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>71827000</v>
+      </c>
+      <c r="E54" s="3">
         <v>71199000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>71600000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>72609000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>72144000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>74221000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>74222000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>75036000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>75758000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>79937000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>79355000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>80064000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>84434000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>89452000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>101643000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>107190000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>125443000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>44770000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>44380000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>43854000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>44957000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>44067000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>42808000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>42026000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>41443000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>41982000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>42465000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>43109000</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>41630000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4546,8 +4675,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4579,168 +4709,172 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3908000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3557000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3514000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4029000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3715000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5197000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4664000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3899000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3713000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3544000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3416000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2987000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2682000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3034000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3845000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4910000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6789000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5445000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5261000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4885000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>5443000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>5412000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>5059000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4408000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>3734000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>3825000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>4071000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>3926000</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>3392000</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1224000</v>
+      </c>
+      <c r="E58" s="3">
         <v>158000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>139000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>165000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>546000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>459000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>507000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>186000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>780000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>651000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>559000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>440000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2558000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2460000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2464000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>51000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>31000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>126000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>127000</v>
-      </c>
-      <c r="V58" s="3">
-        <v>116000</v>
       </c>
       <c r="W58" s="3">
         <v>116000</v>
       </c>
-      <c r="X58" s="3" t="s">
+      <c r="X58" s="3">
+        <v>116000</v>
+      </c>
+      <c r="Y58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
-      </c>
       <c r="Z58" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="AA58" s="3">
         <v>500000</v>
@@ -4752,369 +4886,384 @@
         <v>500000</v>
       </c>
       <c r="AD58" s="3">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3809000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3741000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3787000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3563000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3674000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4074000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3529000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4239000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4633000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5391000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4656000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4796000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5260000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4425000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5654000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13046000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8877000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2309000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2149000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2411000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2813000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2666000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2011000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2492000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2128000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2066000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>2281000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>2436000</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>2296000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8941000</v>
+      </c>
+      <c r="E60" s="3">
         <v>7456000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7440000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7757000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7935000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9730000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8700000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8324000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9126000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9586000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8631000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8223000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10500000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9919000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11963000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>12705000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>15697000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7880000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7537000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7412000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8372000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>8078000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>7070000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>7400000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>6362000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>6391000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>6852000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>6362000</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>5688000</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>18597000</v>
+      </c>
+      <c r="E61" s="3">
         <v>19669000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>19645000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>19670000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>20478000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>21743000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>25865000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>29431000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>30915000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>35352000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>35466000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>35745000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>35899000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>36034000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>36058000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>38537000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>47583000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>10163000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>10215000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>10201000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>10198000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>10312000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>10309000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>9328000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>9326000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>9324000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>9322000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>9819000</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>8333000</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14977000</v>
+      </c>
+      <c r="E62" s="3">
         <v>14963000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14956000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15097000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>15011000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>14918000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>14750000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>16954000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16844000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16755000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16958000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>17523000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>18175000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>20153000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>22327000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>25530000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>21158000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5380000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>5392000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4911000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4894000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4746000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>4707000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>4726000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>5086000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>5230000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>5212000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>5431000</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>5313000</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5202,8 +5351,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5291,8 +5443,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5380,97 +5535,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>42515000</v>
+      </c>
+      <c r="E66" s="3">
         <v>42088000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>42041000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>42524000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>43424000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>46391000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>49315000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>54709000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>56885000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>61693000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>61055000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>61491000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>64574000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>66106000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>70348000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>72958000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>89363000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>23423000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>23144000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>22524000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>23468000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>23136000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>22086000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>21454000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>20774000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>20945000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>21386000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>21612000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>19334000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5502,8 +5663,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5591,8 +5753,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5680,19 +5845,22 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>8287000</v>
+      </c>
+      <c r="E70" s="3">
         <v>8621000</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>9130000</v>
-      </c>
-      <c r="F70" s="3">
-        <v>9762000</v>
       </c>
       <c r="G70" s="3">
         <v>9762000</v>
@@ -5734,7 +5902,7 @@
         <v>9762000</v>
       </c>
       <c r="T70" s="3">
-        <v>0</v>
+        <v>9762000</v>
       </c>
       <c r="U70" s="3">
         <v>0</v>
@@ -5769,8 +5937,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5858,97 +6029,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>18758000</v>
+      </c>
+      <c r="E72" s="3">
         <v>17762000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>17318000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>16499000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>14888000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>12462000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>9032000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4480000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3152000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2533000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2639000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2996000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4317000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8105000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>17229000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>20180000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>22227000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>23848000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>23795000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>23750000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>23635000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>22361000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>22107000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>21935000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>22032000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>22435000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>22513000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>22981000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>23836000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6036,8 +6213,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6125,8 +6305,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6214,97 +6397,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21025000</v>
+      </c>
+      <c r="E76" s="3">
         <v>20490000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>20429000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>20323000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>18958000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>18068000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>15145000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10565000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9111000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8482000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8538000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8811000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10098000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13584000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21533000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>24470000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>26318000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21347000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>21236000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>21330000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>21489000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>20931000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>20722000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>20572000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>20669000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>21037000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>21079000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>21497000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>22296000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6392,191 +6581,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1156000</v>
+      </c>
+      <c r="E81" s="3">
         <v>605000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>983000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1727000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2546000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3555000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4676000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1337000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>628000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-97000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-346000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1312000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3778000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-8353000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2232000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1338000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-927000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1265000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>628000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>705000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1861000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>843000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>705000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>495000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>189000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>505000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>117000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-272000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-241000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6608,97 +6806,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1712000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1709000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1721000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1819000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1736000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1728000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1643000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1966000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1916000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2371000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2194000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1754000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1915000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2186000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2242000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2271000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1706000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2004000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>973000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1086000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1023000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>947000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>921000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1076000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>995000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>989000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>942000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>1050000</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>1046000</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6786,8 +6988,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6875,8 +7080,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6964,8 +7172,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7053,8 +7264,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7142,97 +7356,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3129000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3070000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2870000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3975000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4267000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5329000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3239000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3092000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3118000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3314000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>910000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1404000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>852000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>360000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1339000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2009000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2405000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2961000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>948000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2500000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2404000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1756000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1009000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1421000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1070000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1853000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>652000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>915000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>650000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7264,97 +7484,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1619000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1646000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1461000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1520000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1147000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-972000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-858000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-937000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-656000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-698000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-579000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-614000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-246000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-382000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1293000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2171000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1714000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-76000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-69000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-202000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-484000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-65000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-177000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-4000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-683000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-358000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-1482000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-2834000</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-646000</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7442,8 +7666,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7531,97 +7758,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1474000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1939000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1598000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1898000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1019000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1293000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-662000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-51000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-166000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-754000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-282000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1579000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-292000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-576000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1530000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1301000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-25023000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2703000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1415000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1506000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>586000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1315000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-971000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-953000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-764000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-690000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-672000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-2766000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-642000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7653,97 +7886,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-347000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-368000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-320000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-321000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-324000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-323000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-216000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>19000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-9000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-11000</v>
       </c>
       <c r="N96" s="3">
         <v>-11000</v>
       </c>
       <c r="O96" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="P96" s="3">
         <v>196000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-492000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-694000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-540000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-588000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1178000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-591000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-594000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-595000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-593000</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-592000</v>
       </c>
       <c r="Z96" s="3">
         <v>-592000</v>
       </c>
       <c r="AA96" s="3">
+        <v>-592000</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-586000</v>
-      </c>
-      <c r="AB96" s="3">
-        <v>-584000</v>
       </c>
       <c r="AC96" s="3">
         <v>-584000</v>
       </c>
       <c r="AD96" s="3">
+        <v>-584000</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-585000</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-575000</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7831,8 +8068,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7920,8 +8160,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8009,97 +8252,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1539000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1816000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1080000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2330000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3370000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4586000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3429000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2532000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5424000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-262000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-354000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2863000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>301000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-935000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1019000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2499000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>26232000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1540000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-814000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-915000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1398000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-685000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-104000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-602000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-583000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-586000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-572000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>904000</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-579000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8187,93 +8436,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>116000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-685000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>192000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-253000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-122000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-550000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-852000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>509000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2472000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2298000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>274000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>120000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>861000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1151000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1210000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1791000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3614000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1282000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1281000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>79000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1592000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-244000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-66000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-134000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-412000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>724000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-739000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-947000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-571000</v>
       </c>
     </row>
